--- a/Analysis240.xlsx
+++ b/Analysis240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="321">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,898 +26,955 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>stealing hamburgers</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>surviving in a post-apocalyptic world</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>divorcing husbands</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>killing rival gladiators</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>moaning about life</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>analyzing murder scenes</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>making ice sculptures</t>
+  </si>
+  <si>
+    <t>promoting socialism</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>creating adverts</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>winning tennis matches</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>promoting Objectivism</t>
+  </si>
+  <si>
+    <t>testing scientific theories</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>flying airplanes</t>
+  </si>
+  <si>
+    <t>painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>promoting pacifism</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>avenging loved ones</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>talking to mirrors</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>wooing potential brides</t>
+  </si>
+  <si>
+    <t>rooting out spies</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>going on romantic quests</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>telling affable jokes</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>making Superhero movies</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
     <t>studying science</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>0.46%</t>
+    <t>providing comic relief</t>
   </si>
   <si>
     <t>writing plays</t>
   </si>
   <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>giving speeches</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>telling politicians what to do</t>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>cooking fancy food</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>killing monsters</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>smoking Silk Cut cigarettes</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>promoting humanism</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>painting surreal pictures</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>burning with envy</t>
+  </si>
+  <si>
+    <t>making billions</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>winning golf tournaments</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>launching hostile takeovers</t>
+  </si>
+  <si>
+    <t>promoting boxing fights</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>complaining about big brother</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>selling cosmetics</t>
+  </si>
+  <si>
+    <t>tormenting muggles</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>running a dictatorship</t>
+  </si>
+  <si>
+    <t>eating dinosaur ribs</t>
+  </si>
+  <si>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>surviving large-scale floods</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>pinching pennies</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>throwing temper tantrums</t>
+  </si>
+  <si>
+    <t>growing up poor</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>making silly decisions</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>hunting monsters</t>
+  </si>
+  <si>
+    <t>singing goofy songs</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>eating Peking duck</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>betraying friends</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>changing sides</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>pretending to wrestle</t>
+  </si>
+  <si>
+    <t>fighting the forces of good</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>getting run over by cars</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>planning confidence tricks</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>teaching Defence Against the Dark Arts</t>
+  </si>
+  <si>
+    <t>tending the garden</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>evading mercenaries</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>robbing from the rich</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>selling tickets</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>playing the trumpet</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>surviving a shipwreck</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>making mediocre movies</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>writing on wax tablets</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes</t>
+  </si>
+  <si>
+    <t>promoting enlightenment</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>writing legal fiction</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>doing slapstick comedy</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>impersonating women</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>eating bacon cheeseburgers</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>developing real estate</t>
+  </si>
+  <si>
+    <t>performing Web searches</t>
   </si>
   <si>
     <t>brewing magican potions</t>
   </si>
   <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>transforming into vehicles</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>selling out</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>chasing electronic ghosts</t>
-  </si>
-  <si>
-    <t>making political gaffes</t>
-  </si>
-  <si>
-    <t>0.29%</t>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>singing multipart harmonies</t>
+  </si>
+  <si>
+    <t>eating census takers</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>making idealistic movies</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>directing bad movies</t>
+  </si>
+  <si>
+    <t>expressing dissent</t>
   </si>
   <si>
     <t>extracting confessions</t>
   </si>
   <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>making mediocre movies</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>setting mousetraps</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>fighting with the mob</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>going on commando missions</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>losing court cases</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>studying dinosaurs</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>writing up case notes</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>tossing coins</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>demanding ransoms from the U.N.</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
     <t>promoting movie violence</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>writing folksy fiction</t>
-  </si>
-  <si>
-    <t>stealing human fat</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>plotting mutinies</t>
-  </si>
-  <si>
-    <t>starring in animated movies</t>
-  </si>
-  <si>
-    <t>making prank calls</t>
-  </si>
-  <si>
-    <t>suing large corporations</t>
-  </si>
-  <si>
-    <t>amassing wealth</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>preaching tolerance</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>pushing shoddy merchandise</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>0.79%</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>poisoning an apple</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>organizing mass suicides</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>giving noogies</t>
-  </si>
-  <si>
-    <t>promoting Buddhism</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>painting abstract paintings</t>
-  </si>
-  <si>
-    <t>having meltdowns in public</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>managing hedge funds</t>
-  </si>
-  <si>
-    <t>inventing lies</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>directing movies</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>falling for prank calls</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>driving fast cars</t>
-  </si>
-  <si>
-    <t>promoting evolutionary theory</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>breaking bones</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>eluding Republicans</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>singing punk rock songs</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>writing Russian novels</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>making vulgar cartoons</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>starring in daytime soap operas</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>running a movie studio</t>
-  </si>
-  <si>
-    <t>writing rap songs</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>playing the violin</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>analyzing the sub-conscious</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>promoting liberalism</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>directing indy movies</t>
-  </si>
-  <si>
-    <t>protecting criminals</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>running a software company</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>pushing haute couture</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>amassing weapons</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>looking for immortality</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>producing Hipbop records</t>
-  </si>
-  <si>
-    <t>complaining about life</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>promoting wickedness</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>making lewd remarks</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>fighting in gladiator arenas</t>
-  </si>
-  <si>
-    <t>teaching magic</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>giving to the poor</t>
-  </si>
-  <si>
-    <t>playing quidditch</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>collecting pirate booty</t>
-  </si>
-  <si>
-    <t>embezzling tax money</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
-  </si>
-  <si>
-    <t>burning the wicked</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>pushing dodgy operating systems</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>making modern art</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>writing funny movies</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>promoting democracy</t>
-  </si>
-  <si>
-    <t>throwing TVs out of the windows</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>0.75%</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>making madcap comedies</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>smoking cigars</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>making Superhero movies</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
@@ -1003,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25085694290147276</v>
+        <v>0.2618240856045848</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1017,24 +1074,24 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.212743589684169</v>
+        <v>0.24375055635548631</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.21958468677055745</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.26657664093230626</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1042,195 +1099,195 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2885776356791874</v>
+        <v>0.3712770836543862</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22410775443998357</v>
+        <v>0.387688331218957</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37805544482359266</v>
+        <v>0.3020007576419047</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3989329677958406</v>
+        <v>0.23587706410448658</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.30197645143405305</v>
+        <v>0.39755944583230646</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3214723353935561</v>
+        <v>0.10536003055613831</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1403995903801399</v>
+        <v>0.38077054570269536</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23781048658449674</v>
+        <v>0.3921271592516175</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3986805737000686</v>
+        <v>0.2474845175761379</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>0.26197023605665765</v>
+        <v>0.3806741181369253</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3153632170299455</v>
+        <v>0.3928368961996562</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2341298098896515</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3918980288415698</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3794567758236762</v>
+        <v>0.35824205937901565</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.37950620023546705</v>
+        <v>0.26014330943814856</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1241,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2457468328772889</v>
+        <v>0.20698063610515383</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -1252,951 +1309,951 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.38896792827878224</v>
+        <v>0.15240027911230603</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>0.37105439775422866</v>
+        <v>0.39211590724176204</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>0.39771092688233</v>
+        <v>0.369761664111325</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3398558813501232</v>
+        <v>0.05955402401021953</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>0.39257886690536103</v>
+        <v>0.237697336203963</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.34204461910260836</v>
+        <v>0.3832016644793893</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.38368501273832495</v>
+        <v>0.37614849963187513</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29050816648396005</v>
+        <v>0.3977083356703674</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03981087523910737</v>
+        <v>0.1732177462586241</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.38051165931833086</v>
+        <v>0.39696999432564417</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3900615928491467</v>
+        <v>0.38452352496978254</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09509804460762902</v>
+        <v>0.3892214166623452</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3708237161098122</v>
+        <v>0.36006758824971463</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005597463604895886</v>
+        <v>0.28120458019742034</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08724413453551311</v>
+        <v>0.2579080622001848</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.39892239241510463</v>
+        <v>0.3954307334535797</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" t="n">
-        <v>0.39884142459967736</v>
+        <v>0.38279575702860547</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.27916838592067955</v>
+        <v>0.25429457642498754</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3717973088093358</v>
+        <v>0.3647820529078363</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>0.27904571999858513</v>
+        <v>0.16514655546507118</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11097637528353474</v>
+        <v>0.39232193910321855</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34742905125995127</v>
+        <v>0.09591852931323804</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.39394980260863777</v>
+        <v>0.39766868761210844</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2963916896908433</v>
+        <v>0.22497947474203905</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.38317501698572903</v>
+        <v>0.06785570659294515</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3111712328816921</v>
+        <v>0.38183883742731106</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>0.10934131454295658</v>
+        <v>0.3345364916170168</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>0.11477977268853944</v>
+        <v>0.09831044246111907</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0462029916688327</v>
+        <v>0.0726780145681325</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3607807927344931</v>
+        <v>0.3858405724198171</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04556055755887783</v>
+        <v>0.22017417710138443</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3774102282395247</v>
+        <v>0.2996790171870398</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C52" t="n">
-        <v>0.31709509149520193</v>
+        <v>0.12972933943156442</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3438663647531166</v>
+        <v>0.3291497073544004</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>0.38205769508229437</v>
+        <v>0.3009145876884655</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55" t="n">
-        <v>0.013579595346832908</v>
+        <v>0.34691342472358666</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3907852111413708</v>
+        <v>0.3202273379443063</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1982893218892724</v>
+        <v>0.27068259395993416</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2328115522940497</v>
+        <v>0.10621791345998717</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3558513137425992</v>
+        <v>0.30340486722861343</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1792070819725362</v>
+        <v>0.21368957631643082</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1343371053258041</v>
+        <v>0.3587404373365221</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3239687224976772</v>
+        <v>0.21936798216627335</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>0.37447375415859835</v>
+        <v>0.31907443086804893</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.021825668575704255</v>
+        <v>0.3879824642077235</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C65" t="n">
-        <v>0.37977099508930207</v>
+        <v>0.008320623927524778</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.12420431538708698</v>
+        <v>0.34207235198858094</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2791880153701441</v>
+        <v>0.339180555660765</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>0.39806590446458306</v>
+        <v>0.3372788267746352</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.051193775312666084</v>
+        <v>0.14106075083236755</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25544774215339355</v>
+        <v>0.39784894859499415</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>0.35131674131455054</v>
+        <v>0.3878598513901824</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3818412379489965</v>
+        <v>0.332309185654404</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>0.35635758381991683</v>
+        <v>0.3365355859160359</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2575143829713447</v>
+        <v>0.39886826658501057</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23073452893156152</v>
+        <v>0.18087264904606404</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.39840989824768025</v>
+        <v>0.3312422239771046</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>0.34151169345016463</v>
+        <v>0.168058307500173</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20857830640351227</v>
+        <v>0.3636393346618273</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3840449613768552</v>
+        <v>0.0416437975727068</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>0.257219353502474</v>
+        <v>0.3915729322211662</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2331950494671947</v>
+        <v>0.36583762437581124</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3311539903397395</v>
+        <v>0.31672774762628914</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2937581416225664</v>
+        <v>0.23200626572814603</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0.39885045372482636</v>
+        <v>0.3833420564446886</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C85" t="n">
-        <v>0.33101711567819575</v>
+        <v>0.18228602345179326</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C86" t="n">
-        <v>0.38177567847651994</v>
+        <v>0.3972922459489628</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>0.07688693069873029</v>
+        <v>0.393658091283952</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
@@ -2204,97 +2261,97 @@
         <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C88" t="n">
-        <v>0.35691945887245013</v>
+        <v>0.2921783576554319</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3873142091067842</v>
+        <v>0.1906210480622018</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C90" t="n">
-        <v>0.39340387360133194</v>
+        <v>0.19389745413382878</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.39572437394378435</v>
+        <v>0.23492852948838894</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3074283607957633</v>
+        <v>0.34081754909486645</v>
       </c>
       <c r="D92" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>0.36962887175817527</v>
+        <v>0.3603042431769348</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3869038503141666</v>
+        <v>0.3264274172899504</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -2302,475 +2359,475 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>0.29940138811162426</v>
+        <v>0.35468838499367394</v>
       </c>
       <c r="D95" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2638315960405869</v>
+        <v>0.295753547493048</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>0.14417522936809596</v>
+        <v>0.28841221123478594</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>0.38252374386756954</v>
+        <v>0.32238341724844805</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>0.38888600697866477</v>
+        <v>0.09607792216394893</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33028342465859045</v>
+        <v>0.09042022306123652</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3005110565830703</v>
+        <v>0.20521729392393198</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>0.08909845905798375</v>
+        <v>0.1906182197455879</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>0.30165636486045966</v>
+        <v>0.3914322996311062</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>0.36352549256027084</v>
+        <v>0.18312544581483828</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C105" t="n">
-        <v>0.37701552962455254</v>
+        <v>0.29433537611517013</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07671917371721607</v>
+        <v>0.11960562237688527</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23148972694995937</v>
+        <v>0.24185855538401982</v>
       </c>
       <c r="D107" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3333858712290244</v>
+        <v>0.2934173017436851</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2901116581463746</v>
+        <v>0.35181465789376737</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>0.385813066147533</v>
+        <v>0.13877920606712923</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>0.31674665480550923</v>
+        <v>0.3721760722467162</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.34335428719153716</v>
+        <v>0.3956371721686007</v>
       </c>
       <c r="D112" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02732724970353605</v>
+        <v>0.3856083951792847</v>
       </c>
       <c r="D113" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>0.34328793773479405</v>
+        <v>0.20162529851124855</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3987454729822535</v>
+        <v>0.36727409147447115</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2718872696881052</v>
+        <v>0.3967047513227213</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2860767195231062</v>
+        <v>0.3985521178387537</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3465469251919792</v>
+        <v>0.12583263531651198</v>
       </c>
       <c r="D118" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C119" t="n">
-        <v>0.38071963791349994</v>
+        <v>0.18589533790083868</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04936190922352511</v>
+        <v>0.2698067580463643</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>0.08119336924196406</v>
+        <v>0.3987804767894182</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3901603262531368</v>
+        <v>0.18061639831418197</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3733214375382852</v>
+      </c>
+      <c r="D123" t="s">
         <v>10</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.3891955770432696</v>
-      </c>
-      <c r="D123" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" t="n">
-        <v>0.39888813923104544</v>
+        <v>0.36240778851967836</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C125" t="n">
-        <v>0.22824867656134726</v>
+        <v>0.3953622787939175</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3605740035793347</v>
+        <v>0.3871972548728716</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C127" t="n">
-        <v>0.20670515208626938</v>
+        <v>0.13546070677101738</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>0.28382444421321223</v>
+        <v>0.3977345876582356</v>
       </c>
       <c r="D128" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129">
@@ -2778,13 +2835,13 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C129" t="n">
-        <v>0.258329644699898</v>
+        <v>0.27178608493239587</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -2792,13 +2849,13 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C130" t="n">
-        <v>0.36731574043690957</v>
+        <v>0.26973643031382205</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -2806,13 +2863,13 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2964765096236248</v>
+        <v>0.03214730165570743</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132">
@@ -2820,13 +2877,13 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C132" t="n">
-        <v>0.29997268606445787</v>
+        <v>0.1695390622743684</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
@@ -2834,153 +2891,153 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C133" t="n">
-        <v>0.34446578381918397</v>
+        <v>0.27215967081117215</v>
       </c>
       <c r="D133" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C134" t="n">
-        <v>0.12741653549687393</v>
+        <v>0.3486673954070058</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23716281955873564</v>
+        <v>0.3988693585805602</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1458295420986018</v>
+        <v>0.24159745757924292</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2222607910910015</v>
+        <v>0.34464183390031466</v>
       </c>
       <c r="D137" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3888516070661768</v>
+        <v>0.36107999341826813</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2702290397804748</v>
+        <v>0.05635815700148714</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>0.3969814333993517</v>
+        <v>0.30846503051198215</v>
       </c>
       <c r="D140" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3523487565404561</v>
+        <v>0.2919123493016393</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1511194351387009</v>
+        <v>0.3951886949635717</v>
       </c>
       <c r="D142" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1718135566425501</v>
+        <v>0.3977727144252207</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144">
@@ -2988,13 +3045,13 @@
         <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C144" t="n">
-        <v>0.37668606531571064</v>
+        <v>0.38372104233343496</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
@@ -3002,13 +3059,13 @@
         <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C145" t="n">
-        <v>0.32671003196821496</v>
+        <v>0.2310870730543104</v>
       </c>
       <c r="D145" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
@@ -3016,13 +3073,13 @@
         <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3666012931965544</v>
+        <v>0.08508517801616937</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147">
@@ -3030,27 +3087,27 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>0.31607680072793065</v>
+        <v>0.22456787457592658</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.16122099808406554</v>
+        <v>0.19184485217532898</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
@@ -3058,111 +3115,111 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3844511455482077</v>
+        <v>0.38347271571198116</v>
       </c>
       <c r="D149" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" t="n">
-        <v>0.38269324959454043</v>
+        <v>0.34509550932358496</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3437395721860213</v>
+        <v>0.346163161678378</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C152" t="n">
-        <v>0.3920550815831077</v>
+        <v>0.27456504491235423</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3576208930669614</v>
+        <v>0.2917916014087362</v>
       </c>
       <c r="D153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3989364361934322</v>
+        <v>0.28942096531368033</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C155" t="n">
-        <v>0.13156491260244857</v>
+        <v>0.3179460561821429</v>
       </c>
       <c r="D155" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0877978515153402</v>
+        <v>0.39516404619192674</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157">
@@ -3173,10 +3230,10 @@
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.39321843699620185</v>
+        <v>0.025991605168072276</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158">
@@ -3184,13 +3241,13 @@
         <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C158" t="n">
-        <v>0.18156982957520215</v>
+        <v>0.3311577502428174</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
@@ -3198,13 +3255,13 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2933489980651055</v>
+        <v>0.3694916563846403</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
@@ -3215,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3033661819173513</v>
+        <v>0.2543993282488702</v>
       </c>
       <c r="D160" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
@@ -3226,279 +3283,279 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C161" t="n">
-        <v>0.15529487325936042</v>
+        <v>0.3761224581086394</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1799558789763621</v>
+        <v>0.2586000534799894</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3974408311902277</v>
+        <v>0.10021669135941962</v>
       </c>
       <c r="D163" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C164" t="n">
-        <v>0.39669485729693743</v>
+        <v>0.056924111937945554</v>
       </c>
       <c r="D164" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C165" t="n">
-        <v>0.19956107619805763</v>
+        <v>0.2688308175495222</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3699133244464797</v>
+        <v>0.3024987568826299</v>
       </c>
       <c r="D166" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>0.34992140102148817</v>
+        <v>0.05209969166036359</v>
       </c>
       <c r="D167" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C168" t="n">
-        <v>0.375899408004277</v>
+        <v>0.20693032929132002</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2323061813685853</v>
+        <v>0.2616971756395784</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3799726750922196</v>
+        <v>0.31165463225944706</v>
       </c>
       <c r="D170" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>0.06888580163472505</v>
+        <v>0.15458489696653363</v>
       </c>
       <c r="D171" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.11519369272382005</v>
+      </c>
+      <c r="D172" t="s">
         <v>21</v>
-      </c>
-      <c r="B172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.3985809189135192</v>
-      </c>
-      <c r="D172" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3975825976781289</v>
+        <v>0.3298348298126071</v>
       </c>
       <c r="D173" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C174" t="n">
-        <v>0.21454352522687975</v>
+        <v>0.3524605946982547</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1624829361354564</v>
+        <v>0.2816972255358408</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.3702023411775061</v>
+      </c>
+      <c r="D176" t="s">
         <v>10</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.10122330452016422</v>
-      </c>
-      <c r="D176" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.38242933606324553</v>
+        <v>0.2080319926505418</v>
       </c>
       <c r="D177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>0.37928811369728743</v>
+        <v>0.2492064383382708</v>
       </c>
       <c r="D178" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C179" t="n">
-        <v>0.39033474112797567</v>
+        <v>0.3848220252128253</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.39197415594353646</v>
+      </c>
+      <c r="D180" t="s">
         <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.3504381107262569</v>
-      </c>
-      <c r="D180" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="181">
@@ -3506,13 +3563,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C181" t="n">
-        <v>0.29423760281540967</v>
+        <v>0.17419372779437847</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182">
@@ -3520,13 +3577,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3906936820886496</v>
+        <v>0.3750856096026734</v>
       </c>
       <c r="D182" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183">
@@ -3534,430 +3591,430 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2460095031638891</v>
+        <v>0.24110792439779172</v>
       </c>
       <c r="D183" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C184" t="n">
-        <v>0.36558211337128926</v>
+        <v>0.264815158522381</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C185" t="n">
-        <v>0.28784279426988885</v>
+        <v>0.16347974843826865</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3892228218228838</v>
+        <v>0.3178117510730164</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C187" t="n">
-        <v>0.27034920596403295</v>
+        <v>0.3967778147891401</v>
       </c>
       <c r="D187" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3973981969958587</v>
+        <v>0.2495584415478686</v>
       </c>
       <c r="D188" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2891157391091192</v>
+        <v>0.29454046163585795</v>
       </c>
       <c r="D189" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C190" t="n">
-        <v>0.18197213364022094</v>
+        <v>0.3854423127225267</v>
       </c>
       <c r="D190" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C191" t="n">
-        <v>0.37886912032316394</v>
+        <v>0.39539439721140063</v>
       </c>
       <c r="D191" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>0.16548326043226078</v>
+        <v>0.3824837708294189</v>
       </c>
       <c r="D192" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>0.21075774902017627</v>
+        <v>0.13372539937490566</v>
       </c>
       <c r="D193" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.2091928992348181</v>
+      </c>
+      <c r="D194" t="s">
         <v>10</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.3978675016890538</v>
-      </c>
-      <c r="D194" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C195" t="n">
-        <v>0.39890831281634986</v>
+        <v>0.14411310188559182</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C196" t="n">
-        <v>0.22822402207971254</v>
+        <v>0.18124046026871304</v>
       </c>
       <c r="D196" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C197" t="n">
-        <v>0.28035897504097357</v>
+        <v>0.3912838785808933</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3845568385599964</v>
+        <v>0.3720037901485744</v>
       </c>
       <c r="D198" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.36687080368117875</v>
+        <v>0.3100929299268968</v>
       </c>
       <c r="D199" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C200" t="n">
-        <v>0.39893471091592264</v>
+        <v>0.0355087739652332</v>
       </c>
       <c r="D200" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>0.004900978003218319</v>
+        <v>0.34902412255547255</v>
       </c>
       <c r="D201" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.18823380350497745</v>
+        <v>0.24622964775599496</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>0.39550537833276156</v>
+        <v>0.23188300510483423</v>
       </c>
       <c r="D203" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3119189345360596</v>
+        <v>0.37530282391385994</v>
       </c>
       <c r="D204" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C205" t="n">
-        <v>0.32093684413165985</v>
+        <v>0.39772192057640265</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0712193282840324</v>
+        <v>0.10820528693868711</v>
       </c>
       <c r="D206" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C207" t="n">
-        <v>0.36428086907669255</v>
+        <v>0.3200405130539738</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>0.3161672828382085</v>
+        <v>0.23522885160864154</v>
       </c>
       <c r="D208" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C209" t="n">
-        <v>0.397089920448069</v>
+        <v>0.30975140223402436</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C210" t="n">
-        <v>0.32402885980462337</v>
+        <v>0.3867171727748935</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C211" t="n">
-        <v>0.37757243460227385</v>
+        <v>0.39211457608391154</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3577665152012912</v>
+        <v>0.3645065020929391</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3768877032529026</v>
+        <v>0.2541700289215116</v>
       </c>
       <c r="D213" t="s">
         <v>16</v>
@@ -3965,13 +4022,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3947343858013529</v>
+        <v>0.3880730174490118</v>
       </c>
       <c r="D214" t="s">
         <v>16</v>
@@ -3979,545 +4036,545 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>0.3822481295911532</v>
+        <v>0.37113641916621753</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>0.3924546147964303</v>
+        <v>0.21564843270786146</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3944977576519268</v>
+        <v>0.12893318609218232</v>
       </c>
       <c r="D217" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>0.38562778193229147</v>
+        <v>0.3987123289102636</v>
       </c>
       <c r="D218" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C219" t="n">
-        <v>0.2251717298927352</v>
+        <v>0.35724192628708357</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C220" t="n">
-        <v>0.39890708888503895</v>
+        <v>0.345724964625362</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="n">
-        <v>0.21935293587934693</v>
+        <v>0.3931521454158465</v>
       </c>
       <c r="D221" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C222" t="n">
-        <v>0.34334332515867644</v>
+        <v>0.3974545700883164</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C223" t="n">
-        <v>0.263460138059017</v>
+        <v>0.012734474739986547</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C224" t="n">
-        <v>0.3661722478034396</v>
+        <v>0.2612600483327794</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2939615602911059</v>
+        <v>0.26609559052973486</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3909232671472938</v>
+        <v>0.30869038994180414</v>
       </c>
       <c r="D226" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>0.02151507500025218</v>
+        <v>0.3092269671165254</v>
       </c>
       <c r="D227" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>0.04155308306173415</v>
+        <v>0.3958306576561181</v>
       </c>
       <c r="D228" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>0.23162178050831297</v>
+        <v>0.32904975713502155</v>
       </c>
       <c r="D229" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3011080330157766</v>
+        <v>0.3489247573949849</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>0.25505388985156013</v>
+        <v>0.3405166023747413</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C232" t="n">
-        <v>0.06564383938248125</v>
+        <v>0.09294175368102087</v>
       </c>
       <c r="D232" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C233" t="n">
-        <v>0.14524063568527612</v>
+        <v>0.3926982886387661</v>
       </c>
       <c r="D233" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3324594681364784</v>
+        <v>2.831288574163516E-4</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C235" t="n">
-        <v>0.34243144324860025</v>
+        <v>0.02642037663170835</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C236" t="n">
-        <v>0.10994933854904108</v>
+        <v>0.10582764362701046</v>
       </c>
       <c r="D236" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C237" t="n">
-        <v>0.2978589984270979</v>
+        <v>0.3255043485473311</v>
       </c>
       <c r="D237" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C238" t="n">
-        <v>0.3973373176764764</v>
+        <v>0.3813395853858666</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C239" t="n">
-        <v>0.18211375858686202</v>
+        <v>0.39385742643688826</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3425846077988371</v>
+        <v>0.3956262125065794</v>
       </c>
       <c r="D240" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3989269256825337</v>
+        <v>0.36273626563885364</v>
       </c>
       <c r="D241" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C242" t="n">
-        <v>0.14636640544988241</v>
+        <v>0.00705086904592232</v>
       </c>
       <c r="D242" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2947472881164744</v>
+        <v>0.3882519779475598</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C244" t="n">
-        <v>0.04666719753473648</v>
+        <v>0.27014700205382497</v>
       </c>
       <c r="D244" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C245" t="n">
-        <v>0.3745865561924353</v>
+        <v>0.3424342001693372</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C246" t="n">
-        <v>0.03846811923173459</v>
+        <v>0.34272603987260564</v>
       </c>
       <c r="D246" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3283021368162164</v>
+      </c>
+      <c r="D247" t="s">
         <v>10</v>
-      </c>
-      <c r="C247" t="n">
-        <v>0.3884145517852409</v>
-      </c>
-      <c r="D247" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1933421920687822</v>
+        <v>0.38800795098959023</v>
       </c>
       <c r="D248" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C249" t="n">
-        <v>0.36253959073769887</v>
+        <v>0.3939627030945855</v>
       </c>
       <c r="D249" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1171007669986869</v>
+        <v>0.39780227031849963</v>
       </c>
       <c r="D250" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C251" t="n">
-        <v>0.3856045955831747</v>
+        <v>0.24913047820342554</v>
       </c>
       <c r="D251" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C252" t="n">
-        <v>0.13462438149997288</v>
+        <v>0.13684898236777396</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C253" t="n">
-        <v>0.16302903789794063</v>
+        <v>0.3983278716190705</v>
       </c>
       <c r="D253" t="s">
         <v>6</v>
@@ -4525,41 +4582,41 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1340809620077973</v>
+        <v>0.007162256760162747</v>
       </c>
       <c r="D254" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C255" t="n">
-        <v>0.30272803125607217</v>
+        <v>0.17598473032205783</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C256" t="n">
-        <v>0.3911498787845744</v>
+        <v>0.19420087181205495</v>
       </c>
       <c r="D256" t="s">
         <v>18</v>
@@ -4567,167 +4624,167 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C257" t="n">
-        <v>0.11116914951431998</v>
+        <v>0.12768590162889515</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C258" t="n">
-        <v>0.3749104904466986</v>
+        <v>0.3938642788544729</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C259" t="n">
-        <v>0.20388096453260188</v>
+        <v>0.396094925514647</v>
       </c>
       <c r="D259" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>0.38476470818112496</v>
+        <v>0.3987250664914158</v>
       </c>
       <c r="D260" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C261" t="n">
-        <v>0.35669460984208934</v>
+        <v>0.09777632722178863</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>0.16808954701484535</v>
+        <v>0.23145420930872587</v>
       </c>
       <c r="D262" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C263" t="n">
-        <v>0.21865424002686198</v>
+        <v>0.1200950771965075</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C264" t="n">
-        <v>0.17473900744070014</v>
+        <v>0.19832101983053788</v>
       </c>
       <c r="D264" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1932978974829156</v>
+        <v>0.26183200125700073</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C266" t="n">
-        <v>0.22531052045463182</v>
+        <v>0.3605004900030103</v>
       </c>
       <c r="D266" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3889411965999876</v>
+        <v>0.3163926298547677</v>
       </c>
       <c r="D267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C268" t="n">
-        <v>0.3893627435890657</v>
+        <v>0.3929740048081416</v>
       </c>
       <c r="D268" t="s">
         <v>13</v>
@@ -4735,209 +4792,209 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C269" t="n">
-        <v>0.31833654980988046</v>
+        <v>0.18744781351267442</v>
       </c>
       <c r="D269" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3936177609115148</v>
+        <v>0.3984632571421772</v>
       </c>
       <c r="D270" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3127118433297932</v>
+        <v>0.21713053715536731</v>
       </c>
       <c r="D271" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2602786960605793</v>
+        <v>0.3545441473156727</v>
       </c>
       <c r="D272" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C273" t="n">
-        <v>0.17190516527077043</v>
+        <v>0.39523553317969723</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>0.22089873367789292</v>
+        <v>0.16540685804701008</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C275" t="n">
-        <v>0.38173773835925007</v>
+        <v>0.3482653967431226</v>
       </c>
       <c r="D275" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1870444233696558</v>
+        <v>0.11344369492305023</v>
       </c>
       <c r="D276" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B277" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C277" t="n">
-        <v>0.3259673580851273</v>
+        <v>0.05556223256239307</v>
       </c>
       <c r="D277" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3378705110139756</v>
+        <v>0.3972257575251572</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C279" t="n">
-        <v>0.37133773046650265</v>
+        <v>0.07926959784422934</v>
       </c>
       <c r="D279" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1587580723927116</v>
+        <v>0.38773608612573535</v>
       </c>
       <c r="D280" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C281" t="n">
-        <v>0.18936490383976082</v>
+        <v>0.21527229885348773</v>
       </c>
       <c r="D281" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C282" t="n">
-        <v>0.39702187896785335</v>
+        <v>0.2839926031477259</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>0.07923793483952643</v>
+        <v>0.35876783402940565</v>
       </c>
       <c r="D283" t="s">
         <v>6</v>
@@ -4945,1094 +5002,1094 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C284" t="n">
-        <v>0.2329291261506656</v>
+        <v>0.1788757597982511</v>
       </c>
       <c r="D284" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
       </c>
       <c r="C285" t="n">
-        <v>0.29176061964208566</v>
+        <v>0.32285173362304603</v>
       </c>
       <c r="D285" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3204815304529017</v>
+        <v>0.3982182009350527</v>
       </c>
       <c r="D286" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C287" t="n">
-        <v>0.26745380300594757</v>
+        <v>0.16576883136552484</v>
       </c>
       <c r="D287" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C288" t="n">
-        <v>0.34227242674010366</v>
+        <v>0.39091696650760793</v>
       </c>
       <c r="D288" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C289" t="n">
-        <v>0.280606631155875</v>
+        <v>0.3445294721976974</v>
       </c>
       <c r="D289" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="n">
-        <v>0.23473434498572593</v>
+        <v>0.37824560582721317</v>
       </c>
       <c r="D290" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>0.15202837228581123</v>
+        <v>0.17417063091578147</v>
       </c>
       <c r="D291" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3986383821965165</v>
+        <v>0.20898913771834365</v>
       </c>
       <c r="D292" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>0.36025245045687104</v>
+        <v>0.11454061160075081</v>
       </c>
       <c r="D293" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.3705202462889326</v>
+      </c>
+      <c r="D294" t="s">
         <v>10</v>
-      </c>
-      <c r="C294" t="n">
-        <v>0.13851168156366872</v>
-      </c>
-      <c r="D294" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C295" t="n">
-        <v>0.39765159263889854</v>
+        <v>0.3725114002194081</v>
       </c>
       <c r="D295" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C296" t="n">
-        <v>0.24255531427304033</v>
+        <v>0.3657317067463826</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C297" t="n">
-        <v>0.3937282397878349</v>
+        <v>0.3785807830089136</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>0.11802196916330636</v>
+        <v>0.08639403151518825</v>
       </c>
       <c r="D298" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3884221134818585</v>
+        <v>0.18411776584075307</v>
       </c>
       <c r="D299" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2959221300018485</v>
+        <v>0.3326199356416992</v>
       </c>
       <c r="D300" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
       </c>
       <c r="C301" t="n">
-        <v>0.3456341512279196</v>
+        <v>0.1117250884829387</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="B302" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.37838013190494907</v>
+      </c>
+      <c r="D302" t="s">
         <v>10</v>
-      </c>
-      <c r="C302" t="n">
-        <v>0.19230644468401883</v>
-      </c>
-      <c r="D302" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C303" t="n">
-        <v>0.08256246198675782</v>
+        <v>0.2442076187712517</v>
       </c>
       <c r="D303" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2851535061687942</v>
+        <v>0.3183942066201208</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3770882791672148</v>
+        <v>0.3469621220062786</v>
       </c>
       <c r="D305" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
       </c>
       <c r="C306" t="n">
-        <v>0.22898648486002773</v>
+        <v>0.33735890389458245</v>
       </c>
       <c r="D306" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C307" t="n">
-        <v>0.2186400314406756</v>
+        <v>0.29662043437459457</v>
       </c>
       <c r="D307" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2896795633373764</v>
+        <v>0.39851152393065203</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.39829024599342067</v>
+      </c>
+      <c r="D309" t="s">
         <v>10</v>
-      </c>
-      <c r="C309" t="n">
-        <v>0.3017556254231654</v>
-      </c>
-      <c r="D309" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C310" t="n">
-        <v>0.27232023175930653</v>
+        <v>0.38936538921168823</v>
       </c>
       <c r="D310" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C311" t="n">
-        <v>0.21570844669730563</v>
+        <v>0.33144049028229</v>
       </c>
       <c r="D311" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2068972175667481</v>
+        <v>0.31526441566264096</v>
       </c>
       <c r="D312" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3982719495951261</v>
+        <v>0.3411566149433549</v>
       </c>
       <c r="D313" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3333927930253112</v>
+        <v>0.3959868476597162</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C315" t="n">
-        <v>0.30766056573190154</v>
+        <v>0.3928932284850225</v>
       </c>
       <c r="D315" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C316" t="n">
-        <v>0.3620618991394892</v>
+        <v>0.24055006450043018</v>
       </c>
       <c r="D316" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C317" t="n">
-        <v>0.3740109570859417</v>
+        <v>0.2794562716238358</v>
       </c>
       <c r="D317" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C318" t="n">
-        <v>0.32437102502373716</v>
+        <v>0.39891056110381623</v>
       </c>
       <c r="D318" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C319" t="n">
-        <v>0.22378862983166248</v>
+        <v>0.3886982828304348</v>
       </c>
       <c r="D319" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C320" t="n">
-        <v>0.37374750720633393</v>
+        <v>0.2794741882651861</v>
       </c>
       <c r="D320" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>271</v>
+        <v>15</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C321" t="n">
-        <v>0.34241491479776753</v>
+        <v>0.36963902630958423</v>
       </c>
       <c r="D321" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C322" t="n">
-        <v>0.3226539715491095</v>
+        <v>0.33591750284316557</v>
       </c>
       <c r="D322" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1605594042052157</v>
+        <v>0.1930821986134566</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="B324" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C324" t="n">
-        <v>0.30179340345710814</v>
+        <v>0.3849892213878453</v>
       </c>
       <c r="D324" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325" t="n">
-        <v>0.34610524443866103</v>
+        <v>0.35405677388354706</v>
       </c>
       <c r="D325" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C326" t="n">
-        <v>0.39440511965654573</v>
+        <v>0.1480496888387977</v>
       </c>
       <c r="D326" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.23761050070455617</v>
+      </c>
+      <c r="D327" t="s">
         <v>10</v>
-      </c>
-      <c r="C327" t="n">
-        <v>0.1831362864778802</v>
-      </c>
-      <c r="D327" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C328" t="n">
-        <v>0.2144131622594709</v>
+        <v>0.3675063716984369</v>
       </c>
       <c r="D328" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C329" t="n">
-        <v>0.18857168344141317</v>
+        <v>0.3384796433968519</v>
       </c>
       <c r="D329" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C330" t="n">
-        <v>0.3791158429203923</v>
+        <v>0.295658252124229</v>
       </c>
       <c r="D330" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C331" t="n">
-        <v>0.3543850166946843</v>
+        <v>0.39818939359830136</v>
       </c>
       <c r="D331" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C332" t="n">
-        <v>0.35592642559542115</v>
+        <v>0.1526493273681176</v>
       </c>
       <c r="D332" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3422935933386856</v>
+        <v>0.3923055445777632</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C334" t="n">
-        <v>0.041761507773550775</v>
+        <v>0.39726728931568556</v>
       </c>
       <c r="D334" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C335" t="n">
-        <v>0.2810496734317302</v>
+        <v>0.0032536285687499995</v>
       </c>
       <c r="D335" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C336" t="n">
-        <v>0.3988603283441521</v>
+        <v>0.28755419339131544</v>
       </c>
       <c r="D336" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C337" t="n">
-        <v>0.36170192444282795</v>
+        <v>0.17977243765348813</v>
       </c>
       <c r="D337" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338" t="n">
-        <v>0.36999831888995155</v>
+        <v>0.2827724403360532</v>
       </c>
       <c r="D338" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C339" t="n">
-        <v>0.25942771404134823</v>
+        <v>0.36901576812834386</v>
       </c>
       <c r="D339" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C340" t="n">
-        <v>0.24911356282430122</v>
+        <v>0.2839387116690944</v>
       </c>
       <c r="D340" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C341" t="n">
-        <v>0.30807423458051403</v>
+        <v>0.04900069258550848</v>
       </c>
       <c r="D341" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>51</v>
+        <v>306</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>0.3065103715650623</v>
+        <v>0.26547495161237</v>
       </c>
       <c r="D342" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C343" t="n">
-        <v>0.060931674896023955</v>
+        <v>0.3296261376320652</v>
       </c>
       <c r="D343" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>0.20890373334024118</v>
+        <v>0.2019749065424976</v>
       </c>
       <c r="D344" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C345" t="n">
-        <v>0.3366978099741481</v>
+        <v>0.09803489007751122</v>
       </c>
       <c r="D345" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>250</v>
       </c>
       <c r="B346" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3941048810110158</v>
+        <v>0.35625974948644107</v>
       </c>
       <c r="D346" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C347" t="n">
-        <v>0.38921121151173405</v>
+        <v>0.39816019941379094</v>
       </c>
       <c r="D347" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3869219250279081</v>
+        <v>0.23035580846272435</v>
       </c>
       <c r="D348" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C349" t="n">
-        <v>0.16678915744186015</v>
+        <v>0.30893991306879787</v>
       </c>
       <c r="D349" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="B350" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3863692378492938</v>
+        <v>0.3686888436655205</v>
       </c>
       <c r="D350" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C351" t="n">
-        <v>0.25579119755661206</v>
+        <v>0.3659742904445601</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C352" t="n">
-        <v>0.3726621056807459</v>
+        <v>0.3956494212846519</v>
       </c>
       <c r="D352" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C353" t="n">
-        <v>0.02107907940081142</v>
+        <v>0.3976592436280156</v>
       </c>
       <c r="D353" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="B354" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C354" t="n">
-        <v>0.39487709135115384</v>
+        <v>0.13345004831954815</v>
       </c>
       <c r="D354" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
       </c>
       <c r="C355" t="n">
-        <v>0.001649976210313643</v>
+        <v>0.386971627466014</v>
       </c>
       <c r="D355" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3948860335905456</v>
+        <v>0.3874957396638866</v>
       </c>
       <c r="D356" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2591362484793321</v>
+        <v>0.3988781939636004</v>
       </c>
       <c r="D357" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3725473817840237</v>
+        <v>0.09673028134019515</v>
       </c>
       <c r="D358" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C359" t="n">
-        <v>0.15534206519715366</v>
+        <v>0.3980555174691822</v>
       </c>
       <c r="D359" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B360" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C360" t="n">
-        <v>0.3576609405353149</v>
+        <v>0.3154686557196941</v>
       </c>
       <c r="D360" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C361" t="n">
-        <v>0.15787116121720587</v>
+        <v>0.2613378031949531</v>
       </c>
       <c r="D361" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis240.xlsx
+++ b/Analysis240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="297">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,955 +26,883 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>writing science fiction</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>promoting pacifism</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>playing golf</t>
+  </si>
+  <si>
+    <t>jumping over buses on motorbikes</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>speaking with funny accents</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>running a dictatorship</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>dating supermodels</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>bullying neighboring countries</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>getting run over by cars</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>coasting on past glories</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>laughing at God</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>hunting wabbits</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>cooking British food</t>
+  </si>
+  <si>
+    <t>painting folksy pictures</t>
+  </si>
+  <si>
+    <t>marrying underage girls</t>
+  </si>
+  <si>
+    <t>dining with playboy princes</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>making maverick choices</t>
+  </si>
+  <si>
+    <t>offering gnostic advice</t>
+  </si>
+  <si>
+    <t>creating nightmares</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>running Ponzi schemes</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>eluding authorities</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>forming new social connections</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>arresting bootleggers</t>
+  </si>
+  <si>
+    <t>subverting social conventions</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>taking bribes from organized crime</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>worrying about adultery</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>launching cultural revolutions</t>
+  </si>
+  <si>
+    <t>posing riddles</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>acting off-off-Broadway</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>eliminating political rivals</t>
+  </si>
+  <si>
+    <t>painting melancholy pictures</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>fighting against totalitarianism</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>leading an exodus</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>running film festivals</t>
+  </si>
+  <si>
+    <t>collecting treasures</t>
+  </si>
+  <si>
+    <t>telling dry jokes</t>
+  </si>
+  <si>
+    <t>striving for world domination</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>stealing hamburgers</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>hunting demons</t>
+  </si>
+  <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>0.46%</t>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>making movies</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>apprehending criminals</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>attending cocktail parties</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>prowling for dinner</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t>running theme parks</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>killing demons</t>
+  </si>
+  <si>
+    <t>buying on credit</t>
+  </si>
+  <si>
+    <t>making sandwiches</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>dripping paint onto canvas</t>
+  </si>
+  <si>
+    <t>terrorizing prostitutes</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>playing the clarinet</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>breaking heads</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>painting surreal pictures</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>poisoning an apple</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>throwing temper tantrums</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>drinking demon blood</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>looking after mother</t>
+  </si>
+  <si>
+    <t>bending spoons</t>
+  </si>
+  <si>
+    <t>eluding capture</t>
+  </si>
+  <si>
+    <t>cooking fancy food</t>
+  </si>
+  <si>
+    <t>starring in war movies</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>promoting nerd culture</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>hosting anodyne game shows</t>
+  </si>
+  <si>
+    <t>running a fast-food business</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>laughing maniacally</t>
+  </si>
+  <si>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>running a technology company</t>
+  </si>
+  <si>
+    <t>talking to mirrors</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>selling kitsch</t>
   </si>
   <si>
     <t>surviving in a post-apocalyptic world</t>
   </si>
   <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>divorcing husbands</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
+    <t>writing epic poetry</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>running pyramid schemes</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>studying economics</t>
+  </si>
+  <si>
+    <t>promoting social causes</t>
+  </si>
+  <si>
+    <t>burying dead hamsters</t>
+  </si>
+  <si>
+    <t>eluding the FBI</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>painting magazine covers</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>cracking enemy codes</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>cooking the books</t>
+  </si>
+  <si>
+    <t>selling military secrets</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>mooching from neighbors</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>working in a freak show</t>
+  </si>
+  <si>
+    <t>promoting openness</t>
+  </si>
+  <si>
+    <t>fighting Carthaginians</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>shocking radio listeners</t>
+  </si>
+  <si>
+    <t>frying peanut-butter and banana sandwiches</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>making cars</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>mass-producing cars</t>
+  </si>
+  <si>
+    <t>cleaning floors</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>sucking roots</t>
+  </si>
+  <si>
+    <t>burning with envy</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>bullying schoolkids</t>
+  </si>
+  <si>
+    <t>cursing at kitchen staff</t>
   </si>
   <si>
     <t>playing the saxophone</t>
   </si>
   <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>killing rival gladiators</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>moaning about life</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>ranting about conservatives</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>attending cotillion balls</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>making ice sculptures</t>
+    <t>writing compelling dialogue</t>
+  </si>
+  <si>
+    <t>promoting mysticism</t>
+  </si>
+  <si>
+    <t>eating power pellets</t>
   </si>
   <si>
     <t>promoting socialism</t>
   </si>
   <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>creating adverts</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>bending spoons</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>tilting at windmills</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>drawing political cartoons</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>tricking criminals</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>testing scientific theories</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
+    <t>fighting guerilla wars</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>driving under the influence</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>developing crazy schemes</t>
   </si>
   <si>
     <t>scandalizing polite society</t>
   </si>
   <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
+    <t>probing the mind</t>
+  </si>
+  <si>
+    <t>selling fast food</t>
   </si>
   <si>
     <t>starring in comedies</t>
   </si>
   <si>
-    <t>teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>talking to mirrors</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>wooing potential brides</t>
-  </si>
-  <si>
-    <t>rooting out spies</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>making Superhero movies</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>killing monsters</t>
-  </si>
-  <si>
-    <t>hunting serial killers</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>smoking Silk Cut cigarettes</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>selling fried chicken</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>winning golf tournaments</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>looking for immortality</t>
-  </si>
-  <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>launching hostile takeovers</t>
-  </si>
-  <si>
-    <t>promoting boxing fights</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>offering blessings</t>
-  </si>
-  <si>
-    <t>selling cosmetics</t>
-  </si>
-  <si>
-    <t>tormenting muggles</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>running a dictatorship</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>throwing temper tantrums</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>making silly decisions</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
   </si>
   <si>
     <t>singing goofy songs</t>
   </si>
   <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>eating Peking duck</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>changing sides</t>
-  </si>
-  <si>
-    <t>avoiding taxes</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>planning confidence tricks</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>teaching Defence Against the Dark Arts</t>
-  </si>
-  <si>
-    <t>tending the garden</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>robbing from the rich</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>playing the trumpet</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>slapping soldiers</t>
-  </si>
-  <si>
-    <t>surviving a shipwreck</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>making mediocre movies</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>making topiary sculptures</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>playing intense characters</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>plotting against family members</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>doing slapstick comedy</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>eating bacon cheeseburgers</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>developing real estate</t>
-  </si>
-  <si>
-    <t>performing Web searches</t>
-  </si>
-  <si>
-    <t>brewing magican potions</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>eating census takers</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>selling self-help books</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>directing bad movies</t>
-  </si>
-  <si>
-    <t>expressing dissent</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>promoting movie violence</t>
+    <t>lecturing about climate change</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.11328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1060,7 +988,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2618240856045848</v>
+        <v>0.3586334226954258</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1071,125 +999,125 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24375055635548631</v>
+        <v>0.1728874840840853</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21958468677055745</v>
+        <v>0.27034635837840865</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.29942951485937136</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3712770836543862</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.387688331218957</v>
+        <v>0.27379211730311137</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3020007576419047</v>
+        <v>0.18619494935615802</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23587706410448658</v>
+        <v>0.3956968511948611</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39755944583230646</v>
+        <v>0.12013661417498875</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10536003055613831</v>
+        <v>0.3960152249101416</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38077054570269536</v>
+        <v>0.3734084209232614</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1197,13 +1125,13 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3921271592516175</v>
+        <v>0.2886166509608362</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1211,111 +1139,111 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2474845175761379</v>
+        <v>0.21350087136645965</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3806741181369253</v>
+        <v>0.3386293027693746</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3928368961996562</v>
+        <v>0.31955032561595165</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2341298098896515</v>
+        <v>0.2902736026000757</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35824205937901565</v>
+        <v>0.1729254238792156</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.26014330943814856</v>
+        <v>0.034419743394234856</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20698063610515383</v>
+        <v>0.3890209054486599</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15240027911230603</v>
+        <v>0.2829144636318731</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1323,41 +1251,41 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39211590724176204</v>
+        <v>0.2060981735979177</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.369761664111325</v>
+        <v>0.38889077111206777</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05955402401021953</v>
+        <v>0.19173786667884388</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1365,41 +1293,41 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>0.237697336203963</v>
+        <v>0.1896342823659866</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3832016644793893</v>
+        <v>0.17612892755545473</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.301194047008522</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.37614849963187513</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1407,13 +1335,13 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3977083356703674</v>
+        <v>0.20471876857402824</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1424,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1732177462586241</v>
+        <v>0.32201798510463264</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1435,136 +1363,136 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>0.39696999432564417</v>
+        <v>0.39654583216718753</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>0.38452352496978254</v>
+        <v>0.08008753005121132</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3892214166623452</v>
+        <v>0.29242530383881044</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36006758824971463</v>
+        <v>0.37976060742672935</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28120458019742034</v>
+        <v>0.337028113449604</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3868138647185171</v>
+      </c>
+      <c r="D34" t="s">
         <v>9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2579080622001848</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3954307334535797</v>
+        <v>0.29895855771354973</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>0.38279575702860547</v>
+        <v>0.2941957972477714</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25429457642498754</v>
+        <v>0.33915366374952005</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3647820529078363</v>
+        <v>0.2519835911505212</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1572,408 +1500,408 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1823454233558968</v>
+      </c>
+      <c r="D39" t="s">
         <v>9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.16514655546507118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>0.39232193910321855</v>
+        <v>0.17047136823835762</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09591852931323804</v>
+        <v>0.2905325868156403</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>0.39766868761210844</v>
+        <v>0.3934611374712877</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22497947474203905</v>
+        <v>0.38648595909456124</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06785570659294515</v>
+        <v>0.3976661299232932</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>0.38183883742731106</v>
+        <v>0.3019894312537401</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3345364916170168</v>
+        <v>0.3678110249970926</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09831044246111907</v>
+        <v>0.3984947301063964</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0726780145681325</v>
+        <v>0.3481495502912224</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3858405724198171</v>
+        <v>0.3919641600161951</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22017417710138443</v>
+        <v>0.3945494958575259</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2996790171870398</v>
+        <v>0.3819681747798341</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>0.12972933943156442</v>
+        <v>0.3983211733152867</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3291497073544004</v>
+        <v>0.39829659954396773</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3009145876884655</v>
+        <v>0.39517861388201775</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34691342472358666</v>
+        <v>0.24616083394929872</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3202273379443063</v>
+        <v>0.1739634671109615</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27068259395993416</v>
+        <v>0.3979556089990162</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.10621791345998717</v>
+        <v>0.3412598541817529</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.30340486722861343</v>
+        <v>0.3528005041866355</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21368957631643082</v>
+        <v>0.3989413201386275</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3587404373365221</v>
+        <v>0.2524372339809132</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21936798216627335</v>
+        <v>0.39407777063401705</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>0.31907443086804893</v>
+        <v>0.09387779192851389</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3879824642077235</v>
+        <v>0.39181278525506846</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008320623927524778</v>
+        <v>0.1321322420789181</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34207235198858094</v>
+        <v>0.25803369948674315</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C67" t="n">
-        <v>0.339180555660765</v>
+        <v>0.39486743557000864</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -1981,13 +1909,13 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3372788267746352</v>
+        <v>0.3647478908191121</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -1995,27 +1923,27 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>0.14106075083236755</v>
+        <v>0.3521986068249314</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>0.39784894859499415</v>
+        <v>0.36697889501897013</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -2023,13 +1951,13 @@
         <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3878598513901824</v>
+        <v>0.25535112924070597</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -2037,13 +1965,13 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C72" t="n">
-        <v>0.332309185654404</v>
+        <v>0.39787802379096193</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
@@ -2051,13 +1979,13 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3365355859160359</v>
+        <v>0.2855216712541373</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -2065,307 +1993,307 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.39886826658501057</v>
+        <v>0.22412294246188433</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>0.18087264904606404</v>
+        <v>0.38031808102138503</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3312422239771046</v>
+        <v>0.38767860043198055</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>0.168058307500173</v>
+        <v>0.32046518747729097</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3636393346618273</v>
+        <v>0.3968786400394153</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0416437975727068</v>
+        <v>0.3980066402673376</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3915729322211662</v>
+        <v>0.3061720377293364</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36583762437581124</v>
+        <v>0.15490289718837655</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>0.31672774762628914</v>
+        <v>0.38352265812483216</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C83" t="n">
-        <v>0.23200626572814603</v>
+        <v>0.3964572475492015</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3833420564446886</v>
+        <v>0.2601178688751557</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18228602345179326</v>
+        <v>0.2693207852113435</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3972922459489628</v>
+        <v>0.33935746161357205</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>0.393658091283952</v>
+        <v>0.39860022888841984</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2921783576554319</v>
+        <v>0.22787069757003042</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1906210480622018</v>
+        <v>0.25130111765482094</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C90" t="n">
-        <v>0.19389745413382878</v>
+        <v>0.39828200752950393</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23492852948838894</v>
+        <v>0.04099945857922305</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>0.34081754909486645</v>
+        <v>0.13154436509177508</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3603042431769348</v>
+        <v>0.39089594167195235</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3264274172899504</v>
+        <v>0.152129947669046</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="n">
-        <v>0.35468838499367394</v>
+        <v>0.28088608523870956</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96">
@@ -2373,13 +2301,13 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295753547493048</v>
+        <v>0.2770886793686864</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97">
@@ -2387,13 +2315,13 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28841221123478594</v>
+        <v>0.38549764574448975</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2401,13 +2329,13 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>0.32238341724844805</v>
+        <v>0.3758776630668906</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -2415,13 +2343,13 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09607792216394893</v>
+        <v>0.27763328251654557</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
@@ -2429,13 +2357,13 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09042022306123652</v>
+        <v>0.39893855506138187</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
@@ -2443,13 +2371,13 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20521729392393198</v>
+        <v>0.1424542931197919</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2457,136 +2385,136 @@
         <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1906182197455879</v>
+        <v>0.2982230927616618</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3914322996311062</v>
+        <v>0.2983381782926803</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C104" t="n">
-        <v>0.18312544581483828</v>
+        <v>0.0328214296572355</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>0.29433537611517013</v>
+        <v>0.2435739027216649</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.11960562237688527</v>
+        <v>0.3882206944019475</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24185855538401982</v>
+        <v>0.3941434925126715</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2934173017436851</v>
+        <v>0.24747182918860694</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>0.35181465789376737</v>
+        <v>0.03353814408187376</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13877920606712923</v>
+        <v>0.3955265606040321</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3721760722467162</v>
+        <v>0.3544986502637613</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2594,240 +2522,240 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3956371721686007</v>
+        <v>0.3047656000665027</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3856083951792847</v>
+        <v>0.3676573550998361</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>0.20162529851124855</v>
+        <v>0.3710965808131582</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.36727409147447115</v>
+        <v>0.13289123004978062</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3967047513227213</v>
+        <v>0.29437366796498815</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3985521178387537</v>
+        <v>0.3988650329547395</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.12583263531651198</v>
+        <v>0.08758475127129464</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
-        <v>0.18589533790083868</v>
+        <v>0.33140901448168636</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2698067580463643</v>
+        <v>0.1719012227620824</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3987804767894182</v>
+        <v>0.2562411340951661</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C122" t="n">
-        <v>0.18061639831418197</v>
+        <v>0.30081418297211904</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3733214375382852</v>
+        <v>0.26788739560083535</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>0.36240778851967836</v>
+        <v>0.2578507512626329</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3953622787939175</v>
+        <v>0.3585442491852063</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3871972548728716</v>
+        <v>0.23459872855266478</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13546070677101738</v>
+        <v>0.1215897094443699</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3977345876582356</v>
+        <v>0.3610464469133352</v>
       </c>
       <c r="D128" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -2835,13 +2763,13 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>0.27178608493239587</v>
+        <v>0.12479773777487795</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
@@ -2849,13 +2777,13 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26973643031382205</v>
+        <v>0.35622651751411777</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131">
@@ -2863,13 +2791,13 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03214730165570743</v>
+        <v>0.39241761125525554</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
@@ -2877,10 +2805,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1695390622743684</v>
+        <v>0.39880650951254276</v>
       </c>
       <c r="D132" t="s">
         <v>28</v>
@@ -2891,125 +2819,125 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C133" t="n">
-        <v>0.27215967081117215</v>
+        <v>0.37196272566073085</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3486673954070058</v>
+        <v>0.3546741431276241</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3988693585805602</v>
+        <v>0.21913763915369025</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24159745757924292</v>
+        <v>0.2748222770381491</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.34464183390031466</v>
+        <v>0.3107644794979399</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>0.36107999341826813</v>
+        <v>0.1324889057681697</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.14540662772144838</v>
+      </c>
+      <c r="D139" t="s">
         <v>9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.05635815700148714</v>
-      </c>
-      <c r="D139" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30846503051198215</v>
+        <v>0.32528777477609266</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2919123493016393</v>
+        <v>0.16089138267228156</v>
       </c>
       <c r="D141" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -3017,545 +2945,545 @@
         <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3951886949635717</v>
+        <v>0.22547211140657877</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3977727144252207</v>
+        <v>0.3794907814865112</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>0.38372104233343496</v>
+        <v>0.3844249179688198</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2310870730543104</v>
+        <v>0.39762243133804887</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>0.08508517801616937</v>
+        <v>0.3454802138560806</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C147" t="n">
-        <v>0.22456787457592658</v>
+        <v>0.3471050795176253</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.19184485217532898</v>
+        <v>0.2553792182505959</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C149" t="n">
-        <v>0.38347271571198116</v>
+        <v>0.39824071349301887</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.34509550932358496</v>
+        <v>0.0795078465672597</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.346163161678378</v>
+        <v>0.3988881593900526</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C152" t="n">
-        <v>0.27456504491235423</v>
+        <v>0.37814242914193397</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2917916014087362</v>
+        <v>0.36961631691489966</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.18662630034412755</v>
+      </c>
+      <c r="D154" t="s">
         <v>9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.28942096531368033</v>
-      </c>
-      <c r="D154" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3179460561821429</v>
+        <v>0.386639319129176</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C156" t="n">
-        <v>0.39516404619192674</v>
+        <v>0.13557012288706077</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>0.025991605168072276</v>
+        <v>0.2945688657332964</v>
       </c>
       <c r="D157" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3311577502428174</v>
+        <v>0.37949563233750555</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3694916563846403</v>
+        <v>0.35269364060233244</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2543993282488702</v>
+        <v>0.3923051261932222</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3761224581086394</v>
+        <v>0.37099852056344435</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2586000534799894</v>
+        <v>0.269529662837269</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2373429081103919</v>
+      </c>
+      <c r="D163" t="s">
         <v>9</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.10021669135941962</v>
-      </c>
-      <c r="D163" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C164" t="n">
-        <v>0.056924111937945554</v>
+        <v>0.34280895989114923</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2688308175495222</v>
+        <v>0.39618990014183325</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3024987568826299</v>
+        <v>0.2669263982129241</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C167" t="n">
-        <v>0.05209969166036359</v>
+        <v>0.2367161170162219</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1790433852431232</v>
+      </c>
+      <c r="D168" t="s">
         <v>9</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.20693032929132002</v>
-      </c>
-      <c r="D168" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2616971756395784</v>
+        <v>0.07281562054843302</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
+        <v>16</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.12824031759721014</v>
+      </c>
+      <c r="D170" t="s">
         <v>20</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.31165463225944706</v>
-      </c>
-      <c r="D170" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C171" t="n">
-        <v>0.15458489696653363</v>
+        <v>0.33299468289124823</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C172" t="n">
-        <v>0.11519369272382005</v>
+        <v>0.31896368278710663</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3298348298126071</v>
+        <v>0.2221550494132508</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3524605946982547</v>
+        <v>0.34694667155334746</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2816972255358408</v>
+        <v>0.3692978633690944</v>
       </c>
       <c r="D175" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.11215124073149493</v>
+      </c>
+      <c r="D176" t="s">
         <v>9</v>
-      </c>
-      <c r="C176" t="n">
-        <v>0.3702023411775061</v>
-      </c>
-      <c r="D176" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2080319926505418</v>
+        <v>0.23795353740973235</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2492064383382708</v>
+        <v>0.296552897620832</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3848220252128253</v>
+        <v>0.3941115690217208</v>
       </c>
       <c r="D179" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
-        <v>0.39197415594353646</v>
+        <v>0.3368832187101187</v>
       </c>
       <c r="D180" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
@@ -3563,167 +3491,167 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
-        <v>0.17419372779437847</v>
+        <v>0.39415189929319433</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3750856096026734</v>
+        <v>0.3415920858770153</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C183" t="n">
-        <v>0.24110792439779172</v>
+        <v>0.39556700838046793</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C184" t="n">
-        <v>0.264815158522381</v>
+        <v>0.3989010065315182</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>0.16347974843826865</v>
+        <v>0.34876831144848314</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3178117510730164</v>
+        <v>0.3971020293799049</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3967778147891401</v>
+        <v>0.28844580264594305</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2495584415478686</v>
+        <v>0.3606345073996116</v>
       </c>
       <c r="D188" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C189" t="n">
-        <v>0.29454046163585795</v>
+        <v>0.3968610111867427</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3854423127225267</v>
+        <v>0.38338856201718935</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.26216444935063804</v>
+      </c>
+      <c r="D191" t="s">
         <v>9</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.39539439721140063</v>
-      </c>
-      <c r="D191" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3824837708294189</v>
+        <v>0.2598951108865231</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="193">
@@ -3731,13 +3659,13 @@
         <v>186</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C193" t="n">
-        <v>0.13372539937490566</v>
+        <v>0.09239868442183936</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="194">
@@ -3745,13 +3673,13 @@
         <v>187</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2091928992348181</v>
+        <v>0.3868290767966016</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195">
@@ -3759,10 +3687,10 @@
         <v>188</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>0.14411310188559182</v>
+        <v>0.2184973117986638</v>
       </c>
       <c r="D195" t="s">
         <v>6</v>
@@ -3773,13 +3701,13 @@
         <v>189</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C196" t="n">
-        <v>0.18124046026871304</v>
+        <v>0.3954935308881157</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197">
@@ -3787,13 +3715,13 @@
         <v>190</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3912838785808933</v>
+        <v>0.3965237846617259</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198">
@@ -3801,13 +3729,13 @@
         <v>191</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3720037901485744</v>
+        <v>0.32956859157574475</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199">
@@ -3815,13 +3743,13 @@
         <v>192</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3100929299268968</v>
+        <v>0.3548543358439756</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -3829,13 +3757,13 @@
         <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0355087739652332</v>
+        <v>0.35662930040081253</v>
       </c>
       <c r="D200" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -3846,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="C201" t="n">
-        <v>0.34902412255547255</v>
+        <v>0.38218489601108135</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -3860,108 +3788,108 @@
         <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.24622964775599496</v>
+        <v>0.12023482684653124</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C203" t="n">
-        <v>0.23188300510483423</v>
+        <v>0.3305497920227743</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C204" t="n">
-        <v>0.37530282391385994</v>
+        <v>0.24862583801778906</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C205" t="n">
-        <v>0.39772192057640265</v>
+        <v>0.3718974714317747</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>0.10820528693868711</v>
+        <v>0.2468368470690473</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>0.3200405130539738</v>
+        <v>0.21618662252413443</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C208" t="n">
-        <v>0.23522885160864154</v>
+        <v>0.370334902093958</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C209" t="n">
-        <v>0.30975140223402436</v>
+        <v>0.21189394660192348</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210">
@@ -3969,10 +3897,10 @@
         <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3867171727748935</v>
+        <v>0.39837188144842495</v>
       </c>
       <c r="D210" t="s">
         <v>6</v>
@@ -3983,13 +3911,13 @@
         <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C211" t="n">
-        <v>0.39211457608391154</v>
+        <v>0.04938294637098298</v>
       </c>
       <c r="D211" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="212">
@@ -3997,13 +3925,13 @@
         <v>203</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3645065020929391</v>
+        <v>0.26076063978797415</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213">
@@ -4011,41 +3939,41 @@
         <v>204</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2541700289215116</v>
+        <v>0.39444241928877793</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3880730174490118</v>
+        <v>0.2973848446909413</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="n">
-        <v>0.37113641916621753</v>
+        <v>0.35779597586137085</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216">
@@ -4053,38 +3981,38 @@
         <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C216" t="n">
-        <v>0.21564843270786146</v>
+        <v>0.2985382566369988</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C217" t="n">
-        <v>0.12893318609218232</v>
+        <v>0.17930058934830362</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3987123289102636</v>
+        <v>0.19170055637459207</v>
       </c>
       <c r="D218" t="s">
         <v>6</v>
@@ -4092,30 +4020,30 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C219" t="n">
-        <v>0.35724192628708357</v>
+        <v>0.293971603505129</v>
       </c>
       <c r="D219" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C220" t="n">
-        <v>0.345724964625362</v>
+        <v>0.2653291116664057</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
@@ -4123,41 +4051,41 @@
         <v>209</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3931521454158465</v>
+        <v>0.35483902776275933</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3974545700883164</v>
+        <v>0.36076228872140786</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C223" t="n">
-        <v>0.012734474739986547</v>
+        <v>0.3946628202563684</v>
       </c>
       <c r="D223" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
@@ -4165,13 +4093,13 @@
         <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2612600483327794</v>
+        <v>0.13607859627740565</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="225">
@@ -4179,360 +4107,360 @@
         <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>0.26609559052973486</v>
+        <v>0.3955917415108878</v>
       </c>
       <c r="D225" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>0.30869038994180414</v>
+        <v>0.34268676202328774</v>
       </c>
       <c r="D226" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.11469878582828387</v>
+      </c>
+      <c r="D227" t="s">
         <v>9</v>
-      </c>
-      <c r="C227" t="n">
-        <v>0.3092269671165254</v>
-      </c>
-      <c r="D227" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3958306576561181</v>
+        <v>0.19000580634483208</v>
       </c>
       <c r="D228" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C229" t="n">
-        <v>0.32904975713502155</v>
+        <v>0.3933000573708586</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3489247573949849</v>
+        <v>0.37628217717982526</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3405166023747413</v>
+        <v>0.2420352431245783</v>
       </c>
       <c r="D231" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>0.09294175368102087</v>
+        <v>0.3088404008703865</v>
       </c>
       <c r="D232" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3926982886387661</v>
+        <v>0.2102228218487444</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C234" t="n">
-        <v>2.831288574163516E-4</v>
+        <v>0.2528307413303897</v>
       </c>
       <c r="D234" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B235" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C235" t="n">
-        <v>0.02642037663170835</v>
+        <v>0.3036366286753488</v>
       </c>
       <c r="D235" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C236" t="n">
-        <v>0.10582764362701046</v>
+        <v>0.10046524479931006</v>
       </c>
       <c r="D236" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3255043485473311</v>
+        <v>0.3987162965111133</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>0.3813395853858666</v>
+        <v>0.2651152080036103</v>
       </c>
       <c r="D238" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>0.39385742643688826</v>
+        <v>0.3989325304701242</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3956262125065794</v>
+        <v>0.32115631391130245</v>
       </c>
       <c r="D240" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>0.36273626563885364</v>
+        <v>0.07255185423470886</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
       </c>
       <c r="C242" t="n">
-        <v>0.00705086904592232</v>
+        <v>0.3107406017620496</v>
       </c>
       <c r="D242" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C243" t="n">
-        <v>0.3882519779475598</v>
+        <v>0.2537220938139573</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C244" t="n">
-        <v>0.27014700205382497</v>
+        <v>0.06694849582838402</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B245" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C245" t="n">
-        <v>0.3424342001693372</v>
+        <v>0.25652852406303095</v>
       </c>
       <c r="D245" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C246" t="n">
-        <v>0.34272603987260564</v>
+        <v>0.3437568315663128</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>0.3283021368162164</v>
+        <v>0.39867205077532075</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v>0.38800795098959023</v>
+        <v>0.36935372419397494</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B249" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C249" t="n">
-        <v>0.3939627030945855</v>
+        <v>0.2306824616897965</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B250" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C250" t="n">
-        <v>0.39780227031849963</v>
+        <v>0.2832122898705391</v>
       </c>
       <c r="D250" t="s">
         <v>6</v>
@@ -4540,111 +4468,111 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>0.24913047820342554</v>
+        <v>0.2594024347680557</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>0.13684898236777396</v>
+        <v>0.3679961804241939</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3983278716190705</v>
+        <v>0.3878043164004649</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="n">
-        <v>0.007162256760162747</v>
+        <v>0.32143638582389295</v>
       </c>
       <c r="D254" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C255" t="n">
-        <v>0.17598473032205783</v>
+        <v>0.2988257639866232</v>
       </c>
       <c r="D255" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B256" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C256" t="n">
-        <v>0.19420087181205495</v>
+        <v>0.26101816951582074</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="n">
-        <v>0.12768590162889515</v>
+        <v>0.3832656335058663</v>
       </c>
       <c r="D257" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C258" t="n">
-        <v>0.3938642788544729</v>
+        <v>0.3985237808351503</v>
       </c>
       <c r="D258" t="s">
         <v>6</v>
@@ -4652,461 +4580,461 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C259" t="n">
-        <v>0.396094925514647</v>
+        <v>0.38397091964387725</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3987250664914158</v>
+        <v>0.3784725801503342</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>0.09777632722178863</v>
+        <v>0.28316519863537676</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>0.23145420930872587</v>
+        <v>0.37680247127594413</v>
       </c>
       <c r="D262" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1200950771965075</v>
+        <v>0.3961630277456575</v>
       </c>
       <c r="D263" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C264" t="n">
-        <v>0.19832101983053788</v>
+        <v>0.3168302472662548</v>
       </c>
       <c r="D264" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="B265" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C265" t="n">
-        <v>0.26183200125700073</v>
+        <v>0.33548033536288235</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.0943394165484092</v>
+      </c>
+      <c r="D266" t="s">
         <v>9</v>
-      </c>
-      <c r="C266" t="n">
-        <v>0.3605004900030103</v>
-      </c>
-      <c r="D266" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3163926298547677</v>
+        <v>0.26499651803974206</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B268" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>0.3929740048081416</v>
+        <v>0.1936244275064594</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C269" t="n">
-        <v>0.18744781351267442</v>
+        <v>0.16108743772976783</v>
       </c>
       <c r="D269" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3984632571421772</v>
+        <v>0.3258279664763437</v>
       </c>
       <c r="D270" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>0.21713053715536731</v>
+        <v>0.39530416308126215</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C272" t="n">
-        <v>0.3545441473156727</v>
+        <v>0.2036915514961337</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>0.39523553317969723</v>
+        <v>0.19361072075807512</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="n">
-        <v>0.16540685804701008</v>
+        <v>0.3637662785616029</v>
       </c>
       <c r="D274" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3482653967431226</v>
+        <v>0.2068433540576701</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.11584540839783766</v>
+      </c>
+      <c r="D276" t="s">
         <v>20</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.11344369492305023</v>
-      </c>
-      <c r="D276" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B277" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C277" t="n">
-        <v>0.05556223256239307</v>
+        <v>0.3866004642728301</v>
       </c>
       <c r="D277" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="B278" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3972257575251572</v>
+        <v>0.3772989657293194</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B279" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>0.07926959784422934</v>
+        <v>0.36984399098307286</v>
       </c>
       <c r="D279" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C280" t="n">
-        <v>0.38773608612573535</v>
+        <v>0.18511208062134796</v>
       </c>
       <c r="D280" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C281" t="n">
-        <v>0.21527229885348773</v>
+        <v>0.05818988807024946</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2839926031477259</v>
+        <v>0.3986338102442712</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B283" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C283" t="n">
-        <v>0.35876783402940565</v>
+        <v>0.3742960237504106</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="B284" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1788757597982511</v>
+        <v>0.1071786520452851</v>
       </c>
       <c r="D284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C285" t="n">
-        <v>0.32285173362304603</v>
+        <v>0.03606862163249282</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3982182009350527</v>
+        <v>0.357687387639307</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C287" t="n">
-        <v>0.16576883136552484</v>
+        <v>0.19577636384555505</v>
       </c>
       <c r="D287" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B288" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C288" t="n">
-        <v>0.39091696650760793</v>
+        <v>0.37446222385085365</v>
       </c>
       <c r="D288" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3445294721976974</v>
+        <v>0.25458722922110943</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C290" t="n">
-        <v>0.37824560582721317</v>
+        <v>0.015522189584005017</v>
       </c>
       <c r="D290" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="B291" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C291" t="n">
-        <v>0.17417063091578147</v>
+        <v>0.25729520517586346</v>
       </c>
       <c r="D291" t="s">
         <v>6</v>
@@ -5114,982 +5042,982 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="n">
-        <v>0.20898913771834365</v>
+        <v>0.37357736069353903</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>0.11454061160075081</v>
+        <v>0.057136752391792923</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C294" t="n">
-        <v>0.3705202462889326</v>
+        <v>0.24264321185485083</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3725114002194081</v>
+        <v>0.31019418677921284</v>
       </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B296" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C296" t="n">
-        <v>0.3657317067463826</v>
+        <v>0.29381334087177347</v>
       </c>
       <c r="D296" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C297" t="n">
-        <v>0.3785807830089136</v>
+        <v>0.3523987967724371</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>0.08639403151518825</v>
+        <v>0.04825404074250282</v>
       </c>
       <c r="D298" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="B299" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C299" t="n">
-        <v>0.18411776584075307</v>
+        <v>0.188588172868639</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B300" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C300" t="n">
-        <v>0.3326199356416992</v>
+        <v>0.2900349195994059</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1117250884829387</v>
+        <v>0.33841168172258795</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>52</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C302" t="n">
-        <v>0.37838013190494907</v>
+        <v>0.3875332891838922</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>276</v>
+        <v>127</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2442076187712517</v>
+        <v>0.37126564552775154</v>
       </c>
       <c r="D303" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3183942066201208</v>
+        <v>0.38376378315487175</v>
       </c>
       <c r="D304" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3469621220062786</v>
+        <v>0.3586060155642262</v>
       </c>
       <c r="D305" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C306" t="n">
-        <v>0.33735890389458245</v>
+        <v>0.324623396352261</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C307" t="n">
-        <v>0.29662043437459457</v>
+        <v>0.3989191340251453</v>
       </c>
       <c r="D307" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C308" t="n">
-        <v>0.39851152393065203</v>
+        <v>0.3735232114881859</v>
       </c>
       <c r="D308" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C309" t="n">
-        <v>0.39829024599342067</v>
+        <v>0.35357370668113075</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.21848013573598785</v>
+      </c>
+      <c r="D310" t="s">
         <v>20</v>
-      </c>
-      <c r="C310" t="n">
-        <v>0.38936538921168823</v>
-      </c>
-      <c r="D310" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C311" t="n">
-        <v>0.33144049028229</v>
+        <v>0.3815466538594201</v>
       </c>
       <c r="D311" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B312" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C312" t="n">
-        <v>0.31526441566264096</v>
+        <v>0.39578749150066495</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3411566149433549</v>
+        <v>0.38932183470927495</v>
       </c>
       <c r="D313" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3959868476597162</v>
+        <v>0.39603360293037054</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3928932284850225</v>
+        <v>0.3752217425779897</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="B316" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C316" t="n">
-        <v>0.24055006450043018</v>
+        <v>0.34492366762028576</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2794562716238358</v>
+        <v>0.09749925705732386</v>
       </c>
       <c r="D317" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C318" t="n">
-        <v>0.39891056110381623</v>
+        <v>0.3122609964187394</v>
       </c>
       <c r="D318" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3886982828304348</v>
+        <v>0.3898469054477405</v>
       </c>
       <c r="D319" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2794741882651861</v>
+        <v>0.3768594430927462</v>
       </c>
       <c r="D320" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C321" t="n">
-        <v>0.36963902630958423</v>
+        <v>0.015408804163714563</v>
       </c>
       <c r="D321" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C322" t="n">
-        <v>0.33591750284316557</v>
+        <v>0.0626155131462825</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="B323" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1930821986134566</v>
+        <v>0.3925767295773041</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="B324" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C324" t="n">
-        <v>0.3849892213878453</v>
+        <v>0.3645301849495799</v>
       </c>
       <c r="D324" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C325" t="n">
-        <v>0.35405677388354706</v>
+        <v>0.3977531657737794</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1480496888387977</v>
+        <v>0.35908502192861136</v>
       </c>
       <c r="D326" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C327" t="n">
-        <v>0.23761050070455617</v>
+        <v>0.3884176907393252</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C328" t="n">
-        <v>0.3675063716984369</v>
+        <v>0.14897980322959284</v>
       </c>
       <c r="D328" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B329" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C329" t="n">
-        <v>0.3384796433968519</v>
+        <v>0.31828283641336796</v>
       </c>
       <c r="D329" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C330" t="n">
-        <v>0.295658252124229</v>
+        <v>0.30318066673314226</v>
       </c>
       <c r="D330" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>0.39818939359830136</v>
+        <v>0.3947116959116919</v>
       </c>
       <c r="D331" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1526493273681176</v>
+        <v>0.15904219369907127</v>
       </c>
       <c r="D332" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B333" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3923055445777632</v>
+        <v>0.3889798332205855</v>
       </c>
       <c r="D333" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C334" t="n">
-        <v>0.39726728931568556</v>
+        <v>0.3089981577317822</v>
       </c>
       <c r="D334" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0032536285687499995</v>
+        <v>0.3987559192659764</v>
       </c>
       <c r="D335" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C336" t="n">
-        <v>0.28755419339131544</v>
+        <v>0.38941373908290006</v>
       </c>
       <c r="D336" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C337" t="n">
-        <v>0.17977243765348813</v>
+        <v>0.3645326095129102</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>303</v>
+        <v>233</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2827724403360532</v>
+        <v>0.3975261621707346</v>
       </c>
       <c r="D338" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C339" t="n">
-        <v>0.36901576812834386</v>
+        <v>0.3404248695359774</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2839387116690944</v>
+        <v>0.3893937552707378</v>
       </c>
       <c r="D340" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C341" t="n">
-        <v>0.04900069258550848</v>
+        <v>0.3273447588611307</v>
       </c>
       <c r="D341" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B342" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C342" t="n">
-        <v>0.26547495161237</v>
+        <v>0.17143577618581826</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3296261376320652</v>
+        <v>0.3816030229965426</v>
       </c>
       <c r="D343" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2019749065424976</v>
+        <v>0.39853204724948094</v>
       </c>
       <c r="D344" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C345" t="n">
-        <v>0.09803489007751122</v>
+        <v>0.37516432274772094</v>
       </c>
       <c r="D345" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C346" t="n">
-        <v>0.35625974948644107</v>
+        <v>0.3897816505956744</v>
       </c>
       <c r="D346" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B347" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C347" t="n">
-        <v>0.39816019941379094</v>
+        <v>0.2429569938627656</v>
       </c>
       <c r="D347" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="B348" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C348" t="n">
-        <v>0.23035580846272435</v>
+        <v>0.3088604051035682</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C349" t="n">
-        <v>0.30893991306879787</v>
+        <v>0.31543407351247366</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3686888436655205</v>
+        <v>0.22657504409015006</v>
       </c>
       <c r="D350" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C351" t="n">
-        <v>0.3659742904445601</v>
+        <v>0.39877513156030037</v>
       </c>
       <c r="D351" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C352" t="n">
-        <v>0.3956494212846519</v>
+        <v>0.37220861015784706</v>
       </c>
       <c r="D352" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C353" t="n">
-        <v>0.3976592436280156</v>
+        <v>0.1472870499262548</v>
       </c>
       <c r="D353" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>0.13345004831954815</v>
+        <v>0.3694878428137224</v>
       </c>
       <c r="D354" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C355" t="n">
-        <v>0.386971627466014</v>
+        <v>0.3764826947463461</v>
       </c>
       <c r="D355" t="s">
-        <v>225</v>
+        <v>28</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="B356" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3874957396638866</v>
+        <v>0.33823718294615746</v>
       </c>
       <c r="D356" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>318</v>
+        <v>184</v>
       </c>
       <c r="B357" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.08916601933441387</v>
+      </c>
+      <c r="D357" t="s">
         <v>20</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0.3988781939636004</v>
-      </c>
-      <c r="D357" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>0.09673028134019515</v>
+        <v>0.3217504982756583</v>
       </c>
       <c r="D358" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C359" t="n">
-        <v>0.3980555174691822</v>
+        <v>0.33164978165643244</v>
       </c>
       <c r="D359" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C360" t="n">
-        <v>0.3154686557196941</v>
+        <v>0.06906684532640862</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2613378031949531</v>
+        <v>0.024778559705752087</v>
       </c>
       <c r="D361" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis240.xlsx
+++ b/Analysis240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="301">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,883 +26,895 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
-    <t>seducing women</t>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>deep-frying chicken</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>starting thunderstorms</t>
+  </si>
+  <si>
     <t>0.29%</t>
   </si>
   <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>writing Russian novels</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>flying airplanes</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>shagging spies</t>
+  </si>
+  <si>
+    <t>performing stand-up</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>planning tank battles</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>going slowly mad</t>
+  </si>
+  <si>
+    <t>disciplining students</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>fighting barbarian hordes</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>selling kitsch</t>
+  </si>
+  <si>
+    <t>tilting at windmills</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>promoting boxing fights</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>making racist jibes</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>going for a spacewalk</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>raging against the machine</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>saying grace</t>
+  </si>
+  <si>
+    <t>writing romantic fiction</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>collecting fossils</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>playing pop music</t>
+  </si>
+  <si>
+    <t>piquing public interest</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>chasing jellyfish</t>
+  </si>
+  <si>
+    <t>selling tickets</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>instilling fear in the enemy</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>producing Hipbop records</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>promoting Fascism</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>forming new social connections</t>
+  </si>
+  <si>
+    <t>selling self-help books</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>hosting educational films</t>
+  </si>
+  <si>
+    <t>spying for the CIA</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>rooting out spies</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>piloting the lunar module</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>painting realistic pictures</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>breaking heads</t>
+  </si>
+  <si>
+    <t>enjoying money</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>staring at the moon</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>following clues</t>
+  </si>
+  <si>
+    <t>eluding Republicans</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>performing street magic</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>smoking during recess</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>reading self-help books</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>fighting for liberty</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>drinking one's life away</t>
+  </si>
+  <si>
     <t>cross-dressing in women's clothes</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>0.33%</t>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>starring in kung-fu movies</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>promoting Buddhism</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>dating supermodels</t>
+  </si>
+  <si>
+    <t>gurning for the camera</t>
+  </si>
+  <si>
+    <t>singing punk rock songs</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>painting folksy pictures</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>writing science fiction</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>pinching pennies</t>
+  </si>
+  <si>
+    <t>collecting pirate booty</t>
+  </si>
+  <si>
+    <t>diagnosing diseases</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
+  </si>
+  <si>
+    <t>drinking White Russians</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
   </si>
   <si>
     <t>campaigning for social causes</t>
   </si>
   <si>
-    <t>writing science fiction</t>
-  </si>
-  <si>
-    <t>0.38%</t>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>pouting on camera</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>designing computer systems</t>
+  </si>
+  <si>
+    <t>promoting healthy eating</t>
   </si>
   <si>
     <t>studying science</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>eluding the public gaze</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>plotting against family members</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>making bizarre movies</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>playing golf</t>
-  </si>
-  <si>
-    <t>jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>speaking with funny accents</t>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>selling cosmetics</t>
+  </si>
+  <si>
+    <t>planning confidence tricks</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>preparing for the apocalypse</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>apprehending criminals</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>defending the innocent</t>
+  </si>
+  <si>
+    <t>trimming bushes</t>
+  </si>
+  <si>
+    <t>painting over photographs</t>
+  </si>
+  <si>
+    <t>giving to the poor</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>seducing kings</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>writing in ledgers</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>prowling for dinner</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>planning orgies</t>
   </si>
   <si>
     <t>defending the weak</t>
   </si>
   <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>seducing kings</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>running a dictatorship</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>dating supermodels</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>exploring the new world</t>
-  </si>
-  <si>
-    <t>coasting on past glories</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>laughing at God</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>hunting wabbits</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>cooking British food</t>
-  </si>
-  <si>
-    <t>painting folksy pictures</t>
-  </si>
-  <si>
-    <t>marrying underage girls</t>
-  </si>
-  <si>
-    <t>dining with playboy princes</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>making maverick choices</t>
-  </si>
-  <si>
-    <t>offering gnostic advice</t>
-  </si>
-  <si>
-    <t>creating nightmares</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>eluding authorities</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism</t>
+    <t>wisecracking</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>making soap</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>creating monsters</t>
+  </si>
+  <si>
+    <t>over-acting</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
   </si>
   <si>
     <t>providing comic relief</t>
   </si>
   <si>
-    <t>arresting bootleggers</t>
-  </si>
-  <si>
-    <t>subverting social conventions</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>rescuing damsels in distress</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>taking bribes from organized crime</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>launching cultural revolutions</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>offering bad advice</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>running a bureaucracy</t>
+  </si>
+  <si>
+    <t>promoting humanism</t>
   </si>
   <si>
     <t>running a clandestine spy organization</t>
   </si>
   <si>
-    <t>making bad movies</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>eliminating political rivals</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
+    <t>teaching philosophy</t>
   </si>
   <si>
     <t>interviewing politicians</t>
   </si>
   <si>
-    <t>fighting against totalitarianism</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>leading an exodus</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>falling for prank calls</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>making political gaffes</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>running film festivals</t>
-  </si>
-  <si>
-    <t>collecting treasures</t>
-  </si>
-  <si>
-    <t>telling dry jokes</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>hunting demons</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>making movies</t>
-  </si>
-  <si>
-    <t>incurring debts</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>apprehending criminals</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>attending cocktail parties</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>prowling for dinner</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>crooning love songs</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>inventing time machines</t>
-  </si>
-  <si>
-    <t>running theme parks</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>buying on credit</t>
-  </si>
-  <si>
-    <t>making sandwiches</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>doing the Kessel run</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>playing the clarinet</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
-  </si>
-  <si>
-    <t>poisoning an apple</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>throwing temper tantrums</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>drinking demon blood</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>standing up to bullies</t>
-  </si>
-  <si>
-    <t>looking after mother</t>
-  </si>
-  <si>
-    <t>bending spoons</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>starring in war movies</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>promoting nerd culture</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>hosting anodyne game shows</t>
-  </si>
-  <si>
-    <t>running a fast-food business</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>laughing maniacally</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>talking to mirrors</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>over-acting</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>selling kitsch</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>writing epic poetry</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>studying economics</t>
-  </si>
-  <si>
-    <t>promoting social causes</t>
-  </si>
-  <si>
-    <t>burying dead hamsters</t>
-  </si>
-  <si>
-    <t>eluding the FBI</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>painting magazine covers</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>cracking enemy codes</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>complaining about capitalism</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>cooking the books</t>
-  </si>
-  <si>
-    <t>selling military secrets</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>mooching from neighbors</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>working in a freak show</t>
-  </si>
-  <si>
-    <t>promoting openness</t>
-  </si>
-  <si>
-    <t>fighting Carthaginians</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>frying peanut-butter and banana sandwiches</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>making cars</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>cleaning floors</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>sucking roots</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>over-achieving at school</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>cursing at kitchen staff</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
     <t>promoting mysticism</t>
   </si>
   <si>
-    <t>eating power pellets</t>
-  </si>
-  <si>
-    <t>promoting socialism</t>
-  </si>
-  <si>
-    <t>fighting guerilla wars</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>writing folksy fiction</t>
-  </si>
-  <si>
-    <t>developing crazy schemes</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>probing the mind</t>
-  </si>
-  <si>
-    <t>selling fast food</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
+    <t>waging a secret war</t>
+  </si>
+  <si>
+    <t>attending cotillion balls</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
+  </si>
+  <si>
+    <t>blowing bubbles</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>drinking too much red wine</t>
   </si>
 </sst>
 </file>
@@ -960,7 +972,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.11328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="27.51953125" customWidth="true" bestFit="true"/>
@@ -988,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3586334226954258</v>
+        <v>0.39894209505223055</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -999,41 +1011,41 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.10987792746970337</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1728874840840853</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3500037883313924</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.27034635837840865</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.29942951485937136</v>
+        <v>0.21915566895217004</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1041,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27379211730311137</v>
+        <v>0.03733836853978669</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1055,13 +1067,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3844734229029676</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.18619494935615802</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1069,55 +1081,55 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3956968511948611</v>
+        <v>0.06611180542506043</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12013661417498875</v>
+        <v>0.3645619942707654</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3960152249101416</v>
+        <v>0.39496524792709536</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3986681997357084</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3734084209232614</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1128,24 +1140,24 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2886166509608362</v>
+        <v>0.39008229914033843</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21350087136645965</v>
+        <v>0.3243143219881969</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1156,94 +1168,94 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3386293027693746</v>
+        <v>0.3817550697332298</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.31955032561595165</v>
+        <v>0.39353458981013184</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2902736026000757</v>
+        <v>0.39863284313203723</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1729254238792156</v>
+        <v>0.3368492800045557</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>0.034419743394234856</v>
+        <v>0.29182616115668936</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3890209054486599</v>
+        <v>0.10793196488243381</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2829144636318731</v>
+        <v>0.2941588542672865</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1251,27 +1263,27 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2060981735979177</v>
+        <v>0.3532625148676939</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3976681364847333</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.38889077111206777</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1279,13 +1291,13 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19173786667884388</v>
+        <v>0.13827122016531265</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1293,13 +1305,13 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1896342823659866</v>
+        <v>0.15115612197756062</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1307,13 +1319,13 @@
         <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>0.17612892755545473</v>
+        <v>0.3262472325855802</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1321,66 +1333,66 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>0.301194047008522</v>
+        <v>0.25016183630815503</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.20471876857402824</v>
+        <v>0.2189775911559689</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
-        <v>0.32201798510463264</v>
+        <v>0.3955410759618467</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>0.39654583216718753</v>
+        <v>0.1363468437553573</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08008753005121132</v>
+        <v>0.061387042801558565</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -1388,72 +1400,72 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>0.29242530383881044</v>
+        <v>0.3976523566415995</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="n">
-        <v>0.37976060742672935</v>
+        <v>0.30766963161268635</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.337028113449604</v>
+        <v>0.24941034249700475</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3868138647185171</v>
+        <v>0.3557235460548936</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2828493377336583</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.29895855771354973</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1461,13 +1473,13 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2941957972477714</v>
+        <v>0.3418700650698444</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1475,13 +1487,13 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>0.33915366374952005</v>
+        <v>0.3517908735276046</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1489,13 +1501,13 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2519835911505212</v>
+        <v>0.3489841391928745</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -1503,13 +1515,13 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1823454233558968</v>
+        <v>0.3982575091298457</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1517,13 +1529,13 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17047136823835762</v>
+        <v>0.34746519531882225</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -1531,13 +1543,13 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2905325868156403</v>
+        <v>0.36928562495082823</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -1545,13 +1557,13 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3934611374712877</v>
+        <v>0.3453193571763706</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1559,167 +1571,167 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>0.38648595909456124</v>
+        <v>0.04348243285233723</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3976661299232932</v>
+        <v>0.31374521868512695</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3019894312537401</v>
+        <v>0.32201923820742634</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3678110249970926</v>
+        <v>0.2787349917651147</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3984947301063964</v>
+        <v>0.3754009861710296</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3481495502912224</v>
+        <v>0.3585805822634582</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2853508905076533</v>
+      </c>
+      <c r="D49" t="s">
         <v>16</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3919641600161951</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3945494958575259</v>
+        <v>0.3946413380593774</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3819681747798341</v>
+        <v>0.3447638009416166</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3983211733152867</v>
+        <v>0.3946564065383821</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>0.39829659954396773</v>
+        <v>0.398030953173762</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.34944607854654897</v>
+      </c>
+      <c r="D54" t="s">
         <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.39517861388201775</v>
-      </c>
-      <c r="D54" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="55">
@@ -1730,10 +1742,10 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>0.24616083394929872</v>
+        <v>0.07327725915021278</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -1741,13 +1753,13 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1739634671109615</v>
+        <v>0.24069294871857874</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57">
@@ -1755,13 +1767,13 @@
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3979556089990162</v>
+        <v>0.031670147736852144</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1769,13 +1781,13 @@
         <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3412598541817529</v>
+        <v>0.39351033115222567</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1783,13 +1795,13 @@
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3528005041866355</v>
+        <v>0.3505611521148386</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
@@ -1797,13 +1809,13 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3989413201386275</v>
+        <v>0.3779332912105294</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61">
@@ -1811,13 +1823,13 @@
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2524372339809132</v>
+        <v>0.15900208817449363</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -1825,83 +1837,83 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.39407777063401705</v>
+        <v>0.3760368013029678</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09387779192851389</v>
+        <v>0.055125731688016835</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.39181278525506846</v>
+        <v>0.21397566822945754</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1321322420789181</v>
+        <v>0.09708704182620762</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>0.25803369948674315</v>
+        <v>0.21930030578743823</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>0.39486743557000864</v>
+        <v>0.37718412259403566</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
@@ -1909,13 +1921,13 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3647478908191121</v>
+        <v>0.3944160448789438</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -1923,108 +1935,108 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3521986068249314</v>
+        <v>0.39026395117747226</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>0.36697889501897013</v>
+        <v>0.21449467337436184</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.12787085011172453</v>
+      </c>
+      <c r="D71" t="s">
         <v>8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.25535112924070597</v>
-      </c>
-      <c r="D71" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.39787802379096193</v>
+        <v>0.2995294137836146</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2855216712541373</v>
+        <v>0.201587458293492</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v>0.22412294246188433</v>
+        <v>0.04805011059101724</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>0.38031808102138503</v>
+        <v>0.37862072641069666</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>0.38767860043198055</v>
+        <v>0.005393320607577177</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -2032,13 +2044,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>0.32046518747729097</v>
+        <v>0.3307678030489076</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
@@ -2046,83 +2058,83 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3968786400394153</v>
+        <v>0.38116999087928755</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3980066402673376</v>
+        <v>0.33682530085438017</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.17384773724069766</v>
+      </c>
+      <c r="D80" t="s">
         <v>16</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.3061720377293364</v>
-      </c>
-      <c r="D80" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15490289718837655</v>
+        <v>0.39369302884663526</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C82" t="n">
-        <v>0.38352265812483216</v>
+        <v>0.3988868836130391</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3964572475492015</v>
+        <v>0.33174190925746144</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -2130,660 +2142,660 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2601178688751557</v>
+        <v>0.19548746435274464</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2693207852113435</v>
+        <v>0.30147264443173877</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.33935746161357205</v>
+        <v>0.39367261390813363</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>0.39860022888841984</v>
+        <v>0.1552555144664791</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C88" t="n">
-        <v>0.22787069757003042</v>
+        <v>0.398127749149127</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>0.25130111765482094</v>
+        <v>0.3742749830593635</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C90" t="n">
-        <v>0.39828200752950393</v>
+        <v>0.33901980233188067</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04099945857922305</v>
+        <v>0.06120494027121386</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>0.13154436509177508</v>
+        <v>0.3911473803183099</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C93" t="n">
-        <v>0.39089594167195235</v>
+        <v>0.3072879657923465</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>0.152129947669046</v>
+        <v>0.2222407269301758</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C95" t="n">
-        <v>0.28088608523870956</v>
+        <v>0.09221214910347454</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2770886793686864</v>
+        <v>0.2936129862481114</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>0.38549764574448975</v>
+        <v>0.13086715493058726</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3758776630668906</v>
+        <v>0.37970241626625345</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>0.27763328251654557</v>
+        <v>0.145028850862542</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.39893855506138187</v>
+        <v>0.18781981876097711</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1424542931197919</v>
+        <v>0.391269176499541</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2982230927616618</v>
+        <v>0.3723006376078466</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2983381782926803</v>
+        <v>0.24469535150382055</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0328214296572355</v>
+        <v>0.20202694337554333</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2435739027216649</v>
+        <v>0.29462194961708404</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3882206944019475</v>
+        <v>0.36363826330062077</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3941434925126715</v>
+        <v>0.3129081842901177</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24747182918860694</v>
+        <v>0.292637824571262</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.08718942960260137</v>
+      </c>
+      <c r="D109" t="s">
         <v>8</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.03353814408187376</v>
-      </c>
-      <c r="D109" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3955265606040321</v>
+        <v>0.38221347311071924</v>
       </c>
       <c r="D110" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3544986502637613</v>
+        <v>0.396774711088732</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3047656000665027</v>
+        <v>0.3710398337443734</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3676573550998361</v>
+        <v>0.041581167827919</v>
       </c>
       <c r="D113" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3710965808131582</v>
+        <v>0.3930086043688496</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C115" t="n">
-        <v>0.13289123004978062</v>
+        <v>0.22428745409666218</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C116" t="n">
-        <v>0.29437366796498815</v>
+        <v>0.23540606526638122</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3988650329547395</v>
+        <v>0.37788973139744064</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.08758475127129464</v>
+        <v>0.3257695791776933</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.33140901448168636</v>
+        <v>0.38850447625243184</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1719012227620824</v>
+        <v>0.26120183446830386</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2562411340951661</v>
+        <v>0.3365282443763753</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>0.30081418297211904</v>
+        <v>0.31443570784497304</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C123" t="n">
-        <v>0.26788739560083535</v>
+        <v>0.39048982558460377</v>
       </c>
       <c r="D123" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2578507512626329</v>
+        <v>0.07988332574314551</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3585442491852063</v>
+        <v>0.38658817765504755</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C126" t="n">
-        <v>0.23459872855266478</v>
+        <v>0.39033945680398585</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1215897094443699</v>
+        <v>0.35944308529314284</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3610464469133352</v>
+        <v>0.39264868602332603</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C129" t="n">
-        <v>0.12479773777487795</v>
+        <v>0.3000696056999254</v>
       </c>
       <c r="D129" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C130" t="n">
-        <v>0.35622651751411777</v>
+        <v>0.10041446401245326</v>
       </c>
       <c r="D130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -2791,27 +2803,27 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C131" t="n">
-        <v>0.39241761125525554</v>
+        <v>0.24198982486602358</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>98</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.39227734667496045</v>
+      </c>
+      <c r="D132" t="s">
         <v>140</v>
-      </c>
-      <c r="B132" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.39880650951254276</v>
-      </c>
-      <c r="D132" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="133">
@@ -2819,27 +2831,27 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C133" t="n">
-        <v>0.37196272566073085</v>
+        <v>0.37958485071631376</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3546741431276241</v>
+        <v>0.3841247846324716</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
@@ -2847,13 +2859,13 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21913763915369025</v>
+        <v>0.3354589159022553</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136">
@@ -2861,13 +2873,13 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2748222770381491</v>
+        <v>0.3476829869978886</v>
       </c>
       <c r="D136" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137">
@@ -2875,13 +2887,13 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3107644794979399</v>
+        <v>0.33248248133633634</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138">
@@ -2892,10 +2904,10 @@
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1324889057681697</v>
+        <v>0.251161017219888</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -2903,13 +2915,13 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.14029632890393973</v>
+      </c>
+      <c r="D139" t="s">
         <v>8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.14540662772144838</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -2917,38 +2929,38 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C140" t="n">
-        <v>0.32528777477609266</v>
+        <v>0.39305388046805817</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>0.16089138267228156</v>
+        <v>0.35240864659025095</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C142" t="n">
-        <v>0.22547211140657877</v>
+        <v>0.35763250821268316</v>
       </c>
       <c r="D142" t="s">
         <v>20</v>
@@ -2956,265 +2968,265 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3794907814865112</v>
+        <v>0.39513177447316533</v>
       </c>
       <c r="D143" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3844249179688198</v>
+        <v>0.22711417196924416</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="n">
-        <v>0.39762243133804887</v>
+        <v>0.34817575668845296</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3454802138560806</v>
+        <v>0.2625744525643743</v>
       </c>
       <c r="D146" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3471050795176253</v>
+        <v>0.2263693639738311</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2553792182505959</v>
+        <v>0.3860836881895973</v>
       </c>
       <c r="D148" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C149" t="n">
-        <v>0.39824071349301887</v>
+        <v>0.26525294535818955</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0795078465672597</v>
+        <v>0.38985785862458955</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3988881593900526</v>
+        <v>0.39869686072285276</v>
       </c>
       <c r="D151" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>0.37814242914193397</v>
+        <v>0.2207586623999969</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C153" t="n">
-        <v>0.36961631691489966</v>
+        <v>0.10588529706247707</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C154" t="n">
-        <v>0.18662630034412755</v>
+        <v>0.39760424272028666</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C155" t="n">
-        <v>0.386639319129176</v>
+        <v>0.1644666321963593</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>0.13557012288706077</v>
+        <v>0.04004421772961964</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2945688657332964</v>
+        <v>0.3972748899922823</v>
       </c>
       <c r="D157" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C158" t="n">
-        <v>0.37949563233750555</v>
+        <v>0.08474481483371792</v>
       </c>
       <c r="D158" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159" t="n">
-        <v>0.35269364060233244</v>
+        <v>0.2814318444550098</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3923051261932222</v>
+        <v>0.19435494627927236</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C161" t="n">
-        <v>0.37099852056344435</v>
+        <v>0.0055692798717906136</v>
       </c>
       <c r="D161" t="s">
         <v>14</v>
@@ -3222,254 +3234,254 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>0.269529662837269</v>
+        <v>0.31807303945809445</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2373429081103919</v>
+        <v>0.37443458768235377</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C164" t="n">
-        <v>0.34280895989114923</v>
+        <v>0.3632640999691868</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C165" t="n">
-        <v>0.39618990014183325</v>
+        <v>0.28740026625350795</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2669263982129241</v>
+        <v>0.3958668237556644</v>
       </c>
       <c r="D166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2367161170162219</v>
+        <v>0.381102416339196</v>
       </c>
       <c r="D167" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1790433852431232</v>
+        <v>0.09693505668200933</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>0.07281562054843302</v>
+        <v>0.3650065829610609</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>0.12824031759721014</v>
+        <v>0.15710552041679554</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C171" t="n">
-        <v>0.33299468289124823</v>
+        <v>0.3272111452982254</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.2452517772910066</v>
+      </c>
+      <c r="D172" t="s">
         <v>16</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.31896368278710663</v>
-      </c>
-      <c r="D172" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2221550494132508</v>
+        <v>0.35156713766754</v>
       </c>
       <c r="D173" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C174" t="n">
-        <v>0.34694667155334746</v>
+        <v>0.3224443795860546</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3692978633690944</v>
+        <v>0.12847672608448157</v>
       </c>
       <c r="D175" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>0.11215124073149493</v>
+        <v>0.17133398881616732</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.23795353740973235</v>
+        <v>0.33133999611904985</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C178" t="n">
-        <v>0.296552897620832</v>
+        <v>0.39644827040627423</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3941115690217208</v>
+        <v>0.31405750872513727</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180">
@@ -3477,13 +3489,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3368832187101187</v>
+        <v>0.3829798688050495</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -3491,234 +3503,234 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>0.39415189929319433</v>
+        <v>0.3355255300332757</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3415920858770153</v>
+        <v>0.39819104849955117</v>
       </c>
       <c r="D182" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C183" t="n">
-        <v>0.39556700838046793</v>
+        <v>0.33539811703478367</v>
       </c>
       <c r="D183" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3989010065315182</v>
+        <v>0.2548738190522712</v>
       </c>
       <c r="D184" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C185" t="n">
-        <v>0.34876831144848314</v>
+        <v>0.04744759300913719</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3971020293799049</v>
+        <v>0.11034888067457037</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>0.28844580264594305</v>
+        <v>0.39890442266094045</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3606345073996116</v>
+        <v>0.24655955295229803</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3968610111867427</v>
+        <v>0.014302649775133557</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>0.38338856201718935</v>
+        <v>0.3353341166752668</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C191" t="n">
-        <v>0.26216444935063804</v>
+        <v>0.23556197187655514</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2598951108865231</v>
+        <v>0.2971382231124768</v>
       </c>
       <c r="D192" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>0.09239868442183936</v>
+        <v>0.26751896191751573</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3868290767966016</v>
+        <v>0.3299353197630271</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2184973117986638</v>
+        <v>0.34915324433673206</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3954935308881157</v>
+        <v>0.2772685392518052</v>
       </c>
       <c r="D196" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3965237846617259</v>
+        <v>0.3920733617319483</v>
       </c>
       <c r="D197" t="s">
         <v>6</v>
@@ -3726,282 +3738,282 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C198" t="n">
-        <v>0.32956859157574475</v>
+        <v>0.3857176438235816</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.3122886739872571</v>
+      </c>
+      <c r="D199" t="s">
         <v>16</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.3548543358439756</v>
-      </c>
-      <c r="D199" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C200" t="n">
-        <v>0.35662930040081253</v>
+        <v>0.36933114795998073</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C201" t="n">
-        <v>0.38218489601108135</v>
+        <v>0.38995675907437166</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C202" t="n">
-        <v>0.12023482684653124</v>
+        <v>0.05366045887030621</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3305497920227743</v>
+        <v>0.37522336769001335</v>
       </c>
       <c r="D203" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C204" t="n">
-        <v>0.24862583801778906</v>
+        <v>0.36219550817517004</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C205" t="n">
-        <v>0.3718974714317747</v>
+        <v>0.09381898343307547</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2468368470690473</v>
+        <v>0.3643186629595403</v>
       </c>
       <c r="D206" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C207" t="n">
-        <v>0.21618662252413443</v>
+        <v>0.39775094096323316</v>
       </c>
       <c r="D207" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.38664287288601573</v>
+      </c>
+      <c r="D208" t="s">
         <v>16</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.370334902093958</v>
-      </c>
-      <c r="D208" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C209" t="n">
-        <v>0.21189394660192348</v>
+        <v>0.17690584758146144</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>0.39837188144842495</v>
+        <v>0.31512887993011596</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C211" t="n">
-        <v>0.04938294637098298</v>
+        <v>0.29816441587528636</v>
       </c>
       <c r="D211" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C212" t="n">
-        <v>0.26076063978797415</v>
+        <v>0.3424551043411169</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C213" t="n">
-        <v>0.39444241928877793</v>
+        <v>0.3972520332535263</v>
       </c>
       <c r="D213" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2973848446909413</v>
+        <v>0.32323821567557653</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>0.35779597586137085</v>
+        <v>0.33420901553812216</v>
       </c>
       <c r="D215" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2985382566369988</v>
+        <v>0.14560111209905188</v>
       </c>
       <c r="D216" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>0.17930058934830362</v>
+        <v>0.3528364374253838</v>
       </c>
       <c r="D217" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218">
@@ -4009,55 +4021,55 @@
         <v>207</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C218" t="n">
-        <v>0.19170055637459207</v>
+        <v>0.3897274895620035</v>
       </c>
       <c r="D218" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C219" t="n">
-        <v>0.293971603505129</v>
+        <v>0.27294368070693154</v>
       </c>
       <c r="D219" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.237811527544831</v>
+      </c>
+      <c r="D220" t="s">
         <v>8</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.2653291116664057</v>
-      </c>
-      <c r="D220" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C221" t="n">
-        <v>0.35483902776275933</v>
+        <v>0.232256797687524</v>
       </c>
       <c r="D221" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
@@ -4065,836 +4077,836 @@
         <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C222" t="n">
-        <v>0.36076228872140786</v>
+        <v>0.1867056920310124</v>
       </c>
       <c r="D222" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C223" t="n">
-        <v>0.3946628202563684</v>
+        <v>0.18810216131189925</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>0.13607859627740565</v>
+        <v>0.30379858450611597</v>
       </c>
       <c r="D224" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3955917415108878</v>
+        <v>0.39860816106911523</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C226" t="n">
-        <v>0.34268676202328774</v>
+        <v>0.07444092101203015</v>
       </c>
       <c r="D226" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C227" t="n">
-        <v>0.11469878582828387</v>
+        <v>0.23934729837579957</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>0.19000580634483208</v>
+        <v>0.26517528477422614</v>
       </c>
       <c r="D228" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3933000573708586</v>
+        <v>0.29309467639166553</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C230" t="n">
-        <v>0.37628217717982526</v>
+        <v>0.39546227054187366</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2420352431245783</v>
+        <v>0.39714494580242754</v>
       </c>
       <c r="D231" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3088404008703865</v>
+        <v>0.3746238885697581</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2102228218487444</v>
+        <v>0.17979722427913192</v>
       </c>
       <c r="D233" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C234" t="n">
-        <v>0.2528307413303897</v>
+        <v>0.3721185415297299</v>
       </c>
       <c r="D234" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="n">
-        <v>0.3036366286753488</v>
+        <v>0.13020357720888195</v>
       </c>
       <c r="D235" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C236" t="n">
-        <v>0.10046524479931006</v>
+        <v>0.21311238726494744</v>
       </c>
       <c r="D236" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3987162965111133</v>
+        <v>0.37713306967293997</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2651152080036103</v>
+        <v>0.28661763788505956</v>
       </c>
       <c r="D238" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.38900868644980857</v>
+      </c>
+      <c r="D239" t="s">
         <v>8</v>
-      </c>
-      <c r="C239" t="n">
-        <v>0.3989325304701242</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>0.32115631391130245</v>
+        <v>0.3988454760132292</v>
       </c>
       <c r="D240" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.3798459192053421</v>
+      </c>
+      <c r="D241" t="s">
         <v>8</v>
-      </c>
-      <c r="C241" t="n">
-        <v>0.07255185423470886</v>
-      </c>
-      <c r="D241" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C242" t="n">
-        <v>0.3107406017620496</v>
+        <v>0.274317167224659</v>
       </c>
       <c r="D242" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2537220938139573</v>
+        <v>0.2624188422127242</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C244" t="n">
-        <v>0.06694849582838402</v>
+        <v>0.35939069611207336</v>
       </c>
       <c r="D244" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.3985927118773282</v>
+      </c>
+      <c r="D245" t="s">
         <v>16</v>
-      </c>
-      <c r="C245" t="n">
-        <v>0.25652852406303095</v>
-      </c>
-      <c r="D245" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C246" t="n">
-        <v>0.3437568315663128</v>
+        <v>0.11748505104933883</v>
       </c>
       <c r="D246" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C247" t="n">
-        <v>0.39867205077532075</v>
+        <v>0.059988509419343056</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C248" t="n">
-        <v>0.36935372419397494</v>
+        <v>0.33828536170790013</v>
       </c>
       <c r="D248" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2306824616897965</v>
+        <v>0.34706224074018205</v>
       </c>
       <c r="D249" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2832122898705391</v>
+        <v>0.3499007957025086</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2594024347680557</v>
+        <v>0.23548456279967456</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C252" t="n">
-        <v>0.3679961804241939</v>
+        <v>0.2670371725926515</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3878043164004649</v>
+        <v>0.3788676342092026</v>
       </c>
       <c r="D253" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C254" t="n">
-        <v>0.32143638582389295</v>
+        <v>0.12743901772175806</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2988257639866232</v>
+        <v>0.398375765274897</v>
       </c>
       <c r="D255" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C256" t="n">
-        <v>0.26101816951582074</v>
+        <v>0.3970980897207667</v>
       </c>
       <c r="D256" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C257" t="n">
-        <v>0.3832656335058663</v>
+        <v>0.39772944402913224</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B258" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C258" t="n">
-        <v>0.3985237808351503</v>
+        <v>0.10659005034710939</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
       </c>
       <c r="C259" t="n">
-        <v>0.38397091964387725</v>
+        <v>0.3710438304074254</v>
       </c>
       <c r="D259" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3784725801503342</v>
+        <v>0.3955751308029146</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
       </c>
       <c r="C261" t="n">
-        <v>0.28316519863537676</v>
+        <v>0.31392517529569985</v>
       </c>
       <c r="D261" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>0.37680247127594413</v>
+        <v>0.29284334029963033</v>
       </c>
       <c r="D262" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C263" t="n">
-        <v>0.3961630277456575</v>
+        <v>0.3983631572002068</v>
       </c>
       <c r="D263" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3168302472662548</v>
+        <v>0.32923449622809364</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="B265" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C265" t="n">
-        <v>0.33548033536288235</v>
+        <v>0.32639857456605975</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="n">
-        <v>0.0943394165484092</v>
+        <v>0.3955602888760338</v>
       </c>
       <c r="D266" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>0.26499651803974206</v>
+        <v>0.35514325802606506</v>
       </c>
       <c r="D267" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B268" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1936244275064594</v>
+        <v>0.39483033001483786</v>
       </c>
       <c r="D268" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.2524448473888039</v>
+      </c>
+      <c r="D269" t="s">
         <v>8</v>
-      </c>
-      <c r="C269" t="n">
-        <v>0.16108743772976783</v>
-      </c>
-      <c r="D269" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3258279664763437</v>
+        <v>0.39719383196554664</v>
       </c>
       <c r="D270" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="n">
-        <v>0.39530416308126215</v>
+        <v>0.3910949253105664</v>
       </c>
       <c r="D271" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B272" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2036915514961337</v>
+        <v>0.20857199508070293</v>
       </c>
       <c r="D272" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C273" t="n">
-        <v>0.19361072075807512</v>
+        <v>0.2412798294146611</v>
       </c>
       <c r="D273" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C274" t="n">
-        <v>0.3637662785616029</v>
+        <v>0.39852648689437087</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B275" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2068433540576701</v>
+        <v>0.31829895126709</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B276" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C276" t="n">
-        <v>0.11584540839783766</v>
+        <v>0.36949142206914976</v>
       </c>
       <c r="D276" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B277" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C277" t="n">
-        <v>0.3866004642728301</v>
+        <v>0.39586843920412024</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3772989657293194</v>
+        <v>0.3949275246163058</v>
       </c>
       <c r="D278" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="B279" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C279" t="n">
-        <v>0.36984399098307286</v>
+        <v>0.3407265726069967</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
       <c r="B280" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C280" t="n">
-        <v>0.18511208062134796</v>
+        <v>0.15344382411726915</v>
       </c>
       <c r="D280" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B281" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C281" t="n">
-        <v>0.05818988807024946</v>
+        <v>0.3077587434601893</v>
       </c>
       <c r="D281" t="s">
         <v>20</v>
@@ -4902,16 +4914,16 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>0.3986338102442712</v>
+        <v>0.36148433275294345</v>
       </c>
       <c r="D282" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -4919,402 +4931,402 @@
         <v>251</v>
       </c>
       <c r="B283" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C283" t="n">
-        <v>0.3742960237504106</v>
+        <v>0.23408007221236002</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1071786520452851</v>
+        <v>0.20511535221305435</v>
       </c>
       <c r="D284" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C285" t="n">
-        <v>0.03606862163249282</v>
+        <v>0.3954005975315765</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>0.357687387639307</v>
+        <v>0.383190008215907</v>
       </c>
       <c r="D286" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C287" t="n">
-        <v>0.19577636384555505</v>
+        <v>0.2831043475904429</v>
       </c>
       <c r="D287" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C288" t="n">
-        <v>0.37446222385085365</v>
+        <v>0.3673659039886705</v>
       </c>
       <c r="D288" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>0.25458722922110943</v>
+        <v>0.39196603310916767</v>
       </c>
       <c r="D289" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B290" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C290" t="n">
-        <v>0.015522189584005017</v>
+        <v>0.06311071936706276</v>
       </c>
       <c r="D290" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="B291" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C291" t="n">
-        <v>0.25729520517586346</v>
+        <v>0.396115145999596</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C292" t="n">
-        <v>0.37357736069353903</v>
+        <v>0.3387461240908353</v>
       </c>
       <c r="D292" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
       </c>
       <c r="C293" t="n">
-        <v>0.057136752391792923</v>
+        <v>0.2230143388658326</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B294" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>0.24264321185485083</v>
+        <v>0.1945815297442387</v>
       </c>
       <c r="D294" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="B295" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C295" t="n">
-        <v>0.31019418677921284</v>
+        <v>0.341260715685402</v>
       </c>
       <c r="D295" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="B296" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C296" t="n">
-        <v>0.29381334087177347</v>
+        <v>0.17148680660812107</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C297" t="n">
-        <v>0.3523987967724371</v>
+        <v>0.19440359044089617</v>
       </c>
       <c r="D297" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C298" t="n">
-        <v>0.04825404074250282</v>
+        <v>0.06157445075794453</v>
       </c>
       <c r="D298" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="B299" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C299" t="n">
-        <v>0.188588172868639</v>
+        <v>0.3709777140052413</v>
       </c>
       <c r="D299" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B300" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2900349195994059</v>
+        <v>0.20072476282007634</v>
       </c>
       <c r="D300" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
+        <v>266</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.35714350490821806</v>
+      </c>
+      <c r="D301" t="s">
         <v>51</v>
-      </c>
-      <c r="B301" t="s">
-        <v>16</v>
-      </c>
-      <c r="C301" t="n">
-        <v>0.33841168172258795</v>
-      </c>
-      <c r="D301" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C302" t="n">
-        <v>0.3875332891838922</v>
+        <v>0.2489691880261307</v>
       </c>
       <c r="D302" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B303" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C303" t="n">
-        <v>0.37126564552775154</v>
+        <v>0.398769677173707</v>
       </c>
       <c r="D303" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B304" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C304" t="n">
-        <v>0.38376378315487175</v>
+        <v>0.3977438154371064</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B305" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3586060155642262</v>
+        <v>0.3349084894036433</v>
       </c>
       <c r="D305" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C306" t="n">
-        <v>0.324623396352261</v>
+        <v>0.10558823592387284</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C307" t="n">
-        <v>0.3989191340251453</v>
+        <v>0.19904894151314656</v>
       </c>
       <c r="D307" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
       </c>
       <c r="C308" t="n">
-        <v>0.3735232114881859</v>
+        <v>0.2388528853845175</v>
       </c>
       <c r="D308" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
-        <v>0.35357370668113075</v>
+        <v>0.2137291428867198</v>
       </c>
       <c r="D309" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>0.21848013573598785</v>
+        <v>0.13141607266760183</v>
       </c>
       <c r="D310" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
-        <v>0.3815466538594201</v>
+        <v>0.11867464193296444</v>
       </c>
       <c r="D311" t="s">
         <v>14</v>
@@ -5322,475 +5334,475 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C312" t="n">
-        <v>0.39578749150066495</v>
+        <v>0.3871304780772768</v>
       </c>
       <c r="D312" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B313" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C313" t="n">
-        <v>0.38932183470927495</v>
+        <v>0.37422292833196535</v>
       </c>
       <c r="D313" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B314" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C314" t="n">
-        <v>0.39603360293037054</v>
+        <v>0.2795926338104714</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3752217425779897</v>
+        <v>0.2819498944074045</v>
       </c>
       <c r="D315" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B316" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C316" t="n">
-        <v>0.34492366762028576</v>
+        <v>0.12414459394876143</v>
       </c>
       <c r="D316" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C317" t="n">
-        <v>0.09749925705732386</v>
+        <v>0.07235777265148773</v>
       </c>
       <c r="D317" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C318" t="n">
-        <v>0.3122609964187394</v>
+        <v>0.10067575473742499</v>
       </c>
       <c r="D318" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3898469054477405</v>
+        <v>0.3879835274220895</v>
       </c>
       <c r="D319" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C320" t="n">
-        <v>0.3768594430927462</v>
+        <v>0.3926722031605623</v>
       </c>
       <c r="D320" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="B321" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C321" t="n">
-        <v>0.015408804163714563</v>
+        <v>0.36397745803141296</v>
       </c>
       <c r="D321" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B322" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0626155131462825</v>
+        <v>0.2872641254520591</v>
       </c>
       <c r="D322" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="B323" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C323" t="n">
-        <v>0.3925767295773041</v>
+        <v>0.2488290083296973</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C324" t="n">
-        <v>0.3645301849495799</v>
+        <v>0.17291587663032884</v>
       </c>
       <c r="D324" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C325" t="n">
-        <v>0.3977531657737794</v>
+        <v>0.3983232335215989</v>
       </c>
       <c r="D325" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C326" t="n">
-        <v>0.35908502192861136</v>
+        <v>0.006644498691632969</v>
       </c>
       <c r="D326" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C327" t="n">
-        <v>0.3884176907393252</v>
+        <v>0.19217076432050287</v>
       </c>
       <c r="D327" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B328" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>0.14897980322959284</v>
+        <v>0.34636164565204525</v>
       </c>
       <c r="D328" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B329" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C329" t="n">
-        <v>0.31828283641336796</v>
+        <v>0.018908681606044173</v>
       </c>
       <c r="D329" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B330" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C330" t="n">
-        <v>0.30318066673314226</v>
+        <v>0.32733661266098213</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C331" t="n">
-        <v>0.3947116959116919</v>
+        <v>0.18701541306100428</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C332" t="n">
-        <v>0.15904219369907127</v>
+        <v>0.3921263697492816</v>
       </c>
       <c r="D332" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3889798332205855</v>
+        <v>0.3830714365884316</v>
       </c>
       <c r="D333" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="B334" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C334" t="n">
-        <v>0.3089981577317822</v>
+        <v>0.3523229355780543</v>
       </c>
       <c r="D334" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C335" t="n">
-        <v>0.3987559192659764</v>
+        <v>0.012475326515410012</v>
       </c>
       <c r="D335" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C336" t="n">
-        <v>0.38941373908290006</v>
+        <v>0.3854191533677855</v>
       </c>
       <c r="D336" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.37955560743325245</v>
+      </c>
+      <c r="D337" t="s">
         <v>16</v>
-      </c>
-      <c r="C337" t="n">
-        <v>0.3645326095129102</v>
-      </c>
-      <c r="D337" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="B338" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C338" t="n">
-        <v>0.3975261621707346</v>
+        <v>0.3644988515909555</v>
       </c>
       <c r="D338" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B339" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C339" t="n">
-        <v>0.3404248695359774</v>
+        <v>0.39572316844740046</v>
       </c>
       <c r="D339" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="B340" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C340" t="n">
-        <v>0.3893937552707378</v>
+        <v>0.3071059101210966</v>
       </c>
       <c r="D340" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B341" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C341" t="n">
-        <v>0.3273447588611307</v>
+        <v>0.16924626090768288</v>
       </c>
       <c r="D341" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.317510893656882</v>
+      </c>
+      <c r="D342" t="s">
         <v>16</v>
-      </c>
-      <c r="C342" t="n">
-        <v>0.17143577618581826</v>
-      </c>
-      <c r="D342" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B343" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3816030229965426</v>
+        <v>0.3945539627275835</v>
       </c>
       <c r="D343" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
       </c>
       <c r="C344" t="n">
-        <v>0.39853204724948094</v>
+        <v>0.3307932240830848</v>
       </c>
       <c r="D344" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="B345" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C345" t="n">
-        <v>0.37516432274772094</v>
+        <v>0.3989255422530643</v>
       </c>
       <c r="D345" t="s">
         <v>6</v>
@@ -5798,226 +5810,226 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B346" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3897816505956744</v>
+        <v>0.3425626165164781</v>
       </c>
       <c r="D346" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C347" t="n">
-        <v>0.2429569938627656</v>
+        <v>0.34140938000156373</v>
       </c>
       <c r="D347" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B348" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3088604051035682</v>
+        <v>0.3726215748546867</v>
       </c>
       <c r="D348" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="B349" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C349" t="n">
-        <v>0.31543407351247366</v>
+        <v>0.3479908037099297</v>
       </c>
       <c r="D349" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C350" t="n">
-        <v>0.22657504409015006</v>
+        <v>0.16247163452318542</v>
       </c>
       <c r="D350" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
       </c>
       <c r="C351" t="n">
-        <v>0.39877513156030037</v>
+        <v>0.1616027712931261</v>
       </c>
       <c r="D351" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="B352" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C352" t="n">
-        <v>0.37220861015784706</v>
+        <v>0.18181936844731472</v>
       </c>
       <c r="D352" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1472870499262548</v>
+        <v>0.2922942172892554</v>
       </c>
       <c r="D353" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B354" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C354" t="n">
-        <v>0.3694878428137224</v>
+        <v>0.3427098730220002</v>
       </c>
       <c r="D354" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="B355" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C355" t="n">
-        <v>0.3764826947463461</v>
+        <v>0.2953599059321789</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.3577870773850838</v>
+      </c>
+      <c r="D356" t="s">
         <v>16</v>
-      </c>
-      <c r="C356" t="n">
-        <v>0.33823718294615746</v>
-      </c>
-      <c r="D356" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
       </c>
       <c r="C357" t="n">
-        <v>0.08916601933441387</v>
+        <v>0.2085969444474728</v>
       </c>
       <c r="D357" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3217504982756583</v>
+        <v>0.3982074604997331</v>
       </c>
       <c r="D358" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="B359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C359" t="n">
-        <v>0.33164978165643244</v>
+        <v>0.34809510331311017</v>
       </c>
       <c r="D359" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B360" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C360" t="n">
-        <v>0.06906684532640862</v>
+        <v>0.23334056513387713</v>
       </c>
       <c r="D360" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B361" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C361" t="n">
-        <v>0.024778559705752087</v>
+        <v>0.33025716024429275</v>
       </c>
       <c r="D361" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis240.xlsx
+++ b/Analysis240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="309">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,955 +26,919 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>tracking down fugitives</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>giving to the poor</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>writing political satires</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>leading an exodus</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>eating exotic foods</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>flying into a rage</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>bodybuilding</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>fighting barbarian hordes</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>shilling for rental car companies</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>transforming into vehicles</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>maintaining salon-quality hair</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>promoting healthy eating</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>pushing the hardline</t>
+  </si>
+  <si>
+    <t>squandering money</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>bending the law</t>
+  </si>
+  <si>
+    <t>teaching martial arts</t>
+  </si>
+  <si>
+    <t>campaigning for the senate</t>
+  </si>
+  <si>
+    <t>directing science fiction movies</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>fawning on the boss</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>giving noogies</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>painting abstract paintings</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>cooking a rabbit stew</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>seducing toy boys</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>pushing anti-trust legislation</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>playing the trumpet</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>selling stock cubes</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>disappointing the family</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>bursting out of shirts</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>defending the innocent</t>
+  </si>
+  <si>
+    <t>singing on TV shows</t>
+  </si>
+  <si>
+    <t>consolidating an empire</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>terrorizing citizens</t>
+  </si>
+  <si>
+    <t>complaining about capitalism</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>worrying about adultery</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>eating bacon cheeseburgers</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>dreaming of yesteryear</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>posing pointed questions</t>
+  </si>
+  <si>
+    <t>saying grace</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>drawing political cartoons</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>ordering wire-taps</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>meddling in the dark arts</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>studying the cosmos</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>dripping paint onto canvas</t>
+  </si>
+  <si>
+    <t>making madcap comedies</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance</t>
+  </si>
+  <si>
+    <t>falling in love</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>making vague predictions</t>
+  </si>
+  <si>
+    <t>promoting Scientology</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry</t>
+  </si>
+  <si>
+    <t>recruiting disaffected youths</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>promoting open-source software</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>painting soup cans</t>
+  </si>
+  <si>
+    <t>chasing rabbits</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>arguing with political opponents</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>playing pop music</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>suing large corporations</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>probing the mind</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>making sandwiches</t>
+  </si>
+  <si>
+    <t>selling dodgy goods</t>
+  </si>
+  <si>
+    <t>directing action movies</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>stealing lunch money</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>stealing jewels</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>playing the organ</t>
+  </si>
+  <si>
+    <t>making Superhero movies</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>starring in war movies</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>diagnosing diseases</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>escaping from handcuffs</t>
+  </si>
+  <si>
+    <t>defending freedom</t>
+  </si>
+  <si>
+    <t>feeding the poor</t>
+  </si>
+  <si>
+    <t>engaging in hapless hijinks</t>
+  </si>
+  <si>
+    <t>making sick people laugh</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>0.25%</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>stealing hamburgers</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>0.29%</t>
+    <t>incurring debts</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>promoting the Web</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century</t>
+  </si>
+  <si>
+    <t>writing experimental songs</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>writing science fiction</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
   </si>
   <si>
     <t>womanizing</t>
   </si>
   <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>surviving in a post-apocalyptic world</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>divorcing husbands</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>killing rival gladiators</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>moaning about life</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>shilling for rental car companies</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>ranting about conservatives</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>analyzing murder scenes</t>
-  </si>
-  <si>
-    <t>shopping for shoes</t>
-  </si>
-  <si>
-    <t>attending cotillion balls</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>making ice sculptures</t>
-  </si>
-  <si>
-    <t>promoting socialism</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>creating adverts</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>explaining natural selection</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>bending spoons</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>tilting at windmills</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>drawing political cartoons</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>selling dodgy goods</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>tricking criminals</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>testing scientific theories</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
+    <t>collecting fossils</t>
+  </si>
+  <si>
+    <t>eating Peking duck</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>working in a freak show</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
   </si>
   <si>
     <t>running a kingdom</t>
   </si>
   <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>teaching philosophy to future leaders</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>promoting pacifism</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>talking to mirrors</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>wooing potential brides</t>
-  </si>
-  <si>
-    <t>rooting out spies</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>making Superhero movies</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>studying science</t>
+    <t>promoting Heliocentrism</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
   </si>
   <si>
     <t>providing comic relief</t>
   </si>
   <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
     <t>building rocket ships</t>
   </si>
   <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>killing monsters</t>
-  </si>
-  <si>
-    <t>hunting serial killers</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>smoking Silk Cut cigarettes</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>painting surreal pictures</t>
-  </si>
-  <si>
-    <t>selling fried chicken</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
+    <t>arresting drug dealers</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>avoiding retirement</t>
+  </si>
+  <si>
+    <t>delivering judgments</t>
+  </si>
+  <si>
+    <t>flirting with rednecks</t>
+  </si>
+  <si>
+    <t>revolutionizing physics</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>driving around America</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
   </si>
   <si>
     <t>duelling acrobatically</t>
   </si>
   <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>winning golf tournaments</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
+    <t>rooting out moles</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
   </si>
   <si>
     <t>looking for immortality</t>
   </si>
   <si>
-    <t>0.67%</t>
-  </si>
-  <si>
-    <t>launching hostile takeovers</t>
-  </si>
-  <si>
-    <t>promoting boxing fights</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>tracking down fugitives</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>playing classical piano</t>
-  </si>
-  <si>
-    <t>offering blessings</t>
-  </si>
-  <si>
-    <t>selling cosmetics</t>
-  </si>
-  <si>
-    <t>tormenting muggles</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>running a dictatorship</t>
-  </si>
-  <si>
-    <t>eating dinosaur ribs</t>
-  </si>
-  <si>
-    <t>rooting out moles</t>
-  </si>
-  <si>
-    <t>surviving large-scale floods</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>throwing temper tantrums</t>
-  </si>
-  <si>
-    <t>growing up poor</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>making silly decisions</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>hunting monsters</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>eating Peking duck</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>betraying friends</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>changing sides</t>
-  </si>
-  <si>
-    <t>avoiding taxes</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>directing comedies</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>fighting the forces of good</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>planning confidence tricks</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>teaching Defence Against the Dark Arts</t>
-  </si>
-  <si>
-    <t>tending the garden</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
+    <t>plotting terrorist outrages</t>
+  </si>
+  <si>
+    <t>inventing superheroes</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>making bad movies</t>
   </si>
   <si>
     <t>hacking into corporate mainframes</t>
   </si>
   <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>evading mercenaries</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>waxing a surfboard</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>robbing from the rich</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>pretending to fight</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>playing the trumpet</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>eluding FBI profilers</t>
-  </si>
-  <si>
-    <t>slapping soldiers</t>
-  </si>
-  <si>
-    <t>surviving a shipwreck</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>making mediocre movies</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>writing on wax tablets</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes</t>
-  </si>
-  <si>
-    <t>promoting enlightenment</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>making topiary sculptures</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>playing intense characters</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>plotting against family members</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>doing slapstick comedy</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>eating bacon cheeseburgers</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>developing real estate</t>
-  </si>
-  <si>
-    <t>performing Web searches</t>
-  </si>
-  <si>
-    <t>brewing magican potions</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>planning adultery</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>singing multipart harmonies</t>
-  </si>
-  <si>
-    <t>eating census takers</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>making idealistic movies</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>crushing dissent</t>
-  </si>
-  <si>
-    <t>selling self-help books</t>
-  </si>
-  <si>
-    <t>chasing interns</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>directing bad movies</t>
-  </si>
-  <si>
-    <t>expressing dissent</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>promoting movie violence</t>
+    <t>creating nightmares</t>
+  </si>
+  <si>
+    <t>directing weird movies</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>collecting comic books</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +996,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.85546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="28.9375" customWidth="true" bestFit="true"/>
@@ -1060,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2618240856045848</v>
+        <v>0.023770955941868416</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1074,2261 +1038,2261 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.24375055635548631</v>
+        <v>0.21931745600060096</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21958468677055745</v>
+        <v>0.14888269626225212</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2360761647350365</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3712770836543862</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.387688331218957</v>
+        <v>0.344816206448479</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3020007576419047</v>
+        <v>0.1895153989494019</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23587706410448658</v>
+        <v>0.3929673420904352</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39755944583230646</v>
+        <v>0.39876364589715185</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10536003055613831</v>
+        <v>0.2714821452241255</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38077054570269536</v>
+        <v>0.38800747280728615</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3921271592516175</v>
+        <v>0.34644781861200463</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2474845175761379</v>
+        <v>0.3885569036291649</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3806741181369253</v>
+        <v>0.39782965619416644</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3928368961996562</v>
+        <v>0.31637454439108254</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2341298098896515</v>
+        <v>0.052403866110629846</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35824205937901565</v>
+        <v>0.37057111480610294</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.26014330943814856</v>
+        <v>0.39884366781460084</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20698063610515383</v>
+        <v>0.3612226929599883</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15240027911230603</v>
+        <v>0.12176288660140232</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.39211590724176204</v>
+        <v>0.18150101352257225</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>0.369761664111325</v>
+        <v>0.054591461636882166</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05955402401021953</v>
+        <v>0.39459281727804424</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>0.237697336203963</v>
+        <v>0.14785987589456973</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3832016644793893</v>
+        <v>0.048667125294488855</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.37614849963187513</v>
+        <v>0.33136755873414797</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3977083356703674</v>
+        <v>0.08018776391151054</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1732177462586241</v>
+        <v>0.39171269252134727</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0.39696999432564417</v>
+        <v>0.36233096317665564</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.38452352496978254</v>
+        <v>0.20502062078558458</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3892214166623452</v>
+        <v>0.1586962456627037</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36006758824971463</v>
+        <v>0.10681821299752055</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28120458019742034</v>
+        <v>0.09739216617467515</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2579080622001848</v>
+        <v>0.33733660925244224</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3954307334535797</v>
+        <v>0.29569668755746664</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" t="n">
-        <v>0.38279575702860547</v>
+        <v>0.3577638696275359</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.25429457642498754</v>
+        <v>0.3984781778426122</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3647820529078363</v>
+        <v>0.3940146804369286</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>0.16514655546507118</v>
+        <v>0.3912698522202837</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.39232193910321855</v>
+        <v>0.3500226542680532</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09591852931323804</v>
+        <v>0.3907464573985459</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.39766868761210844</v>
+        <v>0.3604611795521639</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22497947474203905</v>
+        <v>0.09496093869062365</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06785570659294515</v>
+        <v>0.31086691295277</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>0.38183883742731106</v>
+        <v>0.38032444194054427</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3345364916170168</v>
+        <v>0.35984253273232353</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09831044246111907</v>
+        <v>0.39621479097638357</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0726780145681325</v>
+        <v>0.2568164419461745</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3858405724198171</v>
+        <v>0.226681130363837</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22017417710138443</v>
+        <v>0.14671918830445543</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2996790171870398</v>
+        <v>0.33546062599082227</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C52" t="n">
-        <v>0.12972933943156442</v>
+        <v>0.29225308428850283</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3291497073544004</v>
+        <v>0.39846417261782574</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3009145876884655</v>
+        <v>0.39206362422083035</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34691342472358666</v>
+        <v>0.3723913492835661</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3202273379443063</v>
+        <v>0.35646232180728193</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>0.27068259395993416</v>
+        <v>0.38559710929039187</v>
       </c>
       <c r="D57" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.10621791345998717</v>
+        <v>0.3987612576252003</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.30340486722861343</v>
+        <v>0.34103469794847624</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21368957631643082</v>
+        <v>0.3972348898977139</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3587404373365221</v>
+        <v>0.3563150378889083</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.21936798216627335</v>
+        <v>0.3873942745904151</v>
       </c>
       <c r="D62" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>0.31907443086804893</v>
+        <v>0.3983102376699505</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3879824642077235</v>
+        <v>0.3913838512024982</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008320623927524778</v>
+        <v>0.37879392988876287</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.34207235198858094</v>
+        <v>0.3554539579761012</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>0.339180555660765</v>
+        <v>0.27466390113871014</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3372788267746352</v>
+        <v>0.14345553391969412</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
-        <v>0.14106075083236755</v>
+        <v>0.35181808335937054</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>0.39784894859499415</v>
+        <v>0.1716695347527304</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3878598513901824</v>
+        <v>0.3551079603736173</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.332309185654404</v>
+        <v>0.39028587103147105</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3365355859160359</v>
+        <v>0.3725378855997115</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>0.39886826658501057</v>
+        <v>0.040056835463495435</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>0.18087264904606404</v>
+        <v>0.1879417249399215</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3312422239771046</v>
+        <v>0.19167613268094952</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C77" t="n">
-        <v>0.168058307500173</v>
+        <v>0.33811277900760217</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3636393346618273</v>
+        <v>0.19919039232801874</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0416437975727068</v>
+        <v>0.22124765277377015</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3915729322211662</v>
+        <v>0.1641076086103097</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.36583762437581124</v>
+        <v>0.3846651522752375</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>0.31672774762628914</v>
+        <v>0.13832789404012646</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>0.23200626572814603</v>
+        <v>0.2663684584766471</v>
       </c>
       <c r="D83" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3833420564446886</v>
+        <v>0.3100090088814075</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18228602345179326</v>
+        <v>0.37776047425210674</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3972922459489628</v>
+        <v>0.3791209077209335</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C87" t="n">
-        <v>0.393658091283952</v>
+        <v>0.38731092848297916</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2921783576554319</v>
+        <v>0.32352212254124385</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1906210480622018</v>
+        <v>0.13875461119893237</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>0.19389745413382878</v>
+        <v>0.28506376216706264</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23492852948838894</v>
+        <v>0.13177182218594186</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>0.34081754909486645</v>
+        <v>0.36595346811744417</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3603042431769348</v>
+        <v>0.3988856422619391</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3264274172899504</v>
+        <v>0.3872677509778383</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>0.35468838499367394</v>
+        <v>0.39716764083068995</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295753547493048</v>
+        <v>0.15762810870667415</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C97" t="n">
-        <v>0.28841221123478594</v>
+        <v>0.34467683021013634</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>0.32238341724844805</v>
+        <v>0.2647761460203259</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09607792216394893</v>
+        <v>0.27120985581956797</v>
       </c>
       <c r="D99" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>0.09042022306123652</v>
+        <v>0.3984562264941034</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20521729392393198</v>
+        <v>0.24664216841683168</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1906182197455879</v>
+        <v>0.3934085725181892</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3914322996311062</v>
+        <v>0.2977121260679419</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>0.18312544581483828</v>
+        <v>0.2465095660903247</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>0.29433537611517013</v>
+        <v>0.30919095821625686</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.11960562237688527</v>
+        <v>0.19886934003530723</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24185855538401982</v>
+        <v>0.3961120456426392</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2934173017436851</v>
+        <v>0.36671807495083886</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C109" t="n">
-        <v>0.35181465789376737</v>
+        <v>0.30942465445065637</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13877920606712923</v>
+        <v>0.3702048286027908</v>
       </c>
       <c r="D110" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3721760722467162</v>
+        <v>0.21427929844179755</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3956371721686007</v>
+        <v>0.36177450787763077</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3856083951792847</v>
+        <v>0.029201779808180485</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>0.20162529851124855</v>
+        <v>0.32518224023796516</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.36727409147447115</v>
+        <v>0.14694101953770405</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3967047513227213</v>
+        <v>0.026038811542710014</v>
       </c>
       <c r="D116" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3985521178387537</v>
+        <v>0.15569804140072485</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.12583263531651198</v>
+        <v>0.09095161042039315</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>0.18589533790083868</v>
+        <v>0.05060686826219163</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2698067580463643</v>
+        <v>0.020009448487594828</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3987804767894182</v>
+        <v>0.13095530248056225</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>0.18061639831418197</v>
+        <v>0.3988775004420177</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C123" t="n">
-        <v>0.3733214375382852</v>
+        <v>0.17579165044397688</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>0.36240778851967836</v>
+        <v>0.13472106938845044</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>0.3953622787939175</v>
+        <v>0.3329927579282849</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3871972548728716</v>
+        <v>0.14616554458535863</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
-        <v>0.13546070677101738</v>
+        <v>0.3960159817802377</v>
       </c>
       <c r="D127" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>0.3977345876582356</v>
+        <v>0.16007357356842164</v>
       </c>
       <c r="D128" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.304312308916323</v>
+      </c>
+      <c r="D129" t="s">
         <v>20</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.27178608493239587</v>
-      </c>
-      <c r="D129" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C130" t="n">
-        <v>0.26973643031382205</v>
+        <v>0.36200398431237246</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03214730165570743</v>
+        <v>0.36287640234809415</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1695390622743684</v>
+        <v>0.04178544674917219</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" t="n">
-        <v>0.27215967081117215</v>
+        <v>0.31211773983911445</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3486673954070058</v>
+        <v>0.3556061830159947</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3988693585805602</v>
+        <v>0.2408693526174347</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24159745757924292</v>
+        <v>0.38166555670712676</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.34464183390031466</v>
+        <v>0.39894099270409894</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>0.36107999341826813</v>
+        <v>0.23141061990047823</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" t="n">
-        <v>0.05635815700148714</v>
+        <v>0.3144345125033423</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30846503051198215</v>
+        <v>0.23835790452094713</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.37754938347908856</v>
+      </c>
+      <c r="D141" t="s">
         <v>20</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.2919123493016393</v>
-      </c>
-      <c r="D141" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3951886949635717</v>
+        <v>0.3825978997499921</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3977727144252207</v>
+        <v>0.2741840046383265</v>
       </c>
       <c r="D143" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C144" t="n">
-        <v>0.38372104233343496</v>
+        <v>0.07616464749034282</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2310870730543104</v>
+        <v>0.3980962642323005</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C146" t="n">
-        <v>0.08508517801616937</v>
+        <v>0.3259857283980037</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.22456787457592658</v>
+        <v>0.2542999247416433</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>0.19184485217532898</v>
+        <v>0.3773296419400712</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>0.38347271571198116</v>
+        <v>0.34746449607010876</v>
       </c>
       <c r="D149" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C150" t="n">
-        <v>0.34509550932358496</v>
+        <v>0.3754255899252181</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C151" t="n">
-        <v>0.346163161678378</v>
+        <v>0.3963790212374543</v>
       </c>
       <c r="D151" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C152" t="n">
-        <v>0.27456504491235423</v>
+        <v>0.34332992914698074</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2917916014087362</v>
+        <v>0.3934358726488904</v>
       </c>
       <c r="D153" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C154" t="n">
-        <v>0.28942096531368033</v>
+        <v>0.3969620459490642</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3179460561821429</v>
+        <v>0.17357455221742468</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>0.39516404619192674</v>
+        <v>0.18920273322642814</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.025991605168072276</v>
+        <v>0.3898737435386582</v>
       </c>
       <c r="D157" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3311577502428174</v>
+        <v>0.2792757487444891</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3694916563846403</v>
+        <v>0.19810477358772483</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2543993282488702</v>
+        <v>0.3041985392281781</v>
       </c>
       <c r="D160" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3761224581086394</v>
+        <v>0.02276484112816726</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2586000534799894</v>
+        <v>0.3434179604121417</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C163" t="n">
-        <v>0.10021669135941962</v>
+        <v>0.38673927086650267</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B164" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C164" t="n">
-        <v>0.056924111937945554</v>
+        <v>0.35788265743256925</v>
       </c>
       <c r="D164" t="s">
         <v>40</v>
@@ -3336,968 +3300,968 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2688308175495222</v>
+        <v>0.3755954614318975</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3024987568826299</v>
+        <v>0.17616093433477423</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>0.05209969166036359</v>
+        <v>0.38829775230965063</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>0.20693032929132002</v>
+        <v>0.3894720478191721</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2616971756395784</v>
+        <v>0.26402111414287155</v>
       </c>
       <c r="D169" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>0.31165463225944706</v>
+        <v>0.18418994591048252</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C171" t="n">
-        <v>0.15458489696653363</v>
+        <v>0.2545556351001053</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C172" t="n">
-        <v>0.11519369272382005</v>
+        <v>0.35420183979201125</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3298348298126071</v>
+        <v>0.3985318982864828</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3524605946982547</v>
+        <v>0.30692167826147776</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2816972255358408</v>
+        <v>0.23094193674090552</v>
       </c>
       <c r="D175" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3702023411775061</v>
+        <v>0.1128466742488422</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2080319926505418</v>
+        <v>0.13275140529379598</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2492064383382708</v>
+        <v>0.39625241408523443</v>
       </c>
       <c r="D178" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3848220252128253</v>
+        <v>0.359075001378876</v>
       </c>
       <c r="D179" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>0.39197415594353646</v>
+        <v>0.3878067709270856</v>
       </c>
       <c r="D180" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>0.17419372779437847</v>
+        <v>0.09093355582110378</v>
       </c>
       <c r="D181" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3750856096026734</v>
+        <v>0.10664855394983778</v>
       </c>
       <c r="D182" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C183" t="n">
-        <v>0.24110792439779172</v>
+        <v>0.39819351610480597</v>
       </c>
       <c r="D183" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C184" t="n">
-        <v>0.264815158522381</v>
+        <v>0.37140285273181356</v>
       </c>
       <c r="D184" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C185" t="n">
-        <v>0.16347974843826865</v>
+        <v>0.2816246811809975</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3178117510730164</v>
+        <v>0.39775015179078954</v>
       </c>
       <c r="D186" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3967778147891401</v>
+        <v>0.258709505525905</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2495584415478686</v>
+        <v>0.2988241756762571</v>
       </c>
       <c r="D188" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C189" t="n">
-        <v>0.29454046163585795</v>
+        <v>0.3777724702434154</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3854423127225267</v>
+        <v>0.10156716073617686</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0.39539439721140063</v>
+        <v>0.22648176575068982</v>
       </c>
       <c r="D191" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3824837708294189</v>
+        <v>0.332793312451728</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C193" t="n">
-        <v>0.13372539937490566</v>
+        <v>0.39830236602314784</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2091928992348181</v>
+        <v>0.17865163074153334</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C195" t="n">
-        <v>0.14411310188559182</v>
+        <v>0.21013618612615217</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C196" t="n">
-        <v>0.18124046026871304</v>
+        <v>0.3003786354316296</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="B197" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3912838785808933</v>
+        <v>0.23606674874139782</v>
       </c>
       <c r="D197" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3720037901485744</v>
+        <v>0.3541243914048856</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3100929299268968</v>
+        <v>0.3471397754704466</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0355087739652332</v>
+        <v>0.31245991800970835</v>
       </c>
       <c r="D200" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C201" t="n">
-        <v>0.34902412255547255</v>
+        <v>0.22170034307135983</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.24622964775599496</v>
+        <v>0.20415839003579378</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203" t="n">
-        <v>0.23188300510483423</v>
+        <v>0.3767098960313443</v>
       </c>
       <c r="D203" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C204" t="n">
-        <v>0.37530282391385994</v>
+        <v>0.38871087907950314</v>
       </c>
       <c r="D204" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C205" t="n">
-        <v>0.39772192057640265</v>
+        <v>0.276660028046033</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>0.10820528693868711</v>
+        <v>0.025726226184671797</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>0.3200405130539738</v>
+        <v>0.33711913739082905</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C208" t="n">
-        <v>0.23522885160864154</v>
+        <v>0.3971778362148773</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>0.30975140223402436</v>
+        <v>0.3739374778264733</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
-        <v>0.3867171727748935</v>
+        <v>0.26899978722180323</v>
       </c>
       <c r="D210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C211" t="n">
-        <v>0.39211457608391154</v>
+        <v>0.2801894530193879</v>
       </c>
       <c r="D211" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3645065020929391</v>
+        <v>0.372199458316627</v>
       </c>
       <c r="D212" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B213" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2541700289215116</v>
+        <v>0.28795159515610375</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3880730174490118</v>
+        <v>0.3896248435341084</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>0.37113641916621753</v>
+        <v>0.24103507026651325</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="n">
-        <v>0.21564843270786146</v>
+        <v>0.38241983159419424</v>
       </c>
       <c r="D216" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C217" t="n">
-        <v>0.12893318609218232</v>
+        <v>0.3931165378692263</v>
       </c>
       <c r="D217" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3987123289102636</v>
+        <v>0.39885573124482826</v>
       </c>
       <c r="D218" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="B219" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C219" t="n">
-        <v>0.35724192628708357</v>
+        <v>0.3911083827016665</v>
       </c>
       <c r="D219" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="B220" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C220" t="n">
-        <v>0.345724964625362</v>
+        <v>0.3511656814071801</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C221" t="n">
-        <v>0.3931521454158465</v>
+        <v>0.13252689614186322</v>
       </c>
       <c r="D221" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>0.3974545700883164</v>
+        <v>0.346679080664829</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C223" t="n">
-        <v>0.012734474739986547</v>
+        <v>0.33628049710598495</v>
       </c>
       <c r="D223" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2612600483327794</v>
+        <v>0.35270837840382147</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C225" t="n">
-        <v>0.26609559052973486</v>
+        <v>0.37919899213697045</v>
       </c>
       <c r="D225" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>0.30869038994180414</v>
+        <v>0.3621103061094121</v>
       </c>
       <c r="D226" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C227" t="n">
-        <v>0.3092269671165254</v>
+        <v>0.3428324739845339</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3958306576561181</v>
+        <v>0.2238599430059865</v>
       </c>
       <c r="D228" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C229" t="n">
-        <v>0.32904975713502155</v>
+        <v>0.26496433643552714</v>
       </c>
       <c r="D229" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3489247573949849</v>
+        <v>0.29317576171181026</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C231" t="n">
-        <v>0.3405166023747413</v>
+        <v>0.20791295818266892</v>
       </c>
       <c r="D231" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C232" t="n">
-        <v>0.09294175368102087</v>
+        <v>0.3966666542668089</v>
       </c>
       <c r="D232" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3926982886387661</v>
+        <v>0.24343671948561083</v>
       </c>
       <c r="D233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234">
@@ -4305,13 +4269,13 @@
         <v>220</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C234" t="n">
-        <v>2.831288574163516E-4</v>
+        <v>0.028298943426445126</v>
       </c>
       <c r="D234" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -4319,13 +4283,13 @@
         <v>221</v>
       </c>
       <c r="B235" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.3172304348444616</v>
+      </c>
+      <c r="D235" t="s">
         <v>20</v>
-      </c>
-      <c r="C235" t="n">
-        <v>0.02642037663170835</v>
-      </c>
-      <c r="D235" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="236">
@@ -4333,276 +4297,276 @@
         <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C236" t="n">
-        <v>0.10582764362701046</v>
+        <v>0.26975491797725987</v>
       </c>
       <c r="D236" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C237" t="n">
-        <v>0.3255043485473311</v>
+        <v>0.3989353109091355</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="B238" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C238" t="n">
-        <v>0.3813395853858666</v>
+        <v>0.34761511127702027</v>
       </c>
       <c r="D238" t="s">
-        <v>225</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="B239" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C239" t="n">
-        <v>0.39385742643688826</v>
+        <v>0.3212949884819645</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3956262125065794</v>
+        <v>0.398866153439729</v>
       </c>
       <c r="D240" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C241" t="n">
-        <v>0.36273626563885364</v>
+        <v>0.328590943839947</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C242" t="n">
-        <v>0.00705086904592232</v>
+        <v>0.3611371773665567</v>
       </c>
       <c r="D242" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C243" t="n">
-        <v>0.3882519779475598</v>
+        <v>0.36313838797653264</v>
       </c>
       <c r="D243" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C244" t="n">
-        <v>0.27014700205382497</v>
+        <v>0.3934485030884703</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B245" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C245" t="n">
-        <v>0.3424342001693372</v>
+        <v>0.3418446104716209</v>
       </c>
       <c r="D245" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>0.34272603987260564</v>
+        <v>0.3988521070439833</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C247" t="n">
-        <v>0.3283021368162164</v>
+        <v>0.35450583968540145</v>
       </c>
       <c r="D247" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C248" t="n">
-        <v>0.38800795098959023</v>
+        <v>0.3655810387939554</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B249" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C249" t="n">
-        <v>0.3939627030945855</v>
+        <v>0.14693558741692023</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="B250" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C250" t="n">
-        <v>0.39780227031849963</v>
+        <v>0.241356802197306</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C251" t="n">
-        <v>0.24913047820342554</v>
+        <v>0.397199952681919</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>0.13684898236777396</v>
+        <v>0.39703079168885014</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3983278716190705</v>
+        <v>0.2704763612766179</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>0.007162256760162747</v>
+        <v>0.3785043775286892</v>
       </c>
       <c r="D254" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C255" t="n">
-        <v>0.17598473032205783</v>
+        <v>0.34608883816440733</v>
       </c>
       <c r="D255" t="s">
         <v>40</v>
@@ -4610,828 +4574,828 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B256" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C256" t="n">
-        <v>0.19420087181205495</v>
+        <v>0.33660975880759203</v>
       </c>
       <c r="D256" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C257" t="n">
-        <v>0.12768590162889515</v>
+        <v>0.22688309201313808</v>
       </c>
       <c r="D257" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C258" t="n">
-        <v>0.3938642788544729</v>
+        <v>0.38631733505097654</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C259" t="n">
-        <v>0.396094925514647</v>
+        <v>0.26000934158722094</v>
       </c>
       <c r="D259" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3987250664914158</v>
+        <v>0.36567829668843294</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C261" t="n">
-        <v>0.09777632722178863</v>
+        <v>0.39316413445337073</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C262" t="n">
-        <v>0.23145420930872587</v>
+        <v>0.2842493207650348</v>
       </c>
       <c r="D262" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1200950771965075</v>
+        <v>0.29333283791811793</v>
       </c>
       <c r="D263" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C264" t="n">
-        <v>0.19832101983053788</v>
+        <v>0.10165959870676373</v>
       </c>
       <c r="D264" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="n">
-        <v>0.26183200125700073</v>
+        <v>0.36224146325925843</v>
       </c>
       <c r="D265" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C266" t="n">
-        <v>0.3605004900030103</v>
+        <v>0.39803264632918794</v>
       </c>
       <c r="D266" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B267" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3163926298547677</v>
+        <v>0.3595820247308071</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="B268" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>0.3929740048081416</v>
+        <v>0.23790861762861445</v>
       </c>
       <c r="D268" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C269" t="n">
-        <v>0.18744781351267442</v>
+        <v>0.39894024399363914</v>
       </c>
       <c r="D269" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3984632571421772</v>
+        <v>0.34247783337284815</v>
       </c>
       <c r="D270" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C271" t="n">
-        <v>0.21713053715536731</v>
+        <v>0.16767205305415583</v>
       </c>
       <c r="D271" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C272" t="n">
-        <v>0.3545441473156727</v>
+        <v>0.32920519119980024</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C273" t="n">
-        <v>0.39523553317969723</v>
+        <v>0.3488487142071591</v>
       </c>
       <c r="D273" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B274" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C274" t="n">
-        <v>0.16540685804701008</v>
+        <v>0.16607362274435042</v>
       </c>
       <c r="D274" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3482653967431226</v>
+        <v>0.3853029185856632</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.36612709992599196</v>
+      </c>
+      <c r="D276" t="s">
         <v>20</v>
-      </c>
-      <c r="C276" t="n">
-        <v>0.11344369492305023</v>
-      </c>
-      <c r="D276" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B277" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
-        <v>0.05556223256239307</v>
+        <v>0.22489034627567947</v>
       </c>
       <c r="D277" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3972257575251572</v>
+        <v>0.04560179434645503</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B279" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C279" t="n">
-        <v>0.07926959784422934</v>
+        <v>0.10182219757851078</v>
       </c>
       <c r="D279" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C280" t="n">
-        <v>0.38773608612573535</v>
+        <v>0.3988299359966185</v>
       </c>
       <c r="D280" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C281" t="n">
-        <v>0.21527229885348773</v>
+        <v>0.39459743677129144</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C282" t="n">
-        <v>0.2839926031477259</v>
+        <v>0.2810884749876624</v>
       </c>
       <c r="D282" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>0.35876783402940565</v>
+        <v>0.3651681992832705</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B284" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1788757597982511</v>
+        <v>0.3156757568302287</v>
       </c>
       <c r="D284" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C285" t="n">
-        <v>0.32285173362304603</v>
+        <v>0.20373721908569947</v>
       </c>
       <c r="D285" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3982182009350527</v>
+        <v>0.2561742376006872</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C287" t="n">
-        <v>0.16576883136552484</v>
+        <v>0.2509327859948643</v>
       </c>
       <c r="D287" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.39427018842984357</v>
+      </c>
+      <c r="D288" t="s">
         <v>20</v>
-      </c>
-      <c r="C288" t="n">
-        <v>0.39091696650760793</v>
-      </c>
-      <c r="D288" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3445294721976974</v>
+        <v>0.39633088277388046</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B290" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C290" t="n">
-        <v>0.37824560582721317</v>
+        <v>0.2105094708354557</v>
       </c>
       <c r="D290" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>0.17417063091578147</v>
+        <v>0.10484230889027647</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C292" t="n">
-        <v>0.20898913771834365</v>
+        <v>0.3683011883154492</v>
       </c>
       <c r="D292" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C293" t="n">
-        <v>0.11454061160075081</v>
+        <v>0.028302657954982217</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C294" t="n">
-        <v>0.3705202462889326</v>
+        <v>0.3055037936598906</v>
       </c>
       <c r="D294" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3725114002194081</v>
+        <v>0.3224581010632711</v>
       </c>
       <c r="D295" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B296" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C296" t="n">
-        <v>0.3657317067463826</v>
+        <v>0.377607151160891</v>
       </c>
       <c r="D296" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C297" t="n">
-        <v>0.3785807830089136</v>
+        <v>0.3987126150015373</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C298" t="n">
-        <v>0.08639403151518825</v>
+        <v>0.39503576403613366</v>
       </c>
       <c r="D298" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B299" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C299" t="n">
-        <v>0.18411776584075307</v>
+        <v>0.36774119713859654</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B300" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C300" t="n">
-        <v>0.3326199356416992</v>
+        <v>0.15235890424913814</v>
       </c>
       <c r="D300" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1117250884829387</v>
+        <v>0.3822645596985496</v>
       </c>
       <c r="D301" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C302" t="n">
-        <v>0.37838013190494907</v>
+        <v>0.10590179763132462</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2442076187712517</v>
+        <v>0.30675820229168677</v>
       </c>
       <c r="D303" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3183942066201208</v>
+        <v>0.37022099580429924</v>
       </c>
       <c r="D304" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3469621220062786</v>
+        <v>0.34492573163245915</v>
       </c>
       <c r="D305" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C306" t="n">
-        <v>0.33735890389458245</v>
+        <v>0.2575996601418743</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C307" t="n">
-        <v>0.29662043437459457</v>
+        <v>0.35999463383911434</v>
       </c>
       <c r="D307" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C308" t="n">
-        <v>0.39851152393065203</v>
+        <v>0.23506822837332214</v>
       </c>
       <c r="D308" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
-        <v>0.39829024599342067</v>
+        <v>0.28821000176712613</v>
       </c>
       <c r="D309" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B310" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>0.38936538921168823</v>
+        <v>0.05710408468574776</v>
       </c>
       <c r="D310" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>155</v>
+        <v>278</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
-        <v>0.33144049028229</v>
+        <v>0.38916368697707865</v>
       </c>
       <c r="D311" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="B312" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C312" t="n">
-        <v>0.31526441566264096</v>
+        <v>0.04759855543772087</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3411566149433549</v>
+        <v>0.02601195519524633</v>
       </c>
       <c r="D313" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3959868476597162</v>
+        <v>0.3072031448637211</v>
       </c>
       <c r="D314" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315">
@@ -5439,657 +5403,657 @@
         <v>281</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3928932284850225</v>
+        <v>0.373090750718363</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="B316" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>0.24055006450043018</v>
+        <v>0.3897490009193919</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2794562716238358</v>
+        <v>0.3545962259528228</v>
       </c>
       <c r="D317" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="B318" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C318" t="n">
-        <v>0.39891056110381623</v>
+        <v>0.3884017621434618</v>
       </c>
       <c r="D318" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3886982828304348</v>
+        <v>0.37235549039528343</v>
       </c>
       <c r="D319" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="B320" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2794741882651861</v>
+        <v>0.1691454575420671</v>
       </c>
       <c r="D320" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B321" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C321" t="n">
-        <v>0.36963902630958423</v>
+        <v>0.10116268721747172</v>
       </c>
       <c r="D321" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C322" t="n">
-        <v>0.33591750284316557</v>
+        <v>0.3366307353344586</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="B323" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1930821986134566</v>
+        <v>0.27298233899615687</v>
       </c>
       <c r="D323" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="B324" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C324" t="n">
-        <v>0.3849892213878453</v>
+        <v>0.13236221547618995</v>
       </c>
       <c r="D324" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>292</v>
+        <v>165</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C325" t="n">
-        <v>0.35405677388354706</v>
+        <v>0.2780841426952964</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1480496888387977</v>
+        <v>0.3978532283436642</v>
       </c>
       <c r="D326" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C327" t="n">
-        <v>0.23761050070455617</v>
+        <v>0.33033499175380804</v>
       </c>
       <c r="D327" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>0.3675063716984369</v>
+        <v>0.09391169015562216</v>
       </c>
       <c r="D328" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.19967757563095914</v>
+      </c>
+      <c r="D329" t="s">
         <v>20</v>
-      </c>
-      <c r="C329" t="n">
-        <v>0.3384796433968519</v>
-      </c>
-      <c r="D329" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C330" t="n">
-        <v>0.295658252124229</v>
+        <v>0.23835623271663026</v>
       </c>
       <c r="D330" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C331" t="n">
-        <v>0.39818939359830136</v>
+        <v>0.3472310740216356</v>
       </c>
       <c r="D331" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1526493273681176</v>
+        <v>0.05292305479486137</v>
       </c>
       <c r="D332" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B333" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3923055445777632</v>
+        <v>0.3178253083925791</v>
       </c>
       <c r="D333" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C334" t="n">
-        <v>0.39726728931568556</v>
+        <v>0.1287783832257158</v>
       </c>
       <c r="D334" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0032536285687499995</v>
+        <v>0.2012458747860203</v>
       </c>
       <c r="D335" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>0.28755419339131544</v>
+        <v>0.23864474143523132</v>
       </c>
       <c r="D336" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C337" t="n">
-        <v>0.17977243765348813</v>
+        <v>0.047024470418323173</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2827724403360532</v>
+        <v>0.3551498471327813</v>
       </c>
       <c r="D338" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C339" t="n">
-        <v>0.36901576812834386</v>
+        <v>0.3695572427437228</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C340" t="n">
-        <v>0.2839387116690944</v>
+        <v>0.37953064734173186</v>
       </c>
       <c r="D340" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C341" t="n">
-        <v>0.04900069258550848</v>
+        <v>0.15002498559488225</v>
       </c>
       <c r="D341" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>0.26547495161237</v>
+        <v>0.33767636784454924</v>
       </c>
       <c r="D342" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3296261376320652</v>
+        <v>0.033014705821687876</v>
       </c>
       <c r="D343" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2019749065424976</v>
+        <v>0.3217451014673182</v>
       </c>
       <c r="D344" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C345" t="n">
-        <v>0.09803489007751122</v>
+        <v>0.3467696304075025</v>
       </c>
       <c r="D345" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C346" t="n">
-        <v>0.35625974948644107</v>
+        <v>0.3116686576800771</v>
       </c>
       <c r="D346" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="B347" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C347" t="n">
-        <v>0.39816019941379094</v>
+        <v>0.39844495046890266</v>
       </c>
       <c r="D347" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.3350258771413477</v>
+      </c>
+      <c r="D348" t="s">
         <v>20</v>
-      </c>
-      <c r="C348" t="n">
-        <v>0.23035580846272435</v>
-      </c>
-      <c r="D348" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C349" t="n">
-        <v>0.30893991306879787</v>
+        <v>0.2910942611288223</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3686888436655205</v>
+        <v>0.17833878896409677</v>
       </c>
       <c r="D350" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C351" t="n">
-        <v>0.3659742904445601</v>
+        <v>0.249499359330495</v>
       </c>
       <c r="D351" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>313</v>
+        <v>93</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C352" t="n">
-        <v>0.3956494212846519</v>
+        <v>0.1949653201054568</v>
       </c>
       <c r="D352" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C353" t="n">
-        <v>0.3976592436280156</v>
+        <v>0.3988839193108379</v>
       </c>
       <c r="D353" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>0.13345004831954815</v>
+        <v>0.3923843830438659</v>
       </c>
       <c r="D354" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>316</v>
+        <v>93</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C355" t="n">
-        <v>0.386971627466014</v>
+        <v>0.3973327190849949</v>
       </c>
       <c r="D355" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3874957396638866</v>
+        <v>0.2979356088877329</v>
       </c>
       <c r="D356" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B357" t="s">
+        <v>10</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2230714705130286</v>
+      </c>
+      <c r="D357" t="s">
         <v>20</v>
-      </c>
-      <c r="C357" t="n">
-        <v>0.3988781939636004</v>
-      </c>
-      <c r="D357" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>0.09673028134019515</v>
+        <v>0.26920020680163587</v>
       </c>
       <c r="D358" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C359" t="n">
-        <v>0.3980555174691822</v>
+        <v>0.398938955501583</v>
       </c>
       <c r="D359" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>320</v>
+        <v>166</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C360" t="n">
-        <v>0.3154686557196941</v>
+        <v>0.36731053591509116</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2613378031949531</v>
+        <v>0.09784885360809636</v>
       </c>
       <c r="D361" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis240.xlsx
+++ b/Analysis240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="314">
   <si>
     <t>Research Activity</t>
   </si>
@@ -26,895 +26,934 @@
     <t>Percentage Distribution</t>
   </si>
   <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>waging a secret war</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>0.13%</t>
+  </si>
+  <si>
+    <t>selling cosmetics</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>promoting liberalism</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>plotting strategies</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>smoking cigars</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>cooking the books</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>writing novels</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>studying genetics</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>cheating at golf</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>talking up the economy</t>
+  </si>
+  <si>
+    <t>0.50%</t>
+  </si>
+  <si>
+    <t>playing the banjo</t>
+  </si>
+  <si>
+    <t>making madcap comedies</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>creating monsters</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>starring in TV shows</t>
+  </si>
+  <si>
+    <t>playing drums</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>having meltdowns in public</t>
+  </si>
+  <si>
+    <t>causing political scandals</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>keeping accounts</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>pouting on camera</t>
+  </si>
+  <si>
+    <t>promoting liberal values</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>popping Viagra</t>
+  </si>
+  <si>
+    <t>going slowly mad</t>
+  </si>
+  <si>
+    <t>promoting mysticism</t>
+  </si>
+  <si>
+    <t>running a hotel</t>
+  </si>
+  <si>
+    <t>hacking into computers</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>promoting pacifism</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>smoking Silk Cut cigarettes</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>launching a war</t>
+  </si>
+  <si>
+    <t>handing out flowers</t>
+  </si>
+  <si>
+    <t>telling zany jokes</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>making sarcastic remarks</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>fighting decepticons</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>appreciating vintage collectibles</t>
+  </si>
+  <si>
+    <t>looking for hidden treasures</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators</t>
+  </si>
+  <si>
+    <t>fighting in gladiator arenas</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>writing Hollywood movies</t>
+  </si>
+  <si>
+    <t>defending plaintiffs</t>
+  </si>
+  <si>
+    <t>studying symbols</t>
+  </si>
+  <si>
+    <t>practicing the Occult</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>giving noogies</t>
+  </si>
+  <si>
+    <t>writing polemics</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>laughing at God</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>forging art</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>hunting demons</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>impersonating women</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>stabbing in the back</t>
+  </si>
+  <si>
+    <t>writing historical fiction</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>healing the sick</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>making patronising comments</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>stealing hamburgers</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>planning adultery</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>playing ice hockey</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>burning with envy</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>offering bad advice</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>writing romantic poetry</t>
+  </si>
+  <si>
+    <t>promoting boxing fights</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>fomenting social revolution</t>
+  </si>
+  <si>
+    <t>poisoning an apple</t>
+  </si>
+  <si>
+    <t>going bowling</t>
+  </si>
+  <si>
+    <t>pulling pranks</t>
+  </si>
+  <si>
+    <t>abusing power</t>
+  </si>
+  <si>
+    <t>hosting anodyne game shows</t>
+  </si>
+  <si>
+    <t>painting self-portraits</t>
+  </si>
+  <si>
+    <t>reading minds</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>eluding Republicans</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways</t>
+  </si>
+  <si>
     <t>plotting against family members</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>deep-frying chicken</t>
-  </si>
-  <si>
-    <t>0.25%</t>
+    <t>ranting about conservatives</t>
+  </si>
+  <si>
+    <t>collecting pirate booty</t>
+  </si>
+  <si>
+    <t>playing poker badly</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>surviving fatwas</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>running for the presidency</t>
+  </si>
+  <si>
+    <t>treating diseases</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>playing the organ</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>squabbling on television</t>
+  </si>
+  <si>
+    <t>studying magic</t>
+  </si>
+  <si>
+    <t>0.71%</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
   </si>
   <si>
     <t>starring in indy movies</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>writing rap songs</t>
-  </si>
-  <si>
-    <t>0.00%</t>
+    <t>planning tank battles</t>
   </si>
   <si>
     <t>starting thunderstorms</t>
   </si>
   <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>writing Russian novels</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
+    <t>complaining about life</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>directing movies</t>
+  </si>
+  <si>
+    <t>starring in animated movies</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>belching</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>following clues</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>swinging on a perch</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>seducing miltary officers</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>whining at umpires</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>appearing in infomercials</t>
+  </si>
+  <si>
+    <t>pushing anti-trust legislation</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>reading braille</t>
+  </si>
+  <si>
+    <t>promoting air travel</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>studying icons</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>opening a new front</t>
+  </si>
+  <si>
+    <t>testing scientific theories</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>saying grace</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>singing the blues</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>eating the inedible</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>hosting educational films</t>
+  </si>
+  <si>
+    <t>developing operating systems</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies</t>
+  </si>
+  <si>
+    <t>running a new-age website</t>
+  </si>
+  <si>
+    <t>teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>driving fast cars</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>tempting fate</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>killing for Mi6</t>
+  </si>
+  <si>
+    <t>promoting charity</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>ordering wire-taps</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>directing comedies</t>
   </si>
   <si>
     <t>promoting conservative values</t>
   </si>
   <si>
-    <t>shagging spies</t>
-  </si>
-  <si>
-    <t>performing stand-up</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>0.08%</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>planning tank battles</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>going slowly mad</t>
-  </si>
-  <si>
-    <t>disciplining students</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>fighting barbarian hordes</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>making provocative documentaries</t>
-  </si>
-  <si>
-    <t>directing action movies</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>studying the cosmos</t>
-  </si>
-  <si>
-    <t>pushing haute couture</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>selling kitsch</t>
-  </si>
-  <si>
-    <t>tilting at windmills</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>0.50%</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>promoting boxing fights</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>making racist jibes</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>making prank calls</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>going for a spacewalk</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>raging against the machine</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>saying grace</t>
-  </si>
-  <si>
-    <t>writing romantic fiction</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>collecting fossils</t>
-  </si>
-  <si>
-    <t>0.71%</t>
-  </si>
-  <si>
-    <t>painting soup cans</t>
-  </si>
-  <si>
-    <t>playing pop music</t>
-  </si>
-  <si>
-    <t>piquing public interest</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>casting magic spells</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>chasing jellyfish</t>
-  </si>
-  <si>
-    <t>selling tickets</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>instilling fear in the enemy</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>producing Hipbop records</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>over-achieving at school</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>practicing the Occult</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>writing romantic poetry</t>
-  </si>
-  <si>
-    <t>swinging on a perch</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>slapping soldiers</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>selling self-help books</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies</t>
-  </si>
-  <si>
-    <t>hosting educational films</t>
-  </si>
-  <si>
-    <t>spying for the CIA</t>
-  </si>
-  <si>
-    <t>squabbling on television</t>
-  </si>
-  <si>
-    <t>escaping from handcuffs</t>
-  </si>
-  <si>
-    <t>campaigning for the senate</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>rooting out spies</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>monetizing physical assets</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>piloting the lunar module</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>meddling in the dark arts</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>painting realistic pictures</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>teaching magic</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>enjoying money</t>
-  </si>
-  <si>
-    <t>fighting for the resistance</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
-  </si>
-  <si>
-    <t>following clues</t>
-  </si>
-  <si>
-    <t>eluding Republicans</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>performing street magic</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>smoking during recess</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>reading self-help books</t>
-  </si>
-  <si>
     <t>going on commando missions</t>
   </si>
   <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>fighting for liberty</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>drinking one's life away</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>selling fried chicken</t>
-  </si>
-  <si>
-    <t>mangling idioms</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>starring in kung-fu movies</t>
-  </si>
-  <si>
-    <t>digging for antiquities</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>promoting Buddhism</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>dating supermodels</t>
-  </si>
-  <si>
-    <t>gurning for the camera</t>
-  </si>
-  <si>
-    <t>singing punk rock songs</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>painting folksy pictures</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>pretending to fight</t>
   </si>
   <si>
     <t>incurring debts</t>
   </si>
   <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>writing science fiction</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>writing serialized stories</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>collecting pirate booty</t>
-  </si>
-  <si>
-    <t>diagnosing diseases</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>drinking White Russians</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>sucking blood</t>
-  </si>
-  <si>
-    <t>pouting on camera</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>partying on yachts</t>
-  </si>
-  <si>
-    <t>driving around America</t>
-  </si>
-  <si>
-    <t>planting daffodils</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>designing computer systems</t>
-  </si>
-  <si>
-    <t>promoting healthy eating</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>recruiting disaffected youths</t>
-  </si>
-  <si>
-    <t>selling cosmetics</t>
-  </si>
-  <si>
-    <t>planning confidence tricks</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>directing robot movies</t>
-  </si>
-  <si>
-    <t>preparing for the apocalypse</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars</t>
-  </si>
-  <si>
-    <t>apprehending criminals</t>
-  </si>
-  <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>painting self-portraits</t>
-  </si>
-  <si>
-    <t>defending the innocent</t>
-  </si>
-  <si>
-    <t>trimming bushes</t>
-  </si>
-  <si>
-    <t>painting over photographs</t>
-  </si>
-  <si>
-    <t>giving to the poor</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism</t>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>seducing kings</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>playing pranks</t>
-  </si>
-  <si>
-    <t>writing in ledgers</t>
-  </si>
-  <si>
-    <t>investing in real estate</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs</t>
-  </si>
-  <si>
-    <t>making money</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>prowling for dinner</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>planning orgies</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>wisecracking</t>
-  </si>
-  <si>
-    <t>playing quidditch</t>
-  </si>
-  <si>
-    <t>preparing for war</t>
-  </si>
-  <si>
-    <t>making soap</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>plotting terrorist outrages</t>
-  </si>
-  <si>
-    <t>entertaining teenagers</t>
-  </si>
-  <si>
-    <t>expressing violent urges</t>
-  </si>
-  <si>
-    <t>writing political satires</t>
-  </si>
-  <si>
-    <t>creating monsters</t>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
   </si>
   <si>
     <t>over-acting</t>
   </si>
   <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>offering bad advice</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>running a bureaucracy</t>
-  </si>
-  <si>
-    <t>promoting humanism</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>promoting mysticism</t>
-  </si>
-  <si>
-    <t>waging a secret war</t>
-  </si>
-  <si>
-    <t>attending cotillion balls</t>
+    <t>running theme parks</t>
   </si>
   <si>
     <t>modeling DNA</t>
   </si>
   <si>
-    <t>blowing bubbles</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>drinking too much red wine</t>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>buying on credit</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>hitting home runs</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.39894209505223055</v>
+        <v>0.38819651058810195</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1011,111 +1050,111 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10987792746970337</v>
+        <v>0.19339096075809167</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3500037883313924</v>
+        <v>0.12108220108980297</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21915566895217004</v>
+        <v>0.3978873823774408</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03733836853978669</v>
+        <v>0.1336227581991291</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3844734229029676</v>
+        <v>0.004423691276894252</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06611180542506043</v>
+        <v>0.058472871347718336</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3645619942707654</v>
+        <v>0.2133439561103877</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.39496524792709536</v>
+        <v>0.27460390155989645</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1123,433 +1162,433 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3986681997357084</v>
+        <v>0.3978940867337881</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>0.39008229914033843</v>
+        <v>0.3503813612736829</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3243143219881969</v>
+        <v>0.39811932863601246</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3817550697332298</v>
+        <v>0.2540470104559288</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2907267864731147</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.39353458981013184</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.39863284313203723</v>
+        <v>0.2958590901267795</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3368492800045557</v>
+        <v>0.22640442052687415</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>0.29182616115668936</v>
+        <v>0.28747600141760865</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10793196488243381</v>
+        <v>0.2827102015455811</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2941588542672865</v>
+        <v>0.3826465564754269</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3532625148676939</v>
+        <v>0.35046092429386383</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3976681364847333</v>
+        <v>0.31078496440199527</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13827122016531265</v>
+        <v>0.20351466328990683</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>0.15115612197756062</v>
+        <v>0.39016709866811994</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3262472325855802</v>
+        <v>0.35361949827544026</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25016183630815503</v>
+        <v>0.19192113164387625</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2189775911559689</v>
+        <v>0.2124177723830217</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3955410759618467</v>
+        <v>0.2978595552586799</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1363468437553573</v>
+        <v>0.3902339471368629</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3924837264850996</v>
+      </c>
+      <c r="D30" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.061387042801558565</v>
-      </c>
-      <c r="D30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3976523566415995</v>
+        <v>0.27838747913992484</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>0.30766963161268635</v>
+        <v>0.28615698705241505</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24941034249700475</v>
+        <v>0.3959024393372592</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3557235460548936</v>
+        <v>0.0983495701359705</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2828493377336583</v>
+        <v>0.39249939569310044</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3418700650698444</v>
+        <v>0.22664910178949713</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3517908735276046</v>
+        <v>0.3856441591607359</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3489841391928745</v>
+        <v>0.3927619059205057</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3982575091298457</v>
+        <v>0.28670844919688265</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.34746519531882225</v>
+        <v>0.37402835101290366</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.36928562495082823</v>
+        <v>0.14158312175379034</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1557,13 +1596,13 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3453193571763706</v>
+        <v>0.3986188683229807</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1571,10 +1610,10 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04348243285233723</v>
+        <v>0.2918677432890795</v>
       </c>
       <c r="D43" t="s">
         <v>60</v>
@@ -1585,52 +1624,52 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31374521868512695</v>
+        <v>0.0507824175786649</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32201923820742634</v>
+        <v>0.3852609512271307</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2787349917651147</v>
+        <v>0.3950613645931603</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3754009861710296</v>
+        <v>0.24368137547982596</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1641,13 +1680,13 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3585805822634582</v>
+        <v>0.398867814106271</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -1655,13 +1694,13 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2853508905076533</v>
+        <v>0.3969530301399094</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -1669,13 +1708,13 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3946413380593774</v>
+        <v>0.3281048499042688</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1683,13 +1722,13 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3447638009416166</v>
+        <v>0.39668827000308193</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1697,13 +1736,13 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3946564065383821</v>
+        <v>0.34694540471036606</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -1711,13 +1750,13 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C53" t="n">
-        <v>0.398030953173762</v>
+        <v>0.3988266205132516</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -1725,153 +1764,153 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.34944607854654897</v>
+        <v>0.2693693997360712</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07327725915021278</v>
+        <v>0.12835570072364902</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>0.24069294871857874</v>
+        <v>0.3718461869263113</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>0.031670147736852144</v>
+        <v>0.11720777248469179</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>0.39351033115222567</v>
+        <v>0.3732875040607454</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3505611521148386</v>
+        <v>0.32963761621184945</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3779332912105294</v>
+        <v>0.1821615996293275</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C61" t="n">
-        <v>0.15900208817449363</v>
+        <v>0.3985494915711685</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3760368013029678</v>
+        <v>0.2137885570098214</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>0.055125731688016835</v>
+        <v>0.36177160608773895</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.21397566822945754</v>
+        <v>0.13707034530428067</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -1879,13 +1918,13 @@
         <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09708704182620762</v>
+        <v>0.32250045133682487</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -1893,27 +1932,27 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21930030578743823</v>
+        <v>0.3972559112946227</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37718412259403566</v>
+        <v>0.39599827438800084</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68">
@@ -1921,13 +1960,13 @@
         <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3944160448789438</v>
+        <v>0.20210517388753185</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1935,13 +1974,13 @@
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>0.39026395117747226</v>
+        <v>0.00676143149347396</v>
       </c>
       <c r="D69" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1952,10 +1991,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>0.21449467337436184</v>
+        <v>0.3674432843530793</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
@@ -1966,10 +2005,10 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.12787085011172453</v>
+        <v>0.25943791444158215</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -1977,13 +2016,13 @@
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2995294137836146</v>
+        <v>0.33023457082861496</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1991,13 +2030,13 @@
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>0.201587458293492</v>
+        <v>0.39677063442887545</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
@@ -2005,13 +2044,13 @@
         <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04805011059101724</v>
+        <v>0.391703692721504</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -2019,332 +2058,332 @@
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>0.37862072641069666</v>
+        <v>0.11604737255068162</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.005393320607577177</v>
+        <v>0.3891451340548748</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3307678030489076</v>
+        <v>0.39646602782058715</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>0.38116999087928755</v>
+        <v>0.2020991893360536</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>0.33682530085438017</v>
+        <v>0.21749835041928228</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C80" t="n">
-        <v>0.17384773724069766</v>
+        <v>0.3651198996690311</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>0.39369302884663526</v>
+        <v>0.17915864435763312</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3988868836130391</v>
+        <v>0.18495204283994499</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>0.33174190925746144</v>
+        <v>0.34472877876382413</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0.19548746435274464</v>
+        <v>0.3862841840644489</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.30147264443173877</v>
+        <v>0.3879095661990921</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>0.39367261390813363</v>
+        <v>0.19282763735955588</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1552555144664791</v>
+        <v>0.1834552388057722</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>0.398127749149127</v>
+        <v>0.15134031643241705</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3742749830593635</v>
+        <v>0.16267076586448215</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>0.33901980233188067</v>
+        <v>0.3981494330077952</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06120494027121386</v>
+        <v>0.37567108515870073</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3911473803183099</v>
+        <v>0.12221739709094326</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3072879657923465</v>
+        <v>0.2981683767665945</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2222407269301758</v>
+        <v>0.25785880595306687</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09221214910347454</v>
+        <v>0.15411849592195911</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2936129862481114</v>
+        <v>0.36002663804630003</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>0.13086715493058726</v>
+        <v>0.3172833566457741</v>
       </c>
       <c r="D97" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>0.37970241626625345</v>
+        <v>0.29680535814649023</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
@@ -2352,44 +2391,44 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C99" t="n">
-        <v>0.145028850862542</v>
+        <v>0.3150702894052492</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>0.18781981876097711</v>
+        <v>0.38830354757014435</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
-        <v>0.391269176499541</v>
+        <v>0.3244770015923186</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -2397,13 +2436,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3723006376078466</v>
+        <v>0.33425839426267734</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
@@ -2411,13 +2450,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24469535150382055</v>
+        <v>0.39870102430500975</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -2425,13 +2464,13 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>0.20202694337554333</v>
+        <v>0.2476534957960299</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2439,41 +2478,41 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>0.29462194961708404</v>
+        <v>0.397050893935985</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="n">
-        <v>0.36363826330062077</v>
+        <v>0.24210641956244464</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3129081842901177</v>
+        <v>0.25455465481481676</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -2481,13 +2520,13 @@
         <v>121</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.292637824571262</v>
+        <v>0.38042741466019964</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
@@ -2495,52 +2534,52 @@
         <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C109" t="n">
-        <v>0.08718942960260137</v>
+        <v>0.17820565611150532</v>
       </c>
       <c r="D109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C110" t="n">
-        <v>0.38221347311071924</v>
+        <v>0.20743011467402744</v>
       </c>
       <c r="D110" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.396774711088732</v>
+        <v>0.3971616939357812</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3710398337443734</v>
+        <v>0.34186328049232595</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
@@ -2548,72 +2587,72 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>0.041581167827919</v>
+        <v>0.36562101145093406</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3930086043688496</v>
+        <v>0.39806992056829726</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C115" t="n">
-        <v>0.22428745409666218</v>
+        <v>0.3424403516881347</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.23540606526638122</v>
+        <v>0.33680227721032324</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>0.37788973139744064</v>
+        <v>0.39744931118086085</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -2621,13 +2660,13 @@
         <v>129</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3257695791776933</v>
+        <v>0.3928901784170404</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -2635,13 +2674,13 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
-        <v>0.38850447625243184</v>
+        <v>0.3230785151519942</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -2649,13 +2688,13 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.26120183446830386</v>
+        <v>0.3912448240650512</v>
       </c>
       <c r="D120" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
@@ -2663,13 +2702,13 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3365282443763753</v>
+        <v>0.1065455093021165</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2677,41 +2716,41 @@
         <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>0.31443570784497304</v>
+        <v>0.19415225418626747</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C123" t="n">
-        <v>0.39048982558460377</v>
+        <v>0.305775792756528</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="n">
-        <v>0.07988332574314551</v>
+        <v>0.3527478307030268</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
@@ -2719,181 +2758,181 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>0.38658817765504755</v>
+        <v>0.13474522580022902</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C126" t="n">
-        <v>0.39033945680398585</v>
+        <v>0.39004504000550216</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C127" t="n">
-        <v>0.35944308529314284</v>
+        <v>0.28059756823041565</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>0.39264868602332603</v>
+        <v>0.20255276291894125</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3000696056999254</v>
+        <v>0.39225234923272734</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C130" t="n">
-        <v>0.10041446401245326</v>
+        <v>0.09372328729507681</v>
       </c>
       <c r="D130" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24198982486602358</v>
+        <v>0.37945518990141364</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C132" t="n">
-        <v>0.39227734667496045</v>
+        <v>0.0031134046083636777</v>
       </c>
       <c r="D132" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>0.37958485071631376</v>
+        <v>0.3882910828543087</v>
       </c>
       <c r="D133" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3841247846324716</v>
+        <v>0.03279179834463026</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3354589159022553</v>
+        <v>0.3133389156225742</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3476829869978886</v>
+        <v>0.3358933821912506</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>0.33248248133633634</v>
+        <v>0.37179219376548633</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
@@ -2901,13 +2940,13 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="n">
-        <v>0.251161017219888</v>
+        <v>0.13240377954529284</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -2915,13 +2954,13 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C139" t="n">
-        <v>0.14029632890393973</v>
+        <v>0.3293352692484185</v>
       </c>
       <c r="D139" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -2929,10 +2968,10 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C140" t="n">
-        <v>0.39305388046805817</v>
+        <v>0.2795776961783209</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
@@ -2943,83 +2982,83 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35240864659025095</v>
+        <v>0.38756732875975675</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
-        <v>0.35763250821268316</v>
+        <v>0.22792379186444384</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C143" t="n">
-        <v>0.39513177447316533</v>
+        <v>0.37376387958417273</v>
       </c>
       <c r="D143" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C144" t="n">
-        <v>0.22711417196924416</v>
+        <v>0.38641321066653617</v>
       </c>
       <c r="D144" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C145" t="n">
-        <v>0.34817575668845296</v>
+        <v>0.27117129832157155</v>
       </c>
       <c r="D145" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2625744525643743</v>
+        <v>0.17837245844866126</v>
       </c>
       <c r="D146" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
@@ -3027,13 +3066,13 @@
         <v>154</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2263693639738311</v>
+        <v>0.38148926543769685</v>
       </c>
       <c r="D147" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -3041,181 +3080,181 @@
         <v>155</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3860836881895973</v>
+        <v>0.2629192407841062</v>
       </c>
       <c r="D148" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>0.26525294535818955</v>
+        <v>0.21914226564737602</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>0.38985785862458955</v>
+        <v>0.09318080101755528</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>0.39869686072285276</v>
+        <v>0.3458170591009983</v>
       </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2207586623999969</v>
+        <v>0.154904038459888</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>0.10588529706247707</v>
+        <v>0.2826475623311935</v>
       </c>
       <c r="D153" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C154" t="n">
-        <v>0.39760424272028666</v>
+        <v>0.10089004865429026</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1644666321963593</v>
+        <v>0.16755959913309212</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C156" t="n">
-        <v>0.04004421772961964</v>
+        <v>0.15778266677093564</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3972748899922823</v>
+        <v>0.32647229561796026</v>
       </c>
       <c r="D157" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>0.08474481483371792</v>
+        <v>0.381102138772461</v>
       </c>
       <c r="D158" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2814318444550098</v>
+        <v>0.298538449806753</v>
       </c>
       <c r="D159" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>0.19435494627927236</v>
+        <v>0.3847558242524137</v>
       </c>
       <c r="D160" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -3223,13 +3262,13 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0055692798717906136</v>
+        <v>0.06831530604642824</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -3237,195 +3276,195 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C162" t="n">
-        <v>0.31807303945809445</v>
+        <v>0.39537975796823094</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
       <c r="C163" t="n">
-        <v>0.37443458768235377</v>
+        <v>0.06405561207730799</v>
       </c>
       <c r="D163" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3632640999691868</v>
+        <v>0.36048787431062695</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>0.28740026625350795</v>
+        <v>0.37855797382798984</v>
       </c>
       <c r="D165" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3958668237556644</v>
+        <v>0.31266737829512276</v>
       </c>
       <c r="D166" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>0.381102416339196</v>
+        <v>0.2176921926050919</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>0.09693505668200933</v>
+        <v>0.3629087697667023</v>
       </c>
       <c r="D168" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3650065829610609</v>
+        <v>0.3947464455215577</v>
       </c>
       <c r="D169" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="n">
-        <v>0.15710552041679554</v>
+        <v>0.39848242906110753</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3272111452982254</v>
+        <v>0.14410318713433856</v>
       </c>
       <c r="D171" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2452517772910066</v>
+        <v>0.38801045924363126</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C173" t="n">
-        <v>0.35156713766754</v>
+        <v>0.1310981249665484</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3224443795860546</v>
+        <v>0.34905360567722277</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C175" t="n">
-        <v>0.12847672608448157</v>
+        <v>0.3984844879989047</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176">
@@ -3433,13 +3472,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
-        <v>0.17133398881616732</v>
+        <v>0.35752859601594184</v>
       </c>
       <c r="D176" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177">
@@ -3447,13 +3486,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>0.33133999611904985</v>
+        <v>0.29588547753005257</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178">
@@ -3461,13 +3500,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C178" t="n">
-        <v>0.39644827040627423</v>
+        <v>0.13287272662055588</v>
       </c>
       <c r="D178" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
@@ -3475,167 +3514,167 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>0.31405750872513727</v>
+        <v>0.21137407453793616</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3829798688050495</v>
+        <v>0.3870513304289024</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3355255300332757</v>
+        <v>0.3367245189085192</v>
       </c>
       <c r="D181" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
-        <v>0.39819104849955117</v>
+        <v>0.3422125477603844</v>
       </c>
       <c r="D182" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>0.33539811703478367</v>
+        <v>0.3970733448816487</v>
       </c>
       <c r="D183" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2548738190522712</v>
+        <v>0.38251545015433464</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>0.04744759300913719</v>
+        <v>0.3883979933950158</v>
       </c>
       <c r="D185" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="n">
-        <v>0.11034888067457037</v>
+        <v>0.18349106933314238</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C187" t="n">
-        <v>0.39890442266094045</v>
+        <v>0.2503794146963815</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>0.24655955295229803</v>
+        <v>0.07152911625432637</v>
       </c>
       <c r="D188" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C189" t="n">
-        <v>0.014302649775133557</v>
+        <v>0.09981205023095259</v>
       </c>
       <c r="D189" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3353341166752668</v>
+        <v>0.3743038952203675</v>
       </c>
       <c r="D190" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191">
@@ -3643,69 +3682,69 @@
         <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C191" t="n">
-        <v>0.23556197187655514</v>
+        <v>0.20582740138887312</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2971382231124768</v>
+        <v>0.337541664050936</v>
       </c>
       <c r="D192" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>0.26751896191751573</v>
+        <v>0.33187889612519517</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C194" t="n">
-        <v>0.3299353197630271</v>
+        <v>0.3158552763826025</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="B195" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C195" t="n">
-        <v>0.34915324433673206</v>
+        <v>0.31829756960696826</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196">
@@ -3713,94 +3752,94 @@
         <v>191</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C196" t="n">
-        <v>0.2772685392518052</v>
+        <v>0.14783474184154272</v>
       </c>
       <c r="D196" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3920733617319483</v>
+        <v>0.39825197912520116</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3857176438235816</v>
+        <v>0.3989099334969586</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3122886739872571</v>
+        <v>0.3803556524309781</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C200" t="n">
-        <v>0.36933114795998073</v>
+        <v>0.3047357870474268</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>0.38995675907437166</v>
+        <v>0.35207980223127433</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.05366045887030621</v>
+        <v>0.2288330852391031</v>
       </c>
       <c r="D202" t="s">
         <v>14</v>
@@ -3808,44 +3847,44 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>0.37522336769001335</v>
+        <v>0.3791773063679967</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C204" t="n">
-        <v>0.36219550817517004</v>
+        <v>0.3584033685967945</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C205" t="n">
-        <v>0.09381898343307547</v>
+        <v>0.398355212956967</v>
       </c>
       <c r="D205" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
@@ -3853,111 +3892,111 @@
         <v>199</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C206" t="n">
-        <v>0.3643186629595403</v>
+        <v>0.13137899070001477</v>
       </c>
       <c r="D206" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
-        <v>0.39775094096323316</v>
+        <v>0.3014586586666632</v>
       </c>
       <c r="D207" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B208" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C208" t="n">
-        <v>0.38664287288601573</v>
+        <v>0.38089043540632145</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>0.17690584758146144</v>
+        <v>0.3560144397257378</v>
       </c>
       <c r="D209" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="n">
-        <v>0.31512887993011596</v>
+        <v>0.3783327271339379</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>0.29816441587528636</v>
+        <v>0.30068932077778937</v>
       </c>
       <c r="D211" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="B212" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3424551043411169</v>
+        <v>0.18436986282128948</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C213" t="n">
-        <v>0.3972520332535263</v>
+        <v>0.17056550330120435</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
@@ -3968,231 +4007,231 @@
         <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>0.32323821567557653</v>
+        <v>0.16209293952923526</v>
       </c>
       <c r="D214" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="n">
-        <v>0.33420901553812216</v>
+        <v>0.14834885454446872</v>
       </c>
       <c r="D215" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C216" t="n">
-        <v>0.14560111209905188</v>
+        <v>0.0478656993890145</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3528364374253838</v>
+        <v>0.2790668596359376</v>
       </c>
       <c r="D217" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3897274895620035</v>
+        <v>0.23973801190337582</v>
       </c>
       <c r="D218" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C219" t="n">
-        <v>0.27294368070693154</v>
+        <v>0.28555324292736534</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B220" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C220" t="n">
-        <v>0.237811527544831</v>
+        <v>0.047830216442855074</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>0.232256797687524</v>
+        <v>0.39574821455253967</v>
       </c>
       <c r="D221" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1867056920310124</v>
+        <v>0.06037768855166861</v>
       </c>
       <c r="D222" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="n">
-        <v>0.18810216131189925</v>
+        <v>0.2727071091860728</v>
       </c>
       <c r="D223" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>0.30379858450611597</v>
+        <v>0.04026708392572747</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>0.39860816106911523</v>
+        <v>0.06449652556010262</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C226" t="n">
-        <v>0.07444092101203015</v>
+        <v>0.1865813969703298</v>
       </c>
       <c r="D226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>0.23934729837579957</v>
+        <v>0.21401238887409513</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C228" t="n">
-        <v>0.26517528477422614</v>
+        <v>0.395410860928848</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="n">
-        <v>0.29309467639166553</v>
+        <v>0.24311089188330773</v>
       </c>
       <c r="D229" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>0.39546227054187366</v>
+        <v>0.39653075336662214</v>
       </c>
       <c r="D230" t="s">
         <v>23</v>
@@ -4200,86 +4239,86 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C231" t="n">
-        <v>0.39714494580242754</v>
+        <v>0.2884536464228228</v>
       </c>
       <c r="D231" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B232" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3746238885697581</v>
+        <v>0.39857003634413257</v>
       </c>
       <c r="D232" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>0.17979722427913192</v>
+        <v>0.2893410380347921</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B234" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3721185415297299</v>
+        <v>0.3880748744707441</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
       <c r="C235" t="n">
-        <v>0.13020357720888195</v>
+        <v>0.37826520508006034</v>
       </c>
       <c r="D235" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C236" t="n">
-        <v>0.21311238726494744</v>
+        <v>0.12607152369538657</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -4287,122 +4326,122 @@
         <v>221</v>
       </c>
       <c r="B237" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>0.37713306967293997</v>
+        <v>0.295810335883726</v>
       </c>
       <c r="D237" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="B238" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>0.28661763788505956</v>
+        <v>0.03617576133597044</v>
       </c>
       <c r="D238" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="n">
-        <v>0.38900868644980857</v>
+        <v>0.12157206703209372</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="n">
-        <v>0.3988454760132292</v>
+        <v>0.36563658530430554</v>
       </c>
       <c r="D240" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3798459192053421</v>
+        <v>0.30136128965510683</v>
       </c>
       <c r="D241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C242" t="n">
-        <v>0.274317167224659</v>
+        <v>0.39829449132340033</v>
       </c>
       <c r="D242" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2624188422127242</v>
+        <v>0.23490963925778355</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C244" t="n">
-        <v>0.35939069611207336</v>
+        <v>0.2134949647303297</v>
       </c>
       <c r="D244" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B245" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C245" t="n">
-        <v>0.3985927118773282</v>
+        <v>0.27098319888172157</v>
       </c>
       <c r="D245" t="s">
         <v>16</v>
@@ -4410,58 +4449,58 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C246" t="n">
-        <v>0.11748505104933883</v>
+        <v>0.3116129954952016</v>
       </c>
       <c r="D246" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>0.059988509419343056</v>
+        <v>0.39031571861039743</v>
       </c>
       <c r="D247" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C248" t="n">
-        <v>0.33828536170790013</v>
+        <v>0.19472133403699474</v>
       </c>
       <c r="D248" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B249" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C249" t="n">
-        <v>0.34706224074018205</v>
+        <v>0.33042675825964635</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="250">
@@ -4469,13 +4508,13 @@
         <v>229</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="n">
-        <v>0.3499007957025086</v>
+        <v>0.17535674341808735</v>
       </c>
       <c r="D250" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251">
@@ -4483,206 +4522,206 @@
         <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="n">
-        <v>0.23548456279967456</v>
+        <v>0.2029004121418225</v>
       </c>
       <c r="D251" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2670371725926515</v>
+        <v>0.3894492489883758</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B253" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C253" t="n">
-        <v>0.3788676342092026</v>
+        <v>0.29283870829840103</v>
       </c>
       <c r="D253" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="B254" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C254" t="n">
-        <v>0.12743901772175806</v>
+        <v>0.39272405391664783</v>
       </c>
       <c r="D254" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="n">
-        <v>0.398375765274897</v>
+        <v>0.2894197645908095</v>
       </c>
       <c r="D255" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="n">
-        <v>0.3970980897207667</v>
+        <v>0.39838892214364907</v>
       </c>
       <c r="D256" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B257" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C257" t="n">
-        <v>0.39772944402913224</v>
+        <v>0.370480133657791</v>
       </c>
       <c r="D257" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="B258" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C258" t="n">
-        <v>0.10659005034710939</v>
+        <v>0.39212174060142113</v>
       </c>
       <c r="D258" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C259" t="n">
-        <v>0.3710438304074254</v>
+        <v>0.2900051209832458</v>
       </c>
       <c r="D259" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C260" t="n">
-        <v>0.3955751308029146</v>
+        <v>0.3920947710216339</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C261" t="n">
-        <v>0.31392517529569985</v>
+        <v>0.21197626424785737</v>
       </c>
       <c r="D261" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>0.29284334029963033</v>
+        <v>0.37666208115367306</v>
       </c>
       <c r="D262" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C263" t="n">
-        <v>0.3983631572002068</v>
+        <v>0.13983484795760645</v>
       </c>
       <c r="D263" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B264" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C264" t="n">
-        <v>0.32923449622809364</v>
+        <v>0.3971939412981259</v>
       </c>
       <c r="D264" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C265" t="n">
-        <v>0.32639857456605975</v>
+        <v>0.13345292693152913</v>
       </c>
       <c r="D265" t="s">
         <v>20</v>
@@ -4690,86 +4729,86 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C266" t="n">
-        <v>0.3955602888760338</v>
+        <v>0.39770591848778836</v>
       </c>
       <c r="D266" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>241</v>
+        <v>22</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="n">
-        <v>0.35514325802606506</v>
+        <v>0.23545065023375153</v>
       </c>
       <c r="D267" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B268" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C268" t="n">
-        <v>0.39483033001483786</v>
+        <v>0.2755097002906629</v>
       </c>
       <c r="D268" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="B269" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2524448473888039</v>
+        <v>0.2611183100645056</v>
       </c>
       <c r="D269" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C270" t="n">
-        <v>0.39719383196554664</v>
+        <v>0.34114453351724544</v>
       </c>
       <c r="D270" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="B271" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C271" t="n">
-        <v>0.3910949253105664</v>
+        <v>0.03757681421396837</v>
       </c>
       <c r="D271" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -4777,13 +4816,13 @@
         <v>244</v>
       </c>
       <c r="B272" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C272" t="n">
-        <v>0.20857199508070293</v>
+        <v>0.3883125806829828</v>
       </c>
       <c r="D272" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273">
@@ -4791,220 +4830,220 @@
         <v>245</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2412798294146611</v>
+        <v>0.3331243718806024</v>
       </c>
       <c r="D273" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C274" t="n">
-        <v>0.39852648689437087</v>
+        <v>0.3987184285456829</v>
       </c>
       <c r="D274" t="s">
-        <v>20</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C275" t="n">
-        <v>0.31829895126709</v>
+        <v>0.1120337586908816</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B276" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C276" t="n">
-        <v>0.36949142206914976</v>
+        <v>0.3487360624558657</v>
       </c>
       <c r="D276" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
-        <v>0.39586843920412024</v>
+        <v>0.11412123025624638</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>237</v>
+        <v>73</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3949275246163058</v>
+        <v>0.23483848599851953</v>
       </c>
       <c r="D278" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C279" t="n">
-        <v>0.3407265726069967</v>
+        <v>0.266982252321018</v>
       </c>
       <c r="D279" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C280" t="n">
-        <v>0.15344382411726915</v>
+        <v>0.33474341633955335</v>
       </c>
       <c r="D280" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B281" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C281" t="n">
-        <v>0.3077587434601893</v>
+        <v>0.3580376284480546</v>
       </c>
       <c r="D281" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="n">
-        <v>0.36148433275294345</v>
+        <v>0.347256861336952</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B283" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C283" t="n">
-        <v>0.23408007221236002</v>
+        <v>0.33186884219397517</v>
       </c>
       <c r="D283" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C284" t="n">
-        <v>0.20511535221305435</v>
+        <v>0.35373392810996296</v>
       </c>
       <c r="D284" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B285" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3954005975315765</v>
+        <v>0.2745803921427655</v>
       </c>
       <c r="D285" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C286" t="n">
-        <v>0.383190008215907</v>
+        <v>0.3835557943790894</v>
       </c>
       <c r="D286" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B287" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C287" t="n">
-        <v>0.2831043475904429</v>
+        <v>0.3348216729501297</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C288" t="n">
-        <v>0.3673659039886705</v>
+        <v>0.31420496727957065</v>
       </c>
       <c r="D288" t="s">
         <v>23</v>
@@ -5012,573 +5051,573 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B289" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C289" t="n">
-        <v>0.39196603310916767</v>
+        <v>0.28724675583917203</v>
       </c>
       <c r="D289" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B290" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C290" t="n">
-        <v>0.06311071936706276</v>
+        <v>0.3522368609133904</v>
       </c>
       <c r="D290" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C291" t="n">
-        <v>0.396115145999596</v>
+        <v>0.23137799457963967</v>
       </c>
       <c r="D291" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3387461240908353</v>
+        <v>0.15456335215798425</v>
       </c>
       <c r="D292" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C293" t="n">
-        <v>0.2230143388658326</v>
+        <v>0.3942929952424656</v>
       </c>
       <c r="D293" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1945815297442387</v>
+        <v>0.34825391108693715</v>
       </c>
       <c r="D294" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C295" t="n">
-        <v>0.341260715685402</v>
+        <v>0.2949367846348196</v>
       </c>
       <c r="D295" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="B296" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C296" t="n">
-        <v>0.17148680660812107</v>
+        <v>0.39879765945005463</v>
       </c>
       <c r="D296" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
       </c>
       <c r="C297" t="n">
-        <v>0.19440359044089617</v>
+        <v>0.39550801470019786</v>
       </c>
       <c r="D297" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C298" t="n">
-        <v>0.06157445075794453</v>
+        <v>0.39113496823115085</v>
       </c>
       <c r="D298" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3709777140052413</v>
+        <v>0.07727683174057647</v>
       </c>
       <c r="D299" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C300" t="n">
-        <v>0.20072476282007634</v>
+        <v>0.3497361070038752</v>
       </c>
       <c r="D300" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B301" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C301" t="n">
-        <v>0.35714350490821806</v>
+        <v>0.30160286048939133</v>
       </c>
       <c r="D301" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2489691880261307</v>
+        <v>0.3878325511200546</v>
       </c>
       <c r="D302" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C303" t="n">
-        <v>0.398769677173707</v>
+        <v>0.15872469468943493</v>
       </c>
       <c r="D303" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3977438154371064</v>
+        <v>0.35476165460240455</v>
       </c>
       <c r="D304" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3349084894036433</v>
+        <v>0.19052984730753417</v>
       </c>
       <c r="D305" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B306" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C306" t="n">
-        <v>0.10558823592387284</v>
+        <v>0.06251486167539605</v>
       </c>
       <c r="D306" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C307" t="n">
-        <v>0.19904894151314656</v>
+        <v>0.3879097453791906</v>
       </c>
       <c r="D307" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2388528853845175</v>
+        <v>0.134904009098767</v>
       </c>
       <c r="D308" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B309" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C309" t="n">
-        <v>0.2137291428867198</v>
+        <v>0.04641032518288948</v>
       </c>
       <c r="D309" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>0.13141607266760183</v>
+        <v>0.3121896235699634</v>
       </c>
       <c r="D310" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C311" t="n">
-        <v>0.11867464193296444</v>
+        <v>0.04825818639695467</v>
       </c>
       <c r="D311" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3871304780772768</v>
+        <v>0.06895611232922998</v>
       </c>
       <c r="D312" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="B313" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C313" t="n">
-        <v>0.37422292833196535</v>
+        <v>0.2516404469886283</v>
       </c>
       <c r="D313" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B314" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C314" t="n">
-        <v>0.2795926338104714</v>
+        <v>0.013056905995690354</v>
       </c>
       <c r="D314" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B315" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2819498944074045</v>
+        <v>0.10208148066923539</v>
       </c>
       <c r="D315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>0.12414459394876143</v>
+        <v>0.2222036105563113</v>
       </c>
       <c r="D316" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C317" t="n">
-        <v>0.07235777265148773</v>
+        <v>0.38978369958449693</v>
       </c>
       <c r="D317" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B318" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C318" t="n">
-        <v>0.10067575473742499</v>
+        <v>0.3370732778153277</v>
       </c>
       <c r="D318" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3879835274220895</v>
+        <v>0.04683687827032686</v>
       </c>
       <c r="D319" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="B320" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C320" t="n">
-        <v>0.3926722031605623</v>
+        <v>0.31348525832142343</v>
       </c>
       <c r="D320" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
       </c>
       <c r="C321" t="n">
-        <v>0.36397745803141296</v>
+        <v>0.27491481857124717</v>
       </c>
       <c r="D321" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B322" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C322" t="n">
-        <v>0.2872641254520591</v>
+        <v>0.12437056306850515</v>
       </c>
       <c r="D322" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2488290083296973</v>
+        <v>0.3212253001648477</v>
       </c>
       <c r="D323" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C324" t="n">
-        <v>0.17291587663032884</v>
+        <v>0.381685223284579</v>
       </c>
       <c r="D324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B325" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C325" t="n">
-        <v>0.3983232335215989</v>
+        <v>0.3970667963026203</v>
       </c>
       <c r="D325" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B326" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C326" t="n">
-        <v>0.006644498691632969</v>
+        <v>0.38780995883135283</v>
       </c>
       <c r="D326" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C327" t="n">
-        <v>0.19217076432050287</v>
+        <v>0.24321492888708204</v>
       </c>
       <c r="D327" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="B328" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C328" t="n">
-        <v>0.34636164565204525</v>
+        <v>0.20029189984584356</v>
       </c>
       <c r="D328" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B329" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C329" t="n">
-        <v>0.018908681606044173</v>
+        <v>0.37508491929302434</v>
       </c>
       <c r="D329" t="s">
         <v>14</v>
@@ -5586,279 +5625,279 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C330" t="n">
-        <v>0.32733661266098213</v>
+        <v>0.21915999716319004</v>
       </c>
       <c r="D330" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>0.18701541306100428</v>
+        <v>0.17517420018563393</v>
       </c>
       <c r="D331" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B332" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C332" t="n">
-        <v>0.3921263697492816</v>
+        <v>0.3687307662730265</v>
       </c>
       <c r="D332" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3830714365884316</v>
+        <v>0.31379221252654105</v>
       </c>
       <c r="D333" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B334" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C334" t="n">
-        <v>0.3523229355780543</v>
+        <v>0.34966729474678876</v>
       </c>
       <c r="D334" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C335" t="n">
-        <v>0.012475326515410012</v>
+        <v>0.02740082008624447</v>
       </c>
       <c r="D335" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="B336" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C336" t="n">
-        <v>0.3854191533677855</v>
+        <v>0.26798448111181844</v>
       </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
       </c>
       <c r="C337" t="n">
-        <v>0.37955560743325245</v>
+        <v>0.24113285408973106</v>
       </c>
       <c r="D337" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C338" t="n">
-        <v>0.3644988515909555</v>
+        <v>0.013644630187871964</v>
       </c>
       <c r="D338" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C339" t="n">
-        <v>0.39572316844740046</v>
+        <v>0.3095845661201435</v>
       </c>
       <c r="D339" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C340" t="n">
-        <v>0.3071059101210966</v>
+        <v>0.35474925352923137</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C341" t="n">
-        <v>0.16924626090768288</v>
+        <v>0.2520160666297702</v>
       </c>
       <c r="D341" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>0.317510893656882</v>
+        <v>0.028091130692854325</v>
       </c>
       <c r="D342" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B343" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3945539627275835</v>
+        <v>0.3619700703713498</v>
       </c>
       <c r="D343" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C344" t="n">
-        <v>0.3307932240830848</v>
+        <v>0.2507093398990782</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C345" t="n">
-        <v>0.3989255422530643</v>
+        <v>0.26686331165682353</v>
       </c>
       <c r="D345" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3425626165164781</v>
+        <v>0.301988287108028</v>
       </c>
       <c r="D346" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B347" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C347" t="n">
-        <v>0.34140938000156373</v>
+        <v>0.3918212743303121</v>
       </c>
       <c r="D347" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3726215748546867</v>
+        <v>0.3807040707386796</v>
       </c>
       <c r="D348" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C349" t="n">
-        <v>0.3479908037099297</v>
+        <v>0.10141180752882294</v>
       </c>
       <c r="D349" t="s">
         <v>20</v>
@@ -5866,170 +5905,170 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="B350" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>0.16247163452318542</v>
+        <v>0.18266498856870447</v>
       </c>
       <c r="D350" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1616027712931261</v>
+        <v>0.2460820195550626</v>
       </c>
       <c r="D351" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="B352" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>0.18181936844731472</v>
+        <v>0.13661997389054342</v>
       </c>
       <c r="D352" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
       </c>
       <c r="C353" t="n">
-        <v>0.2922942172892554</v>
+        <v>0.3120662838175586</v>
       </c>
       <c r="D353" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C354" t="n">
-        <v>0.3427098730220002</v>
+        <v>0.3723042759698244</v>
       </c>
       <c r="D354" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2953599059321789</v>
+        <v>0.169586894499901</v>
       </c>
       <c r="D355" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3577870773850838</v>
+        <v>0.04245735453622527</v>
       </c>
       <c r="D356" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2085969444474728</v>
+        <v>0.09561934285829064</v>
       </c>
       <c r="D357" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B358" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3982074604997331</v>
+        <v>0.30181057064397654</v>
       </c>
       <c r="D358" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C359" t="n">
-        <v>0.34809510331311017</v>
+        <v>0.3989398880865542</v>
       </c>
       <c r="D359" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="B360" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C360" t="n">
-        <v>0.23334056513387713</v>
+        <v>0.1989668495035413</v>
       </c>
       <c r="D360" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C361" t="n">
-        <v>0.33025716024429275</v>
+        <v>0.35829889460038244</v>
       </c>
       <c r="D361" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
